--- a/name/vnindex/20230104/VNINDEX_HOSE_5p_20230104.xlsx
+++ b/name/vnindex/20230104/VNINDEX_HOSE_5p_20230104.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P57"/>
+  <dimension ref="A1:P132"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -463,7 +463,7 @@
         <v>300</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -472,22 +472,22 @@
         <v>3900000</v>
       </c>
       <c r="G2">
-        <v>1300000</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I2">
-        <v>5200000</v>
+        <v>3900000</v>
       </c>
       <c r="J2" t="str">
         <v>2023-01-04T09:00:00.000Z</v>
       </c>
       <c r="K2">
-        <v>5200000</v>
+        <v>3900000</v>
       </c>
       <c r="L2">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M2">
         <v>300</v>
@@ -504,63 +504,63 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>1672823100000</v>
+        <v>1672822920000</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>100</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1320000</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1300000</v>
       </c>
       <c r="H3">
         <v>100</v>
       </c>
       <c r="I3">
-        <v>1320000</v>
+        <v>1300000</v>
       </c>
       <c r="J3" t="str">
-        <v>2023-01-04T09:05:00.000Z</v>
+        <v>2023-01-04T09:02:00.000Z</v>
       </c>
       <c r="K3">
-        <v>6520000</v>
+        <v>5200000</v>
       </c>
       <c r="L3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1320000</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="P3">
-        <v>5220000</v>
+        <v>3900000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1672823400000</v>
+        <v>1672823160000</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2500</v>
+        <v>100</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -569,2692 +569,6442 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>32750000</v>
+        <v>1320000</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2500</v>
+        <v>100</v>
       </c>
       <c r="I4">
-        <v>32750000</v>
+        <v>1320000</v>
       </c>
       <c r="J4" t="str">
-        <v>2023-01-04T09:10:00.000Z</v>
+        <v>2023-01-04T09:06:00.000Z</v>
       </c>
       <c r="K4">
-        <v>39270000</v>
+        <v>6520000</v>
       </c>
       <c r="L4">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="M4">
-        <v>2500</v>
+        <v>100</v>
       </c>
       <c r="N4">
-        <v>32750000</v>
+        <v>1320000</v>
       </c>
       <c r="O4">
-        <v>2900</v>
+        <v>400</v>
       </c>
       <c r="P4">
-        <v>37970000</v>
+        <v>5220000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>1672823700000</v>
+        <v>1672823400000</v>
       </c>
       <c r="B5">
-        <v>8806400</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>16449500</v>
+        <v>1000</v>
       </c>
       <c r="D5">
-        <v>8924400</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>134050813000</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>238736396000</v>
+        <v>13100000</v>
       </c>
       <c r="G5">
-        <v>77798813000</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>34180300</v>
+        <v>1000</v>
       </c>
       <c r="I5">
-        <v>450586022000</v>
+        <v>13100000</v>
       </c>
       <c r="J5" t="str">
-        <v>2023-01-04T09:15:00.000Z</v>
+        <v>2023-01-04T09:10:00.000Z</v>
       </c>
       <c r="K5">
-        <v>450625292000</v>
+        <v>19620000</v>
       </c>
       <c r="L5">
-        <v>34183300</v>
+        <v>1500</v>
       </c>
       <c r="M5">
-        <v>7643100</v>
+        <v>1000</v>
       </c>
       <c r="N5">
-        <v>104685583000</v>
+        <v>13100000</v>
       </c>
       <c r="O5">
-        <v>7646000</v>
+        <v>1400</v>
       </c>
       <c r="P5">
-        <v>104723553000</v>
+        <v>18320000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>1672824000000</v>
+        <v>1672823520000</v>
       </c>
       <c r="B6">
-        <v>7214300</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>12582100</v>
+        <v>1500</v>
       </c>
       <c r="D6">
-        <v>83900</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>107850461000</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>174609635000</v>
+        <v>19650000</v>
       </c>
       <c r="G6">
-        <v>994753000</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>19880300</v>
+        <v>1500</v>
       </c>
       <c r="I6">
-        <v>283454849000</v>
+        <v>19650000</v>
       </c>
       <c r="J6" t="str">
-        <v>2023-01-04T09:20:00.000Z</v>
+        <v>2023-01-04T09:12:00.000Z</v>
       </c>
       <c r="K6">
-        <v>734080141000</v>
+        <v>39270000</v>
       </c>
       <c r="L6">
-        <v>54063600</v>
+        <v>3000</v>
       </c>
       <c r="M6">
-        <v>5367800</v>
+        <v>1500</v>
       </c>
       <c r="N6">
-        <v>66759174000</v>
+        <v>19650000</v>
       </c>
       <c r="O6">
-        <v>13013800</v>
+        <v>2900</v>
       </c>
       <c r="P6">
-        <v>171482727000</v>
+        <v>37970000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>1672824300000</v>
+        <v>1672823640000</v>
       </c>
       <c r="B7">
-        <v>5783400</v>
+        <v>3534800</v>
       </c>
       <c r="C7">
-        <v>13577500</v>
+        <v>7258900</v>
       </c>
       <c r="D7">
-        <v>185400</v>
+        <v>8733800</v>
       </c>
       <c r="E7">
-        <v>87097812000</v>
+        <v>54172803000</v>
       </c>
       <c r="F7">
-        <v>231071189000</v>
+        <v>103393127000</v>
       </c>
       <c r="G7">
-        <v>3733711000</v>
+        <v>75739813000</v>
       </c>
       <c r="H7">
-        <v>19546300</v>
+        <v>19527500</v>
       </c>
       <c r="I7">
-        <v>321902712000</v>
+        <v>233305743000</v>
       </c>
       <c r="J7" t="str">
-        <v>2023-01-04T09:25:00.000Z</v>
+        <v>2023-01-04T09:14:00.000Z</v>
       </c>
       <c r="K7">
-        <v>1055982853000</v>
+        <v>233345013000</v>
       </c>
       <c r="L7">
-        <v>73609900</v>
+        <v>19530500</v>
       </c>
       <c r="M7">
-        <v>7794100</v>
+        <v>3724100</v>
       </c>
       <c r="N7">
-        <v>143973377000</v>
+        <v>49220324000</v>
       </c>
       <c r="O7">
-        <v>20807900</v>
+        <v>3727000</v>
       </c>
       <c r="P7">
-        <v>315456104000</v>
+        <v>49258294000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1672824600000</v>
+        <v>1672823760000</v>
       </c>
       <c r="B8">
-        <v>9257700</v>
+        <v>2303700</v>
       </c>
       <c r="C8">
-        <v>11160700</v>
+        <v>5157100</v>
       </c>
       <c r="D8">
-        <v>291800</v>
+        <v>91800</v>
       </c>
       <c r="E8">
-        <v>154005545000</v>
+        <v>33465263000</v>
       </c>
       <c r="F8">
-        <v>206373798000</v>
+        <v>77196107000</v>
       </c>
       <c r="G8">
-        <v>6155455000</v>
+        <v>925801000</v>
       </c>
       <c r="H8">
-        <v>20710200</v>
+        <v>7552600</v>
       </c>
       <c r="I8">
-        <v>366534798000</v>
+        <v>111587171000</v>
       </c>
       <c r="J8" t="str">
-        <v>2023-01-04T09:30:00.000Z</v>
+        <v>2023-01-04T09:16:00.000Z</v>
       </c>
       <c r="K8">
-        <v>1422517651000</v>
+        <v>344932184000</v>
       </c>
       <c r="L8">
-        <v>94320100</v>
+        <v>27083100</v>
       </c>
       <c r="M8">
-        <v>1903000</v>
+        <v>2853400</v>
       </c>
       <c r="N8">
-        <v>52368253000</v>
+        <v>43730844000</v>
       </c>
       <c r="O8">
-        <v>22710900</v>
+        <v>6580400</v>
       </c>
       <c r="P8">
-        <v>367824357000</v>
+        <v>92989138000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1672824900000</v>
+        <v>1672823880000</v>
       </c>
       <c r="B9">
-        <v>11232500</v>
+        <v>2967900</v>
       </c>
       <c r="C9">
-        <v>5516400</v>
+        <v>4033500</v>
       </c>
       <c r="D9">
-        <v>120600</v>
+        <v>98800</v>
       </c>
       <c r="E9">
-        <v>179375147000</v>
+        <v>46412747000</v>
       </c>
       <c r="F9">
-        <v>102447607000</v>
+        <v>58147162000</v>
       </c>
       <c r="G9">
-        <v>1977145000</v>
+        <v>1133199000</v>
       </c>
       <c r="H9">
-        <v>16869500</v>
+        <v>7100200</v>
       </c>
       <c r="I9">
-        <v>283799899000</v>
+        <v>105693108000</v>
       </c>
       <c r="J9" t="str">
-        <v>2023-01-04T09:35:00.000Z</v>
+        <v>2023-01-04T09:18:00.000Z</v>
       </c>
       <c r="K9">
-        <v>1706317550000</v>
+        <v>450625292000</v>
       </c>
       <c r="L9">
-        <v>111189600</v>
+        <v>34183300</v>
       </c>
       <c r="M9">
-        <v>-5716100</v>
+        <v>1065600</v>
       </c>
       <c r="N9">
-        <v>-76927540000</v>
+        <v>11734415000</v>
       </c>
       <c r="O9">
-        <v>16994800</v>
+        <v>7646000</v>
       </c>
       <c r="P9">
-        <v>290896817000</v>
+        <v>104723553000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1672825200000</v>
+        <v>1672824000000</v>
       </c>
       <c r="B10">
-        <v>11777200</v>
+        <v>2865000</v>
       </c>
       <c r="C10">
-        <v>4133700</v>
+        <v>6127300</v>
       </c>
       <c r="D10">
-        <v>94400</v>
+        <v>35200</v>
       </c>
       <c r="E10">
-        <v>171062331000</v>
+        <v>42538019000</v>
       </c>
       <c r="F10">
-        <v>72364995000</v>
+        <v>74823476000</v>
       </c>
       <c r="G10">
-        <v>2122623000</v>
+        <v>445162000</v>
       </c>
       <c r="H10">
-        <v>16005300</v>
+        <v>9027500</v>
       </c>
       <c r="I10">
-        <v>245549949000</v>
+        <v>117806657000</v>
       </c>
       <c r="J10" t="str">
-        <v>2023-01-04T09:40:00.000Z</v>
+        <v>2023-01-04T09:20:00.000Z</v>
       </c>
       <c r="K10">
-        <v>1951867499000</v>
+        <v>568431949000</v>
       </c>
       <c r="L10">
-        <v>127194900</v>
+        <v>43210800</v>
       </c>
       <c r="M10">
-        <v>-7643500</v>
+        <v>3262300</v>
       </c>
       <c r="N10">
-        <v>-98697336000</v>
+        <v>32285457000</v>
       </c>
       <c r="O10">
-        <v>9351300</v>
+        <v>10908300</v>
       </c>
       <c r="P10">
-        <v>192199481000</v>
+        <v>137009010000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1672825500000</v>
+        <v>1672824120000</v>
       </c>
       <c r="B11">
-        <v>6949800</v>
+        <v>2845000</v>
       </c>
       <c r="C11">
-        <v>3803200</v>
+        <v>4308800</v>
       </c>
       <c r="D11">
-        <v>39800</v>
+        <v>21800</v>
       </c>
       <c r="E11">
-        <v>111025821000</v>
+        <v>43087824000</v>
       </c>
       <c r="F11">
-        <v>64047522000</v>
+        <v>66447194000</v>
       </c>
       <c r="G11">
-        <v>751764000</v>
+        <v>355463000</v>
       </c>
       <c r="H11">
-        <v>10792800</v>
+        <v>7175600</v>
       </c>
       <c r="I11">
-        <v>175825107000</v>
+        <v>109890481000</v>
       </c>
       <c r="J11" t="str">
-        <v>2023-01-04T09:45:00.000Z</v>
+        <v>2023-01-04T09:22:00.000Z</v>
       </c>
       <c r="K11">
-        <v>2127692606000</v>
+        <v>678322430000</v>
       </c>
       <c r="L11">
-        <v>137987700</v>
+        <v>50386400</v>
       </c>
       <c r="M11">
-        <v>-3146600</v>
+        <v>1463800</v>
       </c>
       <c r="N11">
-        <v>-46978299000</v>
+        <v>23359370000</v>
       </c>
       <c r="O11">
-        <v>6204700</v>
+        <v>12372100</v>
       </c>
       <c r="P11">
-        <v>145221182000</v>
+        <v>160368380000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1672825800000</v>
+        <v>1672824240000</v>
       </c>
       <c r="B12">
-        <v>9633700</v>
+        <v>2520500</v>
       </c>
       <c r="C12">
-        <v>3783800</v>
+        <v>3800300</v>
       </c>
       <c r="D12">
-        <v>208900</v>
+        <v>29500</v>
       </c>
       <c r="E12">
-        <v>151394775000</v>
+        <v>37305463000</v>
       </c>
       <c r="F12">
-        <v>56521500000</v>
+        <v>60568812000</v>
       </c>
       <c r="G12">
-        <v>3105712000</v>
+        <v>256643000</v>
       </c>
       <c r="H12">
-        <v>13626400</v>
+        <v>6350300</v>
       </c>
       <c r="I12">
-        <v>211021987000</v>
+        <v>98130918000</v>
       </c>
       <c r="J12" t="str">
-        <v>2023-01-04T09:50:00.000Z</v>
+        <v>2023-01-04T09:24:00.000Z</v>
       </c>
       <c r="K12">
-        <v>2338714593000</v>
+        <v>776453348000</v>
       </c>
       <c r="L12">
-        <v>151614100</v>
+        <v>56736700</v>
       </c>
       <c r="M12">
-        <v>-5849900</v>
+        <v>1279800</v>
       </c>
       <c r="N12">
-        <v>-94873275000</v>
+        <v>23263349000</v>
       </c>
       <c r="O12">
-        <v>354800</v>
+        <v>13651900</v>
       </c>
       <c r="P12">
-        <v>50347907000</v>
+        <v>183631729000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>1672826100000</v>
+        <v>1672824360000</v>
       </c>
       <c r="B13">
-        <v>7811600</v>
+        <v>2146600</v>
       </c>
       <c r="C13">
-        <v>3029600</v>
+        <v>6633900</v>
       </c>
       <c r="D13">
-        <v>58400</v>
+        <v>36500</v>
       </c>
       <c r="E13">
-        <v>117087154000</v>
+        <v>31944198000</v>
       </c>
       <c r="F13">
-        <v>54190144000</v>
+        <v>116429637000</v>
       </c>
       <c r="G13">
-        <v>393709000</v>
+        <v>792270000</v>
       </c>
       <c r="H13">
-        <v>10899600</v>
+        <v>8817000</v>
       </c>
       <c r="I13">
-        <v>171671007000</v>
+        <v>149166105000</v>
       </c>
       <c r="J13" t="str">
-        <v>2023-01-04T09:55:00.000Z</v>
+        <v>2023-01-04T09:26:00.000Z</v>
       </c>
       <c r="K13">
-        <v>2510385600000</v>
+        <v>925619453000</v>
       </c>
       <c r="L13">
-        <v>162513700</v>
+        <v>65553700</v>
       </c>
       <c r="M13">
-        <v>-4782000</v>
+        <v>4487300</v>
       </c>
       <c r="N13">
-        <v>-62897010000</v>
+        <v>84485439000</v>
       </c>
       <c r="O13">
-        <v>-4427200</v>
+        <v>18139200</v>
       </c>
       <c r="P13">
-        <v>-12549103000</v>
+        <v>268117168000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1672826400000</v>
+        <v>1672824480000</v>
       </c>
       <c r="B14">
-        <v>4115400</v>
+        <v>2620600</v>
       </c>
       <c r="C14">
-        <v>11103200</v>
+        <v>5289300</v>
       </c>
       <c r="D14">
-        <v>49200</v>
+        <v>146300</v>
       </c>
       <c r="E14">
-        <v>63837709000</v>
+        <v>40072769000</v>
       </c>
       <c r="F14">
-        <v>182717439000</v>
+        <v>87411705000</v>
       </c>
       <c r="G14">
-        <v>697312000</v>
+        <v>2878926000</v>
       </c>
       <c r="H14">
-        <v>15267800</v>
+        <v>8056200</v>
       </c>
       <c r="I14">
-        <v>247252460000</v>
+        <v>130363400000</v>
       </c>
       <c r="J14" t="str">
-        <v>2023-01-04T10:00:00.000Z</v>
+        <v>2023-01-04T09:28:00.000Z</v>
       </c>
       <c r="K14">
-        <v>2757638060000</v>
+        <v>1055982853000</v>
       </c>
       <c r="L14">
-        <v>177781500</v>
+        <v>73609900</v>
       </c>
       <c r="M14">
-        <v>6987800</v>
+        <v>2668700</v>
       </c>
       <c r="N14">
-        <v>118879730000</v>
+        <v>47338936000</v>
       </c>
       <c r="O14">
-        <v>2560600</v>
+        <v>20807900</v>
       </c>
       <c r="P14">
-        <v>106330627000</v>
+        <v>315456104000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>1672826700000</v>
+        <v>1672824600000</v>
       </c>
       <c r="B15">
-        <v>4621700</v>
+        <v>3728500</v>
       </c>
       <c r="C15">
-        <v>8178900</v>
+        <v>4851100</v>
       </c>
       <c r="D15">
-        <v>42700</v>
+        <v>65300</v>
       </c>
       <c r="E15">
-        <v>74159140000</v>
+        <v>63025363000</v>
       </c>
       <c r="F15">
-        <v>140738603000</v>
+        <v>83840407000</v>
       </c>
       <c r="G15">
-        <v>1151662000</v>
+        <v>1508950000</v>
       </c>
       <c r="H15">
-        <v>12843300</v>
+        <v>8644900</v>
       </c>
       <c r="I15">
-        <v>216049405000</v>
+        <v>148374720000</v>
       </c>
       <c r="J15" t="str">
-        <v>2023-01-04T10:05:00.000Z</v>
+        <v>2023-01-04T09:30:00.000Z</v>
       </c>
       <c r="K15">
-        <v>2973687465000</v>
+        <v>1204357573000</v>
       </c>
       <c r="L15">
-        <v>190624800</v>
+        <v>82254800</v>
       </c>
       <c r="M15">
-        <v>3557200</v>
+        <v>1122600</v>
       </c>
       <c r="N15">
-        <v>66579463000</v>
+        <v>20815044000</v>
       </c>
       <c r="O15">
-        <v>6117800</v>
+        <v>21930500</v>
       </c>
       <c r="P15">
-        <v>172910090000</v>
+        <v>336271148000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>1672827000000</v>
+        <v>1672824720000</v>
       </c>
       <c r="B16">
-        <v>5719100</v>
+        <v>3831400</v>
       </c>
       <c r="C16">
-        <v>3635400</v>
+        <v>4390000</v>
       </c>
       <c r="D16">
-        <v>16000</v>
+        <v>72000</v>
       </c>
       <c r="E16">
-        <v>79198623000</v>
+        <v>63655130000</v>
       </c>
       <c r="F16">
-        <v>64517306000</v>
+        <v>86010740000</v>
       </c>
       <c r="G16">
-        <v>223777000</v>
+        <v>1647915000</v>
       </c>
       <c r="H16">
-        <v>9370500</v>
+        <v>8293400</v>
       </c>
       <c r="I16">
-        <v>143939706000</v>
+        <v>151313785000</v>
       </c>
       <c r="J16" t="str">
-        <v>2023-01-04T10:10:00.000Z</v>
+        <v>2023-01-04T09:32:00.000Z</v>
       </c>
       <c r="K16">
-        <v>3117627171000</v>
+        <v>1355671358000</v>
       </c>
       <c r="L16">
-        <v>199995300</v>
+        <v>90548200</v>
       </c>
       <c r="M16">
-        <v>-2083700</v>
+        <v>558600</v>
       </c>
       <c r="N16">
-        <v>-14681317000</v>
+        <v>22355610000</v>
       </c>
       <c r="O16">
-        <v>4034100</v>
+        <v>22489100</v>
       </c>
       <c r="P16">
-        <v>158228773000</v>
+        <v>358626758000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1672827300000</v>
+        <v>1672824840000</v>
       </c>
       <c r="B17">
-        <v>4642100</v>
+        <v>3485700</v>
       </c>
       <c r="C17">
-        <v>2595300</v>
+        <v>3218000</v>
       </c>
       <c r="D17">
-        <v>44900</v>
+        <v>163500</v>
       </c>
       <c r="E17">
-        <v>79452654000</v>
+        <v>59191173000</v>
       </c>
       <c r="F17">
-        <v>45491756000</v>
+        <v>61745962000</v>
       </c>
       <c r="G17">
-        <v>814479000</v>
+        <v>3106471000</v>
       </c>
       <c r="H17">
-        <v>7282300</v>
+        <v>6867200</v>
       </c>
       <c r="I17">
-        <v>125758889000</v>
+        <v>124043606000</v>
       </c>
       <c r="J17" t="str">
-        <v>2023-01-04T10:15:00.000Z</v>
+        <v>2023-01-04T09:34:00.000Z</v>
       </c>
       <c r="K17">
-        <v>3243386060000</v>
+        <v>1479714964000</v>
       </c>
       <c r="L17">
-        <v>207277600</v>
+        <v>97415400</v>
       </c>
       <c r="M17">
-        <v>-2046800</v>
+        <v>-267700</v>
       </c>
       <c r="N17">
-        <v>-33960898000</v>
+        <v>2554789000</v>
       </c>
       <c r="O17">
-        <v>1987300</v>
+        <v>22221400</v>
       </c>
       <c r="P17">
-        <v>124267875000</v>
+        <v>361181547000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1672827600000</v>
+        <v>1672824960000</v>
       </c>
       <c r="B18">
-        <v>7931300</v>
+        <v>4518900</v>
       </c>
       <c r="C18">
-        <v>2825100</v>
+        <v>2420100</v>
       </c>
       <c r="D18">
-        <v>58700</v>
+        <v>81300</v>
       </c>
       <c r="E18">
-        <v>114701554000</v>
+        <v>74402214000</v>
       </c>
       <c r="F18">
-        <v>47850968000</v>
+        <v>45698046000</v>
       </c>
       <c r="G18">
-        <v>1079035000</v>
+        <v>1440670000</v>
       </c>
       <c r="H18">
-        <v>10815100</v>
+        <v>7020300</v>
       </c>
       <c r="I18">
-        <v>163631557000</v>
+        <v>121540930000</v>
       </c>
       <c r="J18" t="str">
-        <v>2023-01-04T10:20:00.000Z</v>
+        <v>2023-01-04T09:36:00.000Z</v>
       </c>
       <c r="K18">
-        <v>3407017617000</v>
+        <v>1601255894000</v>
       </c>
       <c r="L18">
-        <v>218092700</v>
+        <v>104435700</v>
       </c>
       <c r="M18">
-        <v>-5106200</v>
+        <v>-2098800</v>
       </c>
       <c r="N18">
-        <v>-66850586000</v>
+        <v>-28704168000</v>
       </c>
       <c r="O18">
-        <v>-3118900</v>
+        <v>20122600</v>
       </c>
       <c r="P18">
-        <v>57417289000</v>
+        <v>332477379000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>1672827900000</v>
+        <v>1672825080000</v>
       </c>
       <c r="B19">
-        <v>3717400</v>
+        <v>4925700</v>
       </c>
       <c r="C19">
-        <v>5028500</v>
+        <v>1797900</v>
       </c>
       <c r="D19">
-        <v>145300</v>
+        <v>30300</v>
       </c>
       <c r="E19">
-        <v>59216969000</v>
+        <v>73106812000</v>
       </c>
       <c r="F19">
-        <v>97102873000</v>
+        <v>31526250000</v>
       </c>
       <c r="G19">
-        <v>2210492000</v>
+        <v>428594000</v>
       </c>
       <c r="H19">
-        <v>8891200</v>
+        <v>6753900</v>
       </c>
       <c r="I19">
-        <v>158530334000</v>
+        <v>105061656000</v>
       </c>
       <c r="J19" t="str">
-        <v>2023-01-04T10:25:00.000Z</v>
+        <v>2023-01-04T09:38:00.000Z</v>
       </c>
       <c r="K19">
-        <v>3565547951000</v>
+        <v>1706317550000</v>
       </c>
       <c r="L19">
-        <v>226983900</v>
+        <v>111189600</v>
       </c>
       <c r="M19">
-        <v>1311100</v>
+        <v>-3127800</v>
       </c>
       <c r="N19">
-        <v>37885904000</v>
+        <v>-41580562000</v>
       </c>
       <c r="O19">
-        <v>-1807800</v>
+        <v>16994800</v>
       </c>
       <c r="P19">
-        <v>95303193000</v>
+        <v>290896817000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>1672828200000</v>
+        <v>1672825200000</v>
       </c>
       <c r="B20">
-        <v>2392100</v>
+        <v>3587900</v>
       </c>
       <c r="C20">
-        <v>6048000</v>
+        <v>1372700</v>
       </c>
       <c r="D20">
-        <v>63700</v>
+        <v>13800</v>
       </c>
       <c r="E20">
-        <v>42295126000</v>
+        <v>59581136000</v>
       </c>
       <c r="F20">
-        <v>108689608000</v>
+        <v>24313033000</v>
       </c>
       <c r="G20">
-        <v>1403075000</v>
+        <v>367022000</v>
       </c>
       <c r="H20">
-        <v>8503800</v>
+        <v>4974400</v>
       </c>
       <c r="I20">
-        <v>152387809000</v>
+        <v>84261191000</v>
       </c>
       <c r="J20" t="str">
-        <v>2023-01-04T10:30:00.000Z</v>
+        <v>2023-01-04T09:40:00.000Z</v>
       </c>
       <c r="K20">
-        <v>3717935760000</v>
+        <v>1790578741000</v>
       </c>
       <c r="L20">
-        <v>235487700</v>
+        <v>116164000</v>
       </c>
       <c r="M20">
-        <v>3655900</v>
+        <v>-2215200</v>
       </c>
       <c r="N20">
-        <v>66394482000</v>
+        <v>-35268103000</v>
       </c>
       <c r="O20">
-        <v>1848100</v>
+        <v>14779600</v>
       </c>
       <c r="P20">
-        <v>161697675000</v>
+        <v>255628714000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>1672828500000</v>
+        <v>1672825320000</v>
       </c>
       <c r="B21">
-        <v>2970900</v>
+        <v>6282500</v>
       </c>
       <c r="C21">
-        <v>5895100</v>
+        <v>1572600</v>
       </c>
       <c r="D21">
-        <v>53900</v>
+        <v>68300</v>
       </c>
       <c r="E21">
-        <v>49694885000</v>
+        <v>81169875000</v>
       </c>
       <c r="F21">
-        <v>120737868000</v>
+        <v>26221728000</v>
       </c>
       <c r="G21">
-        <v>603386000</v>
+        <v>1531540000</v>
       </c>
       <c r="H21">
-        <v>8919900</v>
+        <v>7923400</v>
       </c>
       <c r="I21">
-        <v>171036139000</v>
+        <v>108923143000</v>
       </c>
       <c r="J21" t="str">
-        <v>2023-01-04T10:35:00.000Z</v>
+        <v>2023-01-04T09:42:00.000Z</v>
       </c>
       <c r="K21">
-        <v>3888971899000</v>
+        <v>1899501884000</v>
       </c>
       <c r="L21">
-        <v>244407600</v>
+        <v>124087400</v>
       </c>
       <c r="M21">
-        <v>2924200</v>
+        <v>-4709900</v>
       </c>
       <c r="N21">
-        <v>71042983000</v>
+        <v>-54948147000</v>
       </c>
       <c r="O21">
-        <v>4772300</v>
+        <v>10069700</v>
       </c>
       <c r="P21">
-        <v>232740658000</v>
+        <v>200680567000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>1672828800000</v>
+        <v>1672825440000</v>
       </c>
       <c r="B22">
-        <v>4146300</v>
+        <v>3396500</v>
       </c>
       <c r="C22">
-        <v>7528200</v>
+        <v>1698700</v>
       </c>
       <c r="D22">
-        <v>21700</v>
+        <v>13400</v>
       </c>
       <c r="E22">
-        <v>74074498000</v>
+        <v>53463509000</v>
       </c>
       <c r="F22">
-        <v>132797095000</v>
+        <v>30488045000</v>
       </c>
       <c r="G22">
-        <v>279378000</v>
+        <v>230944000</v>
       </c>
       <c r="H22">
-        <v>11696200</v>
+        <v>5108600</v>
       </c>
       <c r="I22">
-        <v>207150971000</v>
+        <v>84182498000</v>
       </c>
       <c r="J22" t="str">
-        <v>2023-01-04T10:40:00.000Z</v>
+        <v>2023-01-04T09:44:00.000Z</v>
       </c>
       <c r="K22">
-        <v>4096122870000</v>
+        <v>1983684382000</v>
       </c>
       <c r="L22">
-        <v>256103800</v>
+        <v>129196000</v>
       </c>
       <c r="M22">
-        <v>3381900</v>
+        <v>-1697800</v>
       </c>
       <c r="N22">
-        <v>58722597000</v>
+        <v>-22975464000</v>
       </c>
       <c r="O22">
-        <v>8154200</v>
+        <v>8371900</v>
       </c>
       <c r="P22">
-        <v>291463255000</v>
+        <v>177705103000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1672829100000</v>
+        <v>1672825560000</v>
       </c>
       <c r="B23">
-        <v>4119300</v>
+        <v>3156300</v>
       </c>
       <c r="C23">
-        <v>3960700</v>
+        <v>1316300</v>
       </c>
       <c r="D23">
-        <v>36300</v>
+        <v>17700</v>
       </c>
       <c r="E23">
-        <v>76302953000</v>
+        <v>50868919000</v>
       </c>
       <c r="F23">
-        <v>74966768000</v>
+        <v>25092834000</v>
       </c>
       <c r="G23">
-        <v>1019915000</v>
+        <v>364829000</v>
       </c>
       <c r="H23">
-        <v>8116300</v>
+        <v>4490300</v>
       </c>
       <c r="I23">
-        <v>152289636000</v>
+        <v>76326582000</v>
       </c>
       <c r="J23" t="str">
-        <v>2023-01-04T10:45:00.000Z</v>
+        <v>2023-01-04T09:46:00.000Z</v>
       </c>
       <c r="K23">
-        <v>4248412506000</v>
+        <v>2060010964000</v>
       </c>
       <c r="L23">
-        <v>264220100</v>
+        <v>133686300</v>
       </c>
       <c r="M23">
-        <v>-158600</v>
+        <v>-1840000</v>
       </c>
       <c r="N23">
-        <v>-1336185000</v>
+        <v>-25776085000</v>
       </c>
       <c r="O23">
-        <v>7995600</v>
+        <v>6531900</v>
       </c>
       <c r="P23">
-        <v>290127070000</v>
+        <v>151929018000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1672829400000</v>
+        <v>1672825680000</v>
       </c>
       <c r="B24">
-        <v>3966300</v>
+        <v>2303800</v>
       </c>
       <c r="C24">
-        <v>4349500</v>
+        <v>1976600</v>
       </c>
       <c r="D24">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="E24">
-        <v>62465624000</v>
+        <v>37004713000</v>
       </c>
       <c r="F24">
-        <v>82925913000</v>
+        <v>30296877000</v>
       </c>
       <c r="G24">
-        <v>282237000</v>
+        <v>380052000</v>
       </c>
       <c r="H24">
-        <v>8329800</v>
+        <v>4301400</v>
       </c>
       <c r="I24">
-        <v>145673774000</v>
+        <v>67681642000</v>
       </c>
       <c r="J24" t="str">
-        <v>2023-01-04T10:50:00.000Z</v>
+        <v>2023-01-04T09:48:00.000Z</v>
       </c>
       <c r="K24">
-        <v>4394086280000</v>
+        <v>2127692606000</v>
       </c>
       <c r="L24">
-        <v>272549900</v>
+        <v>137987700</v>
       </c>
       <c r="M24">
-        <v>383200</v>
+        <v>-327200</v>
       </c>
       <c r="N24">
-        <v>20460289000</v>
+        <v>-6707836000</v>
       </c>
       <c r="O24">
-        <v>8378800</v>
+        <v>6204700</v>
       </c>
       <c r="P24">
-        <v>310587359000</v>
+        <v>145221182000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>1672829700000</v>
+        <v>1672825800000</v>
       </c>
       <c r="B25">
-        <v>4387100</v>
+        <v>2311700</v>
       </c>
       <c r="C25">
-        <v>2355700</v>
+        <v>2029700</v>
       </c>
       <c r="D25">
-        <v>49600</v>
+        <v>128700</v>
       </c>
       <c r="E25">
-        <v>76241884000</v>
+        <v>38318801000</v>
       </c>
       <c r="F25">
-        <v>41371367000</v>
+        <v>27769278000</v>
       </c>
       <c r="G25">
-        <v>1020820000</v>
+        <v>2031935000</v>
       </c>
       <c r="H25">
-        <v>6792400</v>
+        <v>4470100</v>
       </c>
       <c r="I25">
-        <v>118634071000</v>
+        <v>68120014000</v>
       </c>
       <c r="J25" t="str">
-        <v>2023-01-04T10:55:00.000Z</v>
+        <v>2023-01-04T09:50:00.000Z</v>
       </c>
       <c r="K25">
-        <v>4512720351000</v>
+        <v>2195812620000</v>
       </c>
       <c r="L25">
-        <v>279342300</v>
+        <v>142457800</v>
       </c>
       <c r="M25">
-        <v>-2031400</v>
+        <v>-282000</v>
       </c>
       <c r="N25">
-        <v>-34870517000</v>
+        <v>-10549523000</v>
       </c>
       <c r="O25">
-        <v>6347400</v>
+        <v>5922700</v>
       </c>
       <c r="P25">
-        <v>275716842000</v>
+        <v>134671659000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>1672830000000</v>
+        <v>1672825920000</v>
       </c>
       <c r="B26">
-        <v>7026500</v>
+        <v>4656000</v>
       </c>
       <c r="C26">
-        <v>1871000</v>
+        <v>1287400</v>
       </c>
       <c r="D26">
-        <v>26100</v>
+        <v>62900</v>
       </c>
       <c r="E26">
-        <v>124406050000</v>
+        <v>71364375000</v>
       </c>
       <c r="F26">
-        <v>31870562000</v>
+        <v>20843486000</v>
       </c>
       <c r="G26">
-        <v>1122148000</v>
+        <v>907954000</v>
       </c>
       <c r="H26">
-        <v>8923600</v>
+        <v>6006300</v>
       </c>
       <c r="I26">
-        <v>157398760000</v>
+        <v>93115815000</v>
       </c>
       <c r="J26" t="str">
-        <v>2023-01-04T11:00:00.000Z</v>
+        <v>2023-01-04T09:52:00.000Z</v>
       </c>
       <c r="K26">
-        <v>4670119111000</v>
+        <v>2288928435000</v>
       </c>
       <c r="L26">
-        <v>288265900</v>
+        <v>148464100</v>
       </c>
       <c r="M26">
-        <v>-5155500</v>
+        <v>-3368600</v>
       </c>
       <c r="N26">
-        <v>-92535488000</v>
+        <v>-50520889000</v>
       </c>
       <c r="O26">
-        <v>1191900</v>
+        <v>2554100</v>
       </c>
       <c r="P26">
-        <v>183181354000</v>
+        <v>84150770000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>1672830300000</v>
+        <v>1672826040000</v>
       </c>
       <c r="B27">
-        <v>2848500</v>
+        <v>4591400</v>
       </c>
       <c r="C27">
-        <v>1667200</v>
+        <v>1118900</v>
       </c>
       <c r="D27">
-        <v>25400</v>
+        <v>55300</v>
       </c>
       <c r="E27">
-        <v>49654960000</v>
+        <v>73738973000</v>
       </c>
       <c r="F27">
-        <v>31107178000</v>
+        <v>19450927000</v>
       </c>
       <c r="G27">
-        <v>646024000</v>
+        <v>376027000</v>
       </c>
       <c r="H27">
-        <v>4541100</v>
+        <v>5765600</v>
       </c>
       <c r="I27">
-        <v>81408162000</v>
+        <v>93565927000</v>
       </c>
       <c r="J27" t="str">
-        <v>2023-01-04T11:05:00.000Z</v>
+        <v>2023-01-04T09:54:00.000Z</v>
       </c>
       <c r="K27">
-        <v>4751527273000</v>
+        <v>2382494362000</v>
       </c>
       <c r="L27">
-        <v>292807000</v>
+        <v>154229700</v>
       </c>
       <c r="M27">
-        <v>-1181300</v>
+        <v>-3472500</v>
       </c>
       <c r="N27">
-        <v>-18547782000</v>
+        <v>-54288046000</v>
       </c>
       <c r="O27">
-        <v>10600</v>
+        <v>-918400</v>
       </c>
       <c r="P27">
-        <v>164633572000</v>
+        <v>29862724000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1672830600000</v>
+        <v>1672826160000</v>
       </c>
       <c r="B28">
-        <v>4422100</v>
+        <v>2789900</v>
       </c>
       <c r="C28">
-        <v>2199400</v>
+        <v>1222900</v>
       </c>
       <c r="D28">
-        <v>10000</v>
+        <v>6700</v>
       </c>
       <c r="E28">
-        <v>61380665000</v>
+        <v>40078045000</v>
       </c>
       <c r="F28">
-        <v>35060957000</v>
+        <v>19806479000</v>
       </c>
       <c r="G28">
-        <v>266189000</v>
+        <v>56783000</v>
       </c>
       <c r="H28">
-        <v>6631500</v>
+        <v>4019500</v>
       </c>
       <c r="I28">
-        <v>96707811000</v>
+        <v>59941307000</v>
       </c>
       <c r="J28" t="str">
-        <v>2023-01-04T11:10:00.000Z</v>
+        <v>2023-01-04T09:56:00.000Z</v>
       </c>
       <c r="K28">
-        <v>4848235084000</v>
+        <v>2442435669000</v>
       </c>
       <c r="L28">
-        <v>299438500</v>
+        <v>158249200</v>
       </c>
       <c r="M28">
-        <v>-2222700</v>
+        <v>-1567000</v>
       </c>
       <c r="N28">
-        <v>-26319708000</v>
+        <v>-20271566000</v>
       </c>
       <c r="O28">
-        <v>-2212100</v>
+        <v>-2485400</v>
       </c>
       <c r="P28">
-        <v>138313864000</v>
+        <v>9591158000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>1672830900000</v>
+        <v>1672826280000</v>
       </c>
       <c r="B29">
-        <v>4467600</v>
+        <v>3096300</v>
       </c>
       <c r="C29">
-        <v>1581500</v>
+        <v>1154500</v>
       </c>
       <c r="D29">
-        <v>30000</v>
+        <v>13700</v>
       </c>
       <c r="E29">
-        <v>79358837000</v>
+        <v>44981735000</v>
       </c>
       <c r="F29">
-        <v>29605253000</v>
+        <v>22841474000</v>
       </c>
       <c r="G29">
-        <v>360643000</v>
+        <v>126722000</v>
       </c>
       <c r="H29">
-        <v>6079100</v>
+        <v>4264500</v>
       </c>
       <c r="I29">
-        <v>109324733000</v>
+        <v>67949931000</v>
       </c>
       <c r="J29" t="str">
-        <v>2023-01-04T11:15:00.000Z</v>
+        <v>2023-01-04T09:58:00.000Z</v>
       </c>
       <c r="K29">
-        <v>4957559817000</v>
+        <v>2510385600000</v>
       </c>
       <c r="L29">
-        <v>305517600</v>
+        <v>162513700</v>
       </c>
       <c r="M29">
-        <v>-2886100</v>
+        <v>-1941800</v>
       </c>
       <c r="N29">
-        <v>-49753584000</v>
+        <v>-22140261000</v>
       </c>
       <c r="O29">
-        <v>-5098200</v>
+        <v>-4427200</v>
       </c>
       <c r="P29">
-        <v>88560280000</v>
+        <v>-12549103000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>1672831200000</v>
+        <v>1672826400000</v>
       </c>
       <c r="B30">
-        <v>3851800</v>
+        <v>2070900</v>
       </c>
       <c r="C30">
-        <v>2243600</v>
+        <v>1948600</v>
       </c>
       <c r="D30">
-        <v>35000</v>
+        <v>32800</v>
       </c>
       <c r="E30">
-        <v>61145883000</v>
+        <v>32778503000</v>
       </c>
       <c r="F30">
-        <v>40724118000</v>
+        <v>28781372000</v>
       </c>
       <c r="G30">
-        <v>624094000</v>
+        <v>383648000</v>
       </c>
       <c r="H30">
-        <v>6130400</v>
+        <v>4052300</v>
       </c>
       <c r="I30">
-        <v>102494095000</v>
+        <v>61943523000</v>
       </c>
       <c r="J30" t="str">
-        <v>2023-01-04T11:20:00.000Z</v>
+        <v>2023-01-04T10:00:00.000Z</v>
       </c>
       <c r="K30">
-        <v>5060053912000</v>
+        <v>2572329123000</v>
       </c>
       <c r="L30">
-        <v>311648000</v>
+        <v>166566000</v>
       </c>
       <c r="M30">
-        <v>-1608200</v>
+        <v>-122300</v>
       </c>
       <c r="N30">
-        <v>-20421765000</v>
+        <v>-3997131000</v>
       </c>
       <c r="O30">
-        <v>-6706400</v>
+        <v>-4549500</v>
       </c>
       <c r="P30">
-        <v>68138515000</v>
+        <v>-16546234000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>1672831500000</v>
+        <v>1672826520000</v>
       </c>
       <c r="B31">
-        <v>3264900</v>
+        <v>1458100</v>
       </c>
       <c r="C31">
-        <v>1640000</v>
+        <v>4949900</v>
       </c>
       <c r="D31">
-        <v>6300</v>
+        <v>1600</v>
       </c>
       <c r="E31">
-        <v>49678758000</v>
+        <v>20283571000</v>
       </c>
       <c r="F31">
-        <v>32676716000</v>
+        <v>88850749000</v>
       </c>
       <c r="G31">
-        <v>89890000</v>
+        <v>93985000.00000001</v>
       </c>
       <c r="H31">
-        <v>4911200</v>
+        <v>6409600</v>
       </c>
       <c r="I31">
-        <v>82445364000</v>
+        <v>109228305000</v>
       </c>
       <c r="J31" t="str">
-        <v>2023-01-04T11:25:00.000Z</v>
+        <v>2023-01-04T10:02:00.000Z</v>
       </c>
       <c r="K31">
-        <v>5142499276000</v>
+        <v>2681557428000</v>
       </c>
       <c r="L31">
-        <v>316559200</v>
+        <v>172975600</v>
       </c>
       <c r="M31">
-        <v>-1624900</v>
+        <v>3491800</v>
       </c>
       <c r="N31">
-        <v>-17002042000</v>
+        <v>68567178000</v>
       </c>
       <c r="O31">
-        <v>-8331300</v>
+        <v>-1057700</v>
       </c>
       <c r="P31">
-        <v>51136473000</v>
+        <v>52020944000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>1672831800000</v>
+        <v>1672826640000</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1353900</v>
       </c>
       <c r="C32">
-        <v>300</v>
+        <v>6948300</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>18000</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>23181616000</v>
       </c>
       <c r="F32">
-        <v>624000</v>
+        <v>114768521000</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>473494000</v>
       </c>
       <c r="H32">
-        <v>300</v>
+        <v>8320200</v>
       </c>
       <c r="I32">
-        <v>624000</v>
+        <v>138423631000</v>
       </c>
       <c r="J32" t="str">
-        <v>2023-01-04T11:30:00.000Z</v>
+        <v>2023-01-04T10:04:00.000Z</v>
       </c>
       <c r="K32">
-        <v>5142499900000</v>
+        <v>2819981059000</v>
       </c>
       <c r="L32">
-        <v>316559500</v>
+        <v>181295800</v>
       </c>
       <c r="M32">
-        <v>300</v>
+        <v>5594400</v>
       </c>
       <c r="N32">
-        <v>624000</v>
+        <v>91586905000</v>
       </c>
       <c r="O32">
-        <v>-8331000</v>
+        <v>4536700</v>
       </c>
       <c r="P32">
-        <v>51137097000</v>
+        <v>143607849000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>1672836900000</v>
+        <v>1672826760000</v>
       </c>
       <c r="B33">
-        <v>42100</v>
+        <v>2111400</v>
       </c>
       <c r="C33">
-        <v>15700</v>
+        <v>2907000</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>28300</v>
       </c>
       <c r="E33">
-        <v>652330000</v>
+        <v>34714645000</v>
       </c>
       <c r="F33">
-        <v>287545000</v>
+        <v>52974282000</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>760031000</v>
       </c>
       <c r="H33">
-        <v>57800</v>
+        <v>5046700</v>
       </c>
       <c r="I33">
-        <v>939875000</v>
+        <v>88448958000</v>
       </c>
       <c r="J33" t="str">
-        <v>2023-01-04T12:55:00.000Z</v>
+        <v>2023-01-04T10:06:00.000Z</v>
       </c>
       <c r="K33">
-        <v>5143439775000</v>
+        <v>2908430017000</v>
       </c>
       <c r="L33">
-        <v>316617300</v>
+        <v>186342500</v>
       </c>
       <c r="M33">
-        <v>-26400</v>
+        <v>795600</v>
       </c>
       <c r="N33">
-        <v>-364785000</v>
+        <v>18259637000</v>
       </c>
       <c r="O33">
-        <v>-8357400</v>
+        <v>5332300</v>
       </c>
       <c r="P33">
-        <v>50772312000</v>
+        <v>161867486000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1672837200000</v>
+        <v>1672826880000</v>
       </c>
       <c r="B34">
-        <v>9531700</v>
+        <v>1742800</v>
       </c>
       <c r="C34">
-        <v>4257800</v>
+        <v>2528300</v>
       </c>
       <c r="D34">
-        <v>282800</v>
+        <v>11200</v>
       </c>
       <c r="E34">
-        <v>139472755000</v>
+        <v>27038514000</v>
       </c>
       <c r="F34">
-        <v>69036265000</v>
+        <v>38081118000</v>
       </c>
       <c r="G34">
-        <v>3437007000</v>
+        <v>137816000</v>
       </c>
       <c r="H34">
-        <v>14072300</v>
+        <v>4282300</v>
       </c>
       <c r="I34">
-        <v>211946027000</v>
+        <v>65257448000</v>
       </c>
       <c r="J34" t="str">
-        <v>2023-01-04T13:00:00.000Z</v>
+        <v>2023-01-04T10:08:00.000Z</v>
       </c>
       <c r="K34">
-        <v>5355385802000</v>
+        <v>2973687465000</v>
       </c>
       <c r="L34">
-        <v>330689600</v>
+        <v>190624800</v>
       </c>
       <c r="M34">
-        <v>-5273900</v>
+        <v>785500</v>
       </c>
       <c r="N34">
-        <v>-70436490000</v>
+        <v>11042604000</v>
       </c>
       <c r="O34">
-        <v>-13631300</v>
+        <v>6117800</v>
       </c>
       <c r="P34">
-        <v>-19664178000</v>
+        <v>172910090000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1672837500000</v>
+        <v>1672827000000</v>
       </c>
       <c r="B35">
-        <v>4379100</v>
+        <v>3033000</v>
       </c>
       <c r="C35">
-        <v>4112800</v>
+        <v>1451200</v>
       </c>
       <c r="D35">
-        <v>22700</v>
+        <v>10800</v>
       </c>
       <c r="E35">
-        <v>66495993000</v>
+        <v>45001972000</v>
       </c>
       <c r="F35">
-        <v>68682110000</v>
+        <v>25883360000</v>
       </c>
       <c r="G35">
-        <v>514008000</v>
+        <v>142013000</v>
       </c>
       <c r="H35">
-        <v>8514600</v>
+        <v>4495000</v>
       </c>
       <c r="I35">
-        <v>135692111000</v>
+        <v>71027345000</v>
       </c>
       <c r="J35" t="str">
-        <v>2023-01-04T13:05:00.000Z</v>
+        <v>2023-01-04T10:10:00.000Z</v>
       </c>
       <c r="K35">
-        <v>5491077913000</v>
+        <v>3044714810000</v>
       </c>
       <c r="L35">
-        <v>339204200</v>
+        <v>195119800</v>
       </c>
       <c r="M35">
-        <v>-266300</v>
+        <v>-1581800</v>
       </c>
       <c r="N35">
-        <v>2186117000</v>
+        <v>-19118612000</v>
       </c>
       <c r="O35">
-        <v>-13897600</v>
+        <v>4536000</v>
       </c>
       <c r="P35">
-        <v>-17478061000</v>
+        <v>153791478000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1672837800000</v>
+        <v>1672827120000</v>
       </c>
       <c r="B36">
-        <v>3432800</v>
+        <v>1923600</v>
       </c>
       <c r="C36">
-        <v>3066800</v>
+        <v>1185900</v>
       </c>
       <c r="D36">
-        <v>29400</v>
+        <v>2200</v>
       </c>
       <c r="E36">
-        <v>57286944000</v>
+        <v>24090572000</v>
       </c>
       <c r="F36">
-        <v>51121138000</v>
+        <v>22411152000</v>
       </c>
       <c r="G36">
-        <v>475879000</v>
+        <v>55894000</v>
       </c>
       <c r="H36">
-        <v>6529000</v>
+        <v>3111700</v>
       </c>
       <c r="I36">
-        <v>108883961000</v>
+        <v>46557618000</v>
       </c>
       <c r="J36" t="str">
-        <v>2023-01-04T13:10:00.000Z</v>
+        <v>2023-01-04T10:12:00.000Z</v>
       </c>
       <c r="K36">
-        <v>5599961874000</v>
+        <v>3091272428000</v>
       </c>
       <c r="L36">
-        <v>345733200</v>
+        <v>198231500</v>
       </c>
       <c r="M36">
-        <v>-366000</v>
+        <v>-737700</v>
       </c>
       <c r="N36">
-        <v>-6165806000</v>
+        <v>-1679420000</v>
       </c>
       <c r="O36">
-        <v>-14263600</v>
+        <v>3798300</v>
       </c>
       <c r="P36">
-        <v>-23643867000</v>
+        <v>152112058000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1672838100000</v>
+        <v>1672827240000</v>
       </c>
       <c r="B37">
-        <v>4846100</v>
+        <v>1659900</v>
       </c>
       <c r="C37">
-        <v>2919600</v>
+        <v>1924600</v>
       </c>
       <c r="D37">
-        <v>34700</v>
+        <v>17100</v>
       </c>
       <c r="E37">
-        <v>83145682000</v>
+        <v>24041032000</v>
       </c>
       <c r="F37">
-        <v>49970461000</v>
+        <v>31780345000</v>
       </c>
       <c r="G37">
-        <v>898820000</v>
+        <v>175949000</v>
       </c>
       <c r="H37">
-        <v>7800400</v>
+        <v>3601600</v>
       </c>
       <c r="I37">
-        <v>134014963000</v>
+        <v>55997326000</v>
       </c>
       <c r="J37" t="str">
-        <v>2023-01-04T13:15:00.000Z</v>
+        <v>2023-01-04T10:14:00.000Z</v>
       </c>
       <c r="K37">
-        <v>5733976837000</v>
+        <v>3147269754000</v>
       </c>
       <c r="L37">
-        <v>353533600</v>
+        <v>201833100</v>
       </c>
       <c r="M37">
-        <v>-1926500</v>
+        <v>264700</v>
       </c>
       <c r="N37">
-        <v>-33175221000</v>
+        <v>7739313000</v>
       </c>
       <c r="O37">
-        <v>-16190100</v>
+        <v>4063000</v>
       </c>
       <c r="P37">
-        <v>-56819088000</v>
+        <v>159851371000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1672838400000</v>
+        <v>1672827360000</v>
       </c>
       <c r="B38">
-        <v>12099200</v>
+        <v>2032300</v>
       </c>
       <c r="C38">
-        <v>2947300</v>
+        <v>912100</v>
       </c>
       <c r="D38">
-        <v>59200</v>
+        <v>7000</v>
       </c>
       <c r="E38">
-        <v>195068973000</v>
+        <v>35569173000</v>
       </c>
       <c r="F38">
-        <v>50099125000</v>
+        <v>16346933000</v>
       </c>
       <c r="G38">
-        <v>1276810000</v>
+        <v>164010000</v>
       </c>
       <c r="H38">
-        <v>15105700</v>
+        <v>2951400</v>
       </c>
       <c r="I38">
-        <v>246444908000</v>
+        <v>52080116000</v>
       </c>
       <c r="J38" t="str">
-        <v>2023-01-04T13:20:00.000Z</v>
+        <v>2023-01-04T10:16:00.000Z</v>
       </c>
       <c r="K38">
-        <v>5980421745000</v>
+        <v>3199349870000</v>
       </c>
       <c r="L38">
-        <v>368639300</v>
+        <v>204784500</v>
       </c>
       <c r="M38">
-        <v>-9151900</v>
+        <v>-1120200</v>
       </c>
       <c r="N38">
-        <v>-144969848000</v>
+        <v>-19222240000</v>
       </c>
       <c r="O38">
-        <v>-25342000</v>
+        <v>2942800</v>
       </c>
       <c r="P38">
-        <v>-201788936000</v>
+        <v>140629131000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1672838700000</v>
+        <v>1672827480000</v>
       </c>
       <c r="B39">
-        <v>8956400</v>
+        <v>1712400</v>
       </c>
       <c r="C39">
-        <v>6384100</v>
+        <v>756900</v>
       </c>
       <c r="D39">
-        <v>49200</v>
+        <v>23800</v>
       </c>
       <c r="E39">
-        <v>139301885000</v>
+        <v>29948528000</v>
       </c>
       <c r="F39">
-        <v>107796860000</v>
+        <v>13587272000</v>
       </c>
       <c r="G39">
-        <v>856793000</v>
+        <v>500390000</v>
       </c>
       <c r="H39">
-        <v>15389700</v>
+        <v>2493100</v>
       </c>
       <c r="I39">
-        <v>247955538000</v>
+        <v>44036190000</v>
       </c>
       <c r="J39" t="str">
-        <v>2023-01-04T13:25:00.000Z</v>
+        <v>2023-01-04T10:18:00.000Z</v>
       </c>
       <c r="K39">
-        <v>6228377283000</v>
+        <v>3243386060000</v>
       </c>
       <c r="L39">
-        <v>384029000</v>
+        <v>207277600</v>
       </c>
       <c r="M39">
-        <v>-2572300</v>
+        <v>-955500</v>
       </c>
       <c r="N39">
-        <v>-31505025000</v>
+        <v>-16361256000</v>
       </c>
       <c r="O39">
-        <v>-27914300</v>
+        <v>1987300</v>
       </c>
       <c r="P39">
-        <v>-233293961000</v>
+        <v>124267875000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1672839000000</v>
+        <v>1672827600000</v>
       </c>
       <c r="B40">
-        <v>3029200</v>
+        <v>3863500</v>
       </c>
       <c r="C40">
-        <v>6931400</v>
+        <v>1247500</v>
       </c>
       <c r="D40">
-        <v>50600</v>
+        <v>6500</v>
       </c>
       <c r="E40">
-        <v>49154478000</v>
+        <v>48115913000</v>
       </c>
       <c r="F40">
-        <v>122146881000</v>
+        <v>21203941000</v>
       </c>
       <c r="G40">
-        <v>1717387000</v>
+        <v>133370000</v>
       </c>
       <c r="H40">
-        <v>10011200</v>
+        <v>5117500</v>
       </c>
       <c r="I40">
-        <v>173018746000</v>
+        <v>69453224000</v>
       </c>
       <c r="J40" t="str">
-        <v>2023-01-04T13:30:00.000Z</v>
+        <v>2023-01-04T10:20:00.000Z</v>
       </c>
       <c r="K40">
-        <v>6401396029000</v>
+        <v>3312839284000</v>
       </c>
       <c r="L40">
-        <v>394040200</v>
+        <v>212395100</v>
       </c>
       <c r="M40">
-        <v>3902200</v>
+        <v>-2616000</v>
       </c>
       <c r="N40">
-        <v>72992403000</v>
+        <v>-26911972000</v>
       </c>
       <c r="O40">
-        <v>-24012100</v>
+        <v>-628700</v>
       </c>
       <c r="P40">
-        <v>-160301558000</v>
+        <v>97355903000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>1672839300000</v>
+        <v>1672827720000</v>
       </c>
       <c r="B41">
-        <v>4410200</v>
+        <v>2811900</v>
       </c>
       <c r="C41">
-        <v>3205500</v>
+        <v>927600</v>
       </c>
       <c r="D41">
-        <v>14400</v>
+        <v>50200</v>
       </c>
       <c r="E41">
-        <v>74680454000</v>
+        <v>43868086000</v>
       </c>
       <c r="F41">
-        <v>52437234000</v>
+        <v>15189115000</v>
       </c>
       <c r="G41">
-        <v>325060000</v>
+        <v>928038000</v>
       </c>
       <c r="H41">
-        <v>7630100</v>
+        <v>3789700</v>
       </c>
       <c r="I41">
-        <v>127442748000</v>
+        <v>59985239000</v>
       </c>
       <c r="J41" t="str">
-        <v>2023-01-04T13:35:00.000Z</v>
+        <v>2023-01-04T10:22:00.000Z</v>
       </c>
       <c r="K41">
-        <v>6528838777000</v>
+        <v>3372824523000</v>
       </c>
       <c r="L41">
-        <v>401670300</v>
+        <v>216184800</v>
       </c>
       <c r="M41">
-        <v>-1204700</v>
+        <v>-1884300</v>
       </c>
       <c r="N41">
-        <v>-22243220000</v>
+        <v>-28678971000</v>
       </c>
       <c r="O41">
-        <v>-25216800</v>
+        <v>-2513000</v>
       </c>
       <c r="P41">
-        <v>-182544778000</v>
+        <v>68676932000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>1672839600000</v>
+        <v>1672827840000</v>
       </c>
       <c r="B42">
-        <v>5520600</v>
+        <v>2153600</v>
       </c>
       <c r="C42">
-        <v>2261800</v>
+        <v>1338700</v>
       </c>
       <c r="D42">
-        <v>91800</v>
+        <v>84900</v>
       </c>
       <c r="E42">
-        <v>100592223000</v>
+        <v>37950119000</v>
       </c>
       <c r="F42">
-        <v>39305052000</v>
+        <v>23186085000</v>
       </c>
       <c r="G42">
-        <v>1303013000</v>
+        <v>930302000</v>
       </c>
       <c r="H42">
-        <v>7874200</v>
+        <v>3577200</v>
       </c>
       <c r="I42">
-        <v>141200288000</v>
+        <v>62066506000</v>
       </c>
       <c r="J42" t="str">
-        <v>2023-01-04T13:40:00.000Z</v>
+        <v>2023-01-04T10:24:00.000Z</v>
       </c>
       <c r="K42">
-        <v>6670039065000</v>
+        <v>3434891029000</v>
       </c>
       <c r="L42">
-        <v>409544500</v>
+        <v>219762000</v>
       </c>
       <c r="M42">
-        <v>-3258800</v>
+        <v>-814900</v>
       </c>
       <c r="N42">
-        <v>-61287171000</v>
+        <v>-14764034000</v>
       </c>
       <c r="O42">
-        <v>-28475600</v>
+        <v>-3327900</v>
       </c>
       <c r="P42">
-        <v>-243831949000</v>
+        <v>53912898000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1672839900000</v>
+        <v>1672827960000</v>
       </c>
       <c r="B43">
-        <v>3840900</v>
+        <v>1614100</v>
       </c>
       <c r="C43">
-        <v>4158700</v>
+        <v>1680300</v>
       </c>
       <c r="D43">
-        <v>24600</v>
+        <v>55400</v>
       </c>
       <c r="E43">
-        <v>63723215000</v>
+        <v>23201654000</v>
       </c>
       <c r="F43">
-        <v>75760995000</v>
+        <v>33624322000</v>
       </c>
       <c r="G43">
-        <v>687392000</v>
+        <v>1257449000</v>
       </c>
       <c r="H43">
-        <v>8024200</v>
+        <v>3349800</v>
       </c>
       <c r="I43">
-        <v>140171602000</v>
+        <v>58083425000</v>
       </c>
       <c r="J43" t="str">
-        <v>2023-01-04T13:45:00.000Z</v>
+        <v>2023-01-04T10:26:00.000Z</v>
       </c>
       <c r="K43">
-        <v>6810210667000</v>
+        <v>3492974454000</v>
       </c>
       <c r="L43">
-        <v>417568700</v>
+        <v>223111800</v>
       </c>
       <c r="M43">
-        <v>317800</v>
+        <v>66200</v>
       </c>
       <c r="N43">
-        <v>12037780000</v>
+        <v>10422668000</v>
       </c>
       <c r="O43">
-        <v>-28157800</v>
+        <v>-3261700</v>
       </c>
       <c r="P43">
-        <v>-231794169000</v>
+        <v>64335566000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>1672840200000</v>
+        <v>1672828080000</v>
       </c>
       <c r="B44">
-        <v>4428500</v>
+        <v>1205600</v>
       </c>
       <c r="C44">
-        <v>3654000</v>
+        <v>2659500</v>
       </c>
       <c r="D44">
-        <v>44800</v>
+        <v>7000</v>
       </c>
       <c r="E44">
-        <v>76807123000</v>
+        <v>20782751000</v>
       </c>
       <c r="F44">
-        <v>64176372000</v>
+        <v>51750378000</v>
       </c>
       <c r="G44">
-        <v>979025000</v>
+        <v>40368000</v>
       </c>
       <c r="H44">
-        <v>8127300</v>
+        <v>3872100</v>
       </c>
       <c r="I44">
-        <v>141962520000</v>
+        <v>72573497000</v>
       </c>
       <c r="J44" t="str">
-        <v>2023-01-04T13:50:00.000Z</v>
+        <v>2023-01-04T10:28:00.000Z</v>
       </c>
       <c r="K44">
-        <v>6952173187000</v>
+        <v>3565547951000</v>
       </c>
       <c r="L44">
-        <v>425696000</v>
+        <v>226983900</v>
       </c>
       <c r="M44">
-        <v>-774500</v>
+        <v>1453900</v>
       </c>
       <c r="N44">
-        <v>-12630751000</v>
+        <v>30967627000</v>
       </c>
       <c r="O44">
-        <v>-28932300</v>
+        <v>-1807800</v>
       </c>
       <c r="P44">
-        <v>-244424920000</v>
+        <v>95303193000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>1672840500000</v>
+        <v>1672828200000</v>
       </c>
       <c r="B45">
-        <v>8709200</v>
+        <v>1118900</v>
       </c>
       <c r="C45">
-        <v>3005800</v>
+        <v>2142500</v>
       </c>
       <c r="D45">
-        <v>79300</v>
+        <v>39600</v>
       </c>
       <c r="E45">
-        <v>164593039000</v>
+        <v>20208346000</v>
       </c>
       <c r="F45">
-        <v>57308050000</v>
+        <v>39547814000</v>
       </c>
       <c r="G45">
-        <v>1161069000</v>
+        <v>976773000</v>
       </c>
       <c r="H45">
-        <v>11794300</v>
+        <v>3301000</v>
       </c>
       <c r="I45">
-        <v>223062158000</v>
+        <v>60732933000</v>
       </c>
       <c r="J45" t="str">
-        <v>2023-01-04T13:55:00.000Z</v>
+        <v>2023-01-04T10:30:00.000Z</v>
       </c>
       <c r="K45">
-        <v>7175235345000</v>
+        <v>3626280884000</v>
       </c>
       <c r="L45">
-        <v>437490300</v>
+        <v>230284900</v>
       </c>
       <c r="M45">
-        <v>-5703400</v>
+        <v>1023600</v>
       </c>
       <c r="N45">
-        <v>-107284989000</v>
+        <v>19339468000</v>
       </c>
       <c r="O45">
-        <v>-34635700</v>
+        <v>-784200</v>
       </c>
       <c r="P45">
-        <v>-351709909000</v>
+        <v>114642661000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>1672840800000</v>
+        <v>1672828320000</v>
       </c>
       <c r="B46">
-        <v>9575900</v>
+        <v>887300</v>
       </c>
       <c r="C46">
-        <v>4624600</v>
+        <v>3025300</v>
       </c>
       <c r="D46">
-        <v>112600</v>
+        <v>9100</v>
       </c>
       <c r="E46">
-        <v>152903254000</v>
+        <v>15347568000</v>
       </c>
       <c r="F46">
-        <v>88683020000</v>
+        <v>55613928000</v>
       </c>
       <c r="G46">
-        <v>1613669000</v>
+        <v>45230000</v>
       </c>
       <c r="H46">
-        <v>14313100</v>
+        <v>3921700</v>
       </c>
       <c r="I46">
-        <v>243199943000</v>
+        <v>71006726000</v>
       </c>
       <c r="J46" t="str">
-        <v>2023-01-04T14:00:00.000Z</v>
+        <v>2023-01-04T10:32:00.000Z</v>
       </c>
       <c r="K46">
-        <v>7418435288000</v>
+        <v>3697287610000</v>
       </c>
       <c r="L46">
-        <v>451803400</v>
+        <v>234206600</v>
       </c>
       <c r="M46">
-        <v>-4951300</v>
+        <v>2138000</v>
       </c>
       <c r="N46">
-        <v>-64220234000</v>
+        <v>40266360000</v>
       </c>
       <c r="O46">
-        <v>-39587000</v>
+        <v>1353800</v>
       </c>
       <c r="P46">
-        <v>-415930143000</v>
+        <v>154909021000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>1672841100000</v>
+        <v>1672828440000</v>
       </c>
       <c r="B47">
-        <v>2895400</v>
+        <v>886100</v>
       </c>
       <c r="C47">
-        <v>5355000</v>
+        <v>1717100</v>
       </c>
       <c r="D47">
-        <v>40600</v>
+        <v>23600</v>
       </c>
       <c r="E47">
-        <v>50446113000</v>
+        <v>15040091000</v>
       </c>
       <c r="F47">
-        <v>90701059000</v>
+        <v>29242677000</v>
       </c>
       <c r="G47">
-        <v>971952000</v>
+        <v>493814000</v>
       </c>
       <c r="H47">
-        <v>8291000</v>
+        <v>2626800</v>
       </c>
       <c r="I47">
-        <v>142119124000</v>
+        <v>44776582000</v>
       </c>
       <c r="J47" t="str">
-        <v>2023-01-04T14:05:00.000Z</v>
+        <v>2023-01-04T10:34:00.000Z</v>
       </c>
       <c r="K47">
-        <v>7560554412000</v>
+        <v>3742064192000</v>
       </c>
       <c r="L47">
-        <v>460094400</v>
+        <v>236833400</v>
       </c>
       <c r="M47">
-        <v>2459600</v>
+        <v>831000</v>
       </c>
       <c r="N47">
-        <v>40254946000</v>
+        <v>14202586000</v>
       </c>
       <c r="O47">
-        <v>-37127400</v>
+        <v>2184800</v>
       </c>
       <c r="P47">
-        <v>-375675197000</v>
+        <v>169111607000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1672841400000</v>
+        <v>1672828560000</v>
       </c>
       <c r="B48">
-        <v>4874000</v>
+        <v>1342800</v>
       </c>
       <c r="C48">
-        <v>5540400</v>
+        <v>2407500</v>
       </c>
       <c r="D48">
-        <v>97200</v>
+        <v>23400</v>
       </c>
       <c r="E48">
-        <v>80979104000</v>
+        <v>23269402000</v>
       </c>
       <c r="F48">
-        <v>113624117000</v>
+        <v>49416857000</v>
       </c>
       <c r="G48">
-        <v>1542086000</v>
+        <v>379894000</v>
       </c>
       <c r="H48">
-        <v>10511600</v>
+        <v>3773700</v>
       </c>
       <c r="I48">
-        <v>196145307000</v>
+        <v>73066153000</v>
       </c>
       <c r="J48" t="str">
-        <v>2023-01-04T14:10:00.000Z</v>
+        <v>2023-01-04T10:36:00.000Z</v>
       </c>
       <c r="K48">
-        <v>7756699719000</v>
+        <v>3815130345000</v>
       </c>
       <c r="L48">
-        <v>470606000</v>
+        <v>240607100</v>
       </c>
       <c r="M48">
-        <v>666400</v>
+        <v>1064700</v>
       </c>
       <c r="N48">
-        <v>32645013000</v>
+        <v>26147455000</v>
       </c>
       <c r="O48">
-        <v>-36461000</v>
+        <v>3249500</v>
       </c>
       <c r="P48">
-        <v>-343030184000</v>
+        <v>195259062000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>1672841700000</v>
+        <v>1672828680000</v>
       </c>
       <c r="B49">
-        <v>4211500</v>
+        <v>1127900</v>
       </c>
       <c r="C49">
-        <v>10637100</v>
+        <v>2650700</v>
       </c>
       <c r="D49">
-        <v>109600</v>
+        <v>21900</v>
       </c>
       <c r="E49">
-        <v>71383509000</v>
+        <v>18124604000</v>
       </c>
       <c r="F49">
-        <v>188809045000</v>
+        <v>55606200000</v>
       </c>
       <c r="G49">
-        <v>1183890000</v>
+        <v>110750000</v>
       </c>
       <c r="H49">
-        <v>14958200</v>
+        <v>3800500</v>
       </c>
       <c r="I49">
-        <v>261376444000</v>
+        <v>73841554000</v>
       </c>
       <c r="J49" t="str">
-        <v>2023-01-04T14:15:00.000Z</v>
+        <v>2023-01-04T10:38:00.000Z</v>
       </c>
       <c r="K49">
-        <v>8018076163000</v>
+        <v>3888971899000</v>
       </c>
       <c r="L49">
-        <v>485564200</v>
+        <v>244407600</v>
       </c>
       <c r="M49">
-        <v>6425600</v>
+        <v>1522800</v>
       </c>
       <c r="N49">
-        <v>117425536000</v>
+        <v>37481596000</v>
       </c>
       <c r="O49">
-        <v>-30035400</v>
+        <v>4772300</v>
       </c>
       <c r="P49">
-        <v>-225604648000</v>
+        <v>232740658000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>1672842000000</v>
+        <v>1672828800000</v>
       </c>
       <c r="B50">
-        <v>6892300</v>
+        <v>1754000</v>
       </c>
       <c r="C50">
-        <v>6675100</v>
+        <v>3482000</v>
       </c>
       <c r="D50">
-        <v>56400</v>
+        <v>17600</v>
       </c>
       <c r="E50">
-        <v>117312690000</v>
+        <v>31582455000</v>
       </c>
       <c r="F50">
-        <v>119269988000</v>
+        <v>60007839000</v>
       </c>
       <c r="G50">
-        <v>1030556000</v>
+        <v>224342000</v>
       </c>
       <c r="H50">
-        <v>13623800</v>
+        <v>5253600</v>
       </c>
       <c r="I50">
-        <v>237613234000</v>
+        <v>91814636000</v>
       </c>
       <c r="J50" t="str">
-        <v>2023-01-04T14:20:00.000Z</v>
+        <v>2023-01-04T10:40:00.000Z</v>
       </c>
       <c r="K50">
-        <v>8255689397000</v>
+        <v>3980786535000</v>
       </c>
       <c r="L50">
-        <v>499188000</v>
+        <v>249661200</v>
       </c>
       <c r="M50">
-        <v>-217200</v>
+        <v>1728000</v>
       </c>
       <c r="N50">
-        <v>1957298000</v>
+        <v>28425384000</v>
       </c>
       <c r="O50">
-        <v>-30252600</v>
+        <v>6500300</v>
       </c>
       <c r="P50">
-        <v>-223647350000</v>
+        <v>261166042000</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>1672842300000</v>
+        <v>1672828920000</v>
       </c>
       <c r="B51">
-        <v>13879400</v>
+        <v>1497000</v>
       </c>
       <c r="C51">
-        <v>5721500</v>
+        <v>3223200</v>
       </c>
       <c r="D51">
-        <v>93300</v>
+        <v>2500</v>
       </c>
       <c r="E51">
-        <v>221945854000</v>
+        <v>26497459000</v>
       </c>
       <c r="F51">
-        <v>100664575000</v>
+        <v>56571329000</v>
       </c>
       <c r="G51">
-        <v>1367951000</v>
+        <v>34620000</v>
       </c>
       <c r="H51">
-        <v>19694200</v>
+        <v>4722700</v>
       </c>
       <c r="I51">
-        <v>323978380000</v>
+        <v>83103408000</v>
       </c>
       <c r="J51" t="str">
-        <v>2023-01-04T14:25:00.000Z</v>
+        <v>2023-01-04T10:42:00.000Z</v>
       </c>
       <c r="K51">
-        <v>8579667777000</v>
+        <v>4063889943000</v>
       </c>
       <c r="L51">
-        <v>518882200</v>
+        <v>254383900</v>
       </c>
       <c r="M51">
-        <v>-8157900</v>
+        <v>1726200</v>
       </c>
       <c r="N51">
-        <v>-121281279000</v>
+        <v>30073870000</v>
       </c>
       <c r="O51">
-        <v>-38410500</v>
+        <v>8226500</v>
       </c>
       <c r="P51">
-        <v>-344928629000</v>
+        <v>291239912000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>1672842600000</v>
+        <v>1672829040000</v>
       </c>
       <c r="B52">
-        <v>14900</v>
+        <v>1559100</v>
       </c>
       <c r="C52">
-        <v>6800</v>
+        <v>1975600</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="E52">
-        <v>196680000</v>
+        <v>27942543000</v>
       </c>
       <c r="F52">
-        <v>103860000</v>
+        <v>36168126000</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>31146000</v>
       </c>
       <c r="H52">
-        <v>21700</v>
+        <v>3536700</v>
       </c>
       <c r="I52">
-        <v>300540000</v>
+        <v>64141815000</v>
       </c>
       <c r="J52" t="str">
-        <v>2023-01-04T14:30:00.000Z</v>
+        <v>2023-01-04T10:44:00.000Z</v>
       </c>
       <c r="K52">
-        <v>8579968317000</v>
+        <v>4128031758000</v>
       </c>
       <c r="L52">
-        <v>518903900</v>
+        <v>257920600</v>
       </c>
       <c r="M52">
-        <v>-8100</v>
+        <v>416500</v>
       </c>
       <c r="N52">
-        <v>-92820000</v>
+        <v>8225583000</v>
       </c>
       <c r="O52">
-        <v>-38418600</v>
+        <v>8643000</v>
       </c>
       <c r="P52">
-        <v>-345021449000</v>
+        <v>299465495000</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>1672842900000</v>
+        <v>1672829160000</v>
       </c>
       <c r="B53">
-        <v>400</v>
+        <v>1675600</v>
       </c>
       <c r="C53">
-        <v>3000</v>
+        <v>1354600</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="E53">
-        <v>5280000</v>
+        <v>31137084000</v>
       </c>
       <c r="F53">
-        <v>39600000</v>
+        <v>26987256000</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>31640000</v>
       </c>
       <c r="H53">
-        <v>3400</v>
+        <v>3033100</v>
       </c>
       <c r="I53">
-        <v>44880000</v>
+        <v>58155980000</v>
       </c>
       <c r="J53" t="str">
-        <v>2023-01-04T14:35:00.000Z</v>
+        <v>2023-01-04T10:46:00.000Z</v>
       </c>
       <c r="K53">
-        <v>8580013197000</v>
+        <v>4186187738000</v>
       </c>
       <c r="L53">
-        <v>518907300</v>
+        <v>260953700</v>
       </c>
       <c r="M53">
-        <v>2600</v>
+        <v>-321000</v>
       </c>
       <c r="N53">
-        <v>34320000</v>
+        <v>-4149828000</v>
       </c>
       <c r="O53">
-        <v>-38416000</v>
+        <v>8322000</v>
       </c>
       <c r="P53">
-        <v>-344987129000</v>
+        <v>295315667000</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>1672843200000</v>
+        <v>1672829280000</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>1779900</v>
       </c>
       <c r="C54">
-        <v>5200</v>
+        <v>1453500</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>33000</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>33217910000</v>
       </c>
       <c r="F54">
-        <v>68640000</v>
+        <v>28029313000</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>977545000</v>
       </c>
       <c r="H54">
-        <v>5200</v>
+        <v>3266400</v>
       </c>
       <c r="I54">
-        <v>68640000</v>
+        <v>62224768000</v>
       </c>
       <c r="J54" t="str">
-        <v>2023-01-04T14:40:00.000Z</v>
+        <v>2023-01-04T10:48:00.000Z</v>
       </c>
       <c r="K54">
-        <v>8580081837000</v>
+        <v>4248412506000</v>
       </c>
       <c r="L54">
-        <v>518912500</v>
+        <v>264220100</v>
       </c>
       <c r="M54">
-        <v>5200</v>
+        <v>-326400</v>
       </c>
       <c r="N54">
-        <v>68640000</v>
+        <v>-5188597000</v>
       </c>
       <c r="O54">
-        <v>-38410800</v>
+        <v>7995600</v>
       </c>
       <c r="P54">
-        <v>-344918489000</v>
+        <v>290127070000</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>1672843500000</v>
+        <v>1672829400000</v>
       </c>
       <c r="B55">
-        <v>1570800</v>
+        <v>1687700</v>
       </c>
       <c r="C55">
-        <v>1513900</v>
+        <v>1401800</v>
       </c>
       <c r="D55">
-        <v>21122400</v>
+        <v>9000</v>
       </c>
       <c r="E55">
-        <v>22056889000</v>
+        <v>29574530000</v>
       </c>
       <c r="F55">
-        <v>45389681000</v>
+        <v>23973438000</v>
       </c>
       <c r="G55">
-        <v>378365769000</v>
+        <v>221025000</v>
       </c>
       <c r="H55">
-        <v>24207100</v>
+        <v>3098500</v>
       </c>
       <c r="I55">
-        <v>445812339000</v>
+        <v>53768993000</v>
       </c>
       <c r="J55" t="str">
-        <v>2023-01-04T14:45:00.000Z</v>
+        <v>2023-01-04T10:50:00.000Z</v>
       </c>
       <c r="K55">
-        <v>9025894176000</v>
+        <v>4302181499000</v>
       </c>
       <c r="L55">
-        <v>543119600</v>
+        <v>267318600</v>
       </c>
       <c r="M55">
-        <v>-56900</v>
+        <v>-285900</v>
       </c>
       <c r="N55">
-        <v>23332792000</v>
+        <v>-5601092000</v>
       </c>
       <c r="O55">
-        <v>-38467700</v>
+        <v>7709700</v>
       </c>
       <c r="P55">
-        <v>-321585697000</v>
+        <v>284525978000</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>1672843800000</v>
+        <v>1672829520000</v>
       </c>
       <c r="B56">
-        <v>1000</v>
+        <v>1766000</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>1776900</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="E56">
-        <v>13200000</v>
+        <v>22740713000</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>36816574000</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>43900000</v>
       </c>
       <c r="H56">
-        <v>1000</v>
+        <v>3545200</v>
       </c>
       <c r="I56">
-        <v>13200000</v>
+        <v>59601187000</v>
       </c>
       <c r="J56" t="str">
-        <v>2023-01-04T14:50:00.000Z</v>
+        <v>2023-01-04T10:52:00.000Z</v>
       </c>
       <c r="K56">
-        <v>9025907376000</v>
+        <v>4361782686000</v>
       </c>
       <c r="L56">
-        <v>543120600</v>
+        <v>270863800</v>
       </c>
       <c r="M56">
-        <v>-1000</v>
+        <v>10900</v>
       </c>
       <c r="N56">
-        <v>-13200000</v>
+        <v>14075861000</v>
       </c>
       <c r="O56">
-        <v>-38468700</v>
+        <v>7720600</v>
       </c>
       <c r="P56">
-        <v>-321598897000</v>
+        <v>298601839000</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>1672844100000</v>
+        <v>1672829640000</v>
       </c>
       <c r="B57">
+        <v>978800</v>
+      </c>
+      <c r="C57">
+        <v>1748400</v>
+      </c>
+      <c r="D57">
+        <v>4200</v>
+      </c>
+      <c r="E57">
+        <v>16751627000</v>
+      </c>
+      <c r="F57">
+        <v>31067528000</v>
+      </c>
+      <c r="G57">
+        <v>46672000</v>
+      </c>
+      <c r="H57">
+        <v>2731400</v>
+      </c>
+      <c r="I57">
+        <v>47865827000</v>
+      </c>
+      <c r="J57" t="str">
+        <v>2023-01-04T10:54:00.000Z</v>
+      </c>
+      <c r="K57">
+        <v>4409648513000</v>
+      </c>
+      <c r="L57">
+        <v>273595200</v>
+      </c>
+      <c r="M57">
+        <v>769600</v>
+      </c>
+      <c r="N57">
+        <v>14315901000</v>
+      </c>
+      <c r="O57">
+        <v>8490200</v>
+      </c>
+      <c r="P57">
+        <v>312917740000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>1672829760000</v>
+      </c>
+      <c r="B58">
+        <v>1707300</v>
+      </c>
+      <c r="C58">
+        <v>1034200</v>
+      </c>
+      <c r="D58">
+        <v>4000</v>
+      </c>
+      <c r="E58">
+        <v>29714280000</v>
+      </c>
+      <c r="F58">
+        <v>19352145000</v>
+      </c>
+      <c r="G58">
+        <v>48715000</v>
+      </c>
+      <c r="H58">
+        <v>2745500</v>
+      </c>
+      <c r="I58">
+        <v>49115140000</v>
+      </c>
+      <c r="J58" t="str">
+        <v>2023-01-04T10:56:00.000Z</v>
+      </c>
+      <c r="K58">
+        <v>4458763653000</v>
+      </c>
+      <c r="L58">
+        <v>276340700</v>
+      </c>
+      <c r="M58">
+        <v>-673100</v>
+      </c>
+      <c r="N58">
+        <v>-10362135000</v>
+      </c>
+      <c r="O58">
+        <v>7817100</v>
+      </c>
+      <c r="P58">
+        <v>302555605000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>1672829880000</v>
+      </c>
+      <c r="B59">
+        <v>2213600</v>
+      </c>
+      <c r="C59">
+        <v>743900</v>
+      </c>
+      <c r="D59">
+        <v>44100</v>
+      </c>
+      <c r="E59">
+        <v>39926358000</v>
+      </c>
+      <c r="F59">
+        <v>13087595000</v>
+      </c>
+      <c r="G59">
+        <v>942745000</v>
+      </c>
+      <c r="H59">
+        <v>3001600</v>
+      </c>
+      <c r="I59">
+        <v>53956698000</v>
+      </c>
+      <c r="J59" t="str">
+        <v>2023-01-04T10:58:00.000Z</v>
+      </c>
+      <c r="K59">
+        <v>4512720351000</v>
+      </c>
+      <c r="L59">
+        <v>279342300</v>
+      </c>
+      <c r="M59">
+        <v>-1469700</v>
+      </c>
+      <c r="N59">
+        <v>-26838763000</v>
+      </c>
+      <c r="O59">
+        <v>6347400</v>
+      </c>
+      <c r="P59">
+        <v>275716842000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>1672830000000</v>
+      </c>
+      <c r="B60">
+        <v>3853400</v>
+      </c>
+      <c r="C60">
+        <v>648000</v>
+      </c>
+      <c r="D60">
+        <v>6000</v>
+      </c>
+      <c r="E60">
+        <v>67820915000</v>
+      </c>
+      <c r="F60">
+        <v>9155706000</v>
+      </c>
+      <c r="G60">
+        <v>161817000</v>
+      </c>
+      <c r="H60">
+        <v>4507400</v>
+      </c>
+      <c r="I60">
+        <v>77138438000</v>
+      </c>
+      <c r="J60" t="str">
+        <v>2023-01-04T11:00:00.000Z</v>
+      </c>
+      <c r="K60">
+        <v>4589858789000</v>
+      </c>
+      <c r="L60">
+        <v>283849700</v>
+      </c>
+      <c r="M60">
+        <v>-3205400</v>
+      </c>
+      <c r="N60">
+        <v>-58665209000</v>
+      </c>
+      <c r="O60">
+        <v>3142000</v>
+      </c>
+      <c r="P60">
+        <v>217051633000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>1672830120000</v>
+      </c>
+      <c r="B61">
+        <v>2330700</v>
+      </c>
+      <c r="C61">
+        <v>878000</v>
+      </c>
+      <c r="D61">
+        <v>14300</v>
+      </c>
+      <c r="E61">
+        <v>43464875000</v>
+      </c>
+      <c r="F61">
+        <v>16060944000</v>
+      </c>
+      <c r="G61">
+        <v>881586000</v>
+      </c>
+      <c r="H61">
+        <v>3223000</v>
+      </c>
+      <c r="I61">
+        <v>60407405000</v>
+      </c>
+      <c r="J61" t="str">
+        <v>2023-01-04T11:02:00.000Z</v>
+      </c>
+      <c r="K61">
+        <v>4650266194000</v>
+      </c>
+      <c r="L61">
+        <v>287072700</v>
+      </c>
+      <c r="M61">
+        <v>-1452700</v>
+      </c>
+      <c r="N61">
+        <v>-27403931000</v>
+      </c>
+      <c r="O61">
+        <v>1689300</v>
+      </c>
+      <c r="P61">
+        <v>189647702000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>1672830240000</v>
+      </c>
+      <c r="B62">
+        <v>1408100</v>
+      </c>
+      <c r="C62">
+        <v>857600</v>
+      </c>
+      <c r="D62">
+        <v>5800</v>
+      </c>
+      <c r="E62">
+        <v>21924214000</v>
+      </c>
+      <c r="F62">
+        <v>16296696000</v>
+      </c>
+      <c r="G62">
+        <v>78745000</v>
+      </c>
+      <c r="H62">
+        <v>2271500</v>
+      </c>
+      <c r="I62">
+        <v>38299655000</v>
+      </c>
+      <c r="J62" t="str">
+        <v>2023-01-04T11:04:00.000Z</v>
+      </c>
+      <c r="K62">
+        <v>4688565849000</v>
+      </c>
+      <c r="L62">
+        <v>289344200</v>
+      </c>
+      <c r="M62">
+        <v>-550500</v>
+      </c>
+      <c r="N62">
+        <v>-5627518000</v>
+      </c>
+      <c r="O62">
+        <v>1138800</v>
+      </c>
+      <c r="P62">
+        <v>184020184000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>1672830360000</v>
+      </c>
+      <c r="B63">
+        <v>1029800</v>
+      </c>
+      <c r="C63">
+        <v>480000</v>
+      </c>
+      <c r="D63">
+        <v>16400</v>
+      </c>
+      <c r="E63">
+        <v>16954268000</v>
+      </c>
+      <c r="F63">
+        <v>8720670000</v>
+      </c>
+      <c r="G63">
+        <v>363795000</v>
+      </c>
+      <c r="H63">
+        <v>1526200</v>
+      </c>
+      <c r="I63">
+        <v>26038733000</v>
+      </c>
+      <c r="J63" t="str">
+        <v>2023-01-04T11:06:00.000Z</v>
+      </c>
+      <c r="K63">
+        <v>4714604582000</v>
+      </c>
+      <c r="L63">
+        <v>290870400</v>
+      </c>
+      <c r="M63">
+        <v>-549800</v>
+      </c>
+      <c r="N63">
+        <v>-8233598000</v>
+      </c>
+      <c r="O63">
+        <v>589000</v>
+      </c>
+      <c r="P63">
+        <v>175786586000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>1672830480000</v>
+      </c>
+      <c r="B64">
+        <v>1253000</v>
+      </c>
+      <c r="C64">
+        <v>674600</v>
+      </c>
+      <c r="D64">
+        <v>9000</v>
+      </c>
+      <c r="E64">
+        <v>23896738000</v>
+      </c>
+      <c r="F64">
+        <v>12743724000</v>
+      </c>
+      <c r="G64">
+        <v>282229000</v>
+      </c>
+      <c r="H64">
+        <v>1936600</v>
+      </c>
+      <c r="I64">
+        <v>36922691000</v>
+      </c>
+      <c r="J64" t="str">
+        <v>2023-01-04T11:08:00.000Z</v>
+      </c>
+      <c r="K64">
+        <v>4751527273000</v>
+      </c>
+      <c r="L64">
+        <v>292807000</v>
+      </c>
+      <c r="M64">
+        <v>-578400</v>
+      </c>
+      <c r="N64">
+        <v>-11153014000</v>
+      </c>
+      <c r="O64">
+        <v>10600</v>
+      </c>
+      <c r="P64">
+        <v>164633572000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>1672830600000</v>
+      </c>
+      <c r="B65">
+        <v>1982000</v>
+      </c>
+      <c r="C65">
+        <v>913500</v>
+      </c>
+      <c r="D65">
+        <v>6600</v>
+      </c>
+      <c r="E65">
+        <v>30601125000</v>
+      </c>
+      <c r="F65">
+        <v>13016582000</v>
+      </c>
+      <c r="G65">
+        <v>164850000</v>
+      </c>
+      <c r="H65">
+        <v>2902100</v>
+      </c>
+      <c r="I65">
+        <v>43782557000</v>
+      </c>
+      <c r="J65" t="str">
+        <v>2023-01-04T11:10:00.000Z</v>
+      </c>
+      <c r="K65">
+        <v>4795309830000</v>
+      </c>
+      <c r="L65">
+        <v>295709100</v>
+      </c>
+      <c r="M65">
+        <v>-1068500</v>
+      </c>
+      <c r="N65">
+        <v>-17584543000</v>
+      </c>
+      <c r="O65">
+        <v>-1057900</v>
+      </c>
+      <c r="P65">
+        <v>147049029000</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>1672830720000</v>
+      </c>
+      <c r="B66">
+        <v>1649000</v>
+      </c>
+      <c r="C66">
+        <v>769700</v>
+      </c>
+      <c r="D66">
+        <v>1700</v>
+      </c>
+      <c r="E66">
+        <v>22537706000</v>
+      </c>
+      <c r="F66">
+        <v>12673282000</v>
+      </c>
+      <c r="G66">
+        <v>30789000</v>
+      </c>
+      <c r="H66">
+        <v>2420400</v>
+      </c>
+      <c r="I66">
+        <v>35241777000</v>
+      </c>
+      <c r="J66" t="str">
+        <v>2023-01-04T11:12:00.000Z</v>
+      </c>
+      <c r="K66">
+        <v>4830551607000</v>
+      </c>
+      <c r="L66">
+        <v>298129500</v>
+      </c>
+      <c r="M66">
+        <v>-879300</v>
+      </c>
+      <c r="N66">
+        <v>-9864424000</v>
+      </c>
+      <c r="O66">
+        <v>-1937200</v>
+      </c>
+      <c r="P66">
+        <v>137184605000</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>1672830840000</v>
+      </c>
+      <c r="B67">
+        <v>1420800</v>
+      </c>
+      <c r="C67">
+        <v>1003300</v>
+      </c>
+      <c r="D67">
+        <v>2900</v>
+      </c>
+      <c r="E67">
+        <v>16736421000</v>
+      </c>
+      <c r="F67">
+        <v>19025896000</v>
+      </c>
+      <c r="G67">
+        <v>105203000</v>
+      </c>
+      <c r="H67">
+        <v>2427000</v>
+      </c>
+      <c r="I67">
+        <v>35867520000</v>
+      </c>
+      <c r="J67" t="str">
+        <v>2023-01-04T11:14:00.000Z</v>
+      </c>
+      <c r="K67">
+        <v>4866419127000</v>
+      </c>
+      <c r="L67">
+        <v>300556500</v>
+      </c>
+      <c r="M67">
+        <v>-417500</v>
+      </c>
+      <c r="N67">
+        <v>2289475000</v>
+      </c>
+      <c r="O67">
+        <v>-2354700</v>
+      </c>
+      <c r="P67">
+        <v>139474080000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>1672830960000</v>
+      </c>
+      <c r="B68">
+        <v>1814600</v>
+      </c>
+      <c r="C68">
+        <v>651100</v>
+      </c>
+      <c r="D68">
+        <v>17400</v>
+      </c>
+      <c r="E68">
+        <v>34931022000</v>
+      </c>
+      <c r="F68">
+        <v>10961147000</v>
+      </c>
+      <c r="G68">
+        <v>166873000</v>
+      </c>
+      <c r="H68">
+        <v>2483100</v>
+      </c>
+      <c r="I68">
+        <v>46059042000</v>
+      </c>
+      <c r="J68" t="str">
+        <v>2023-01-04T11:16:00.000Z</v>
+      </c>
+      <c r="K68">
+        <v>4912478169000</v>
+      </c>
+      <c r="L68">
+        <v>303039600</v>
+      </c>
+      <c r="M68">
+        <v>-1163500</v>
+      </c>
+      <c r="N68">
+        <v>-23969875000</v>
+      </c>
+      <c r="O68">
+        <v>-3518200</v>
+      </c>
+      <c r="P68">
+        <v>115504205000</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>1672831080000</v>
+      </c>
+      <c r="B69">
+        <v>2023300</v>
+      </c>
+      <c r="C69">
+        <v>443300</v>
+      </c>
+      <c r="D69">
+        <v>11400</v>
+      </c>
+      <c r="E69">
+        <v>35933228000</v>
+      </c>
+      <c r="F69">
+        <v>8989303000</v>
+      </c>
+      <c r="G69">
+        <v>159117000</v>
+      </c>
+      <c r="H69">
+        <v>2478000</v>
+      </c>
+      <c r="I69">
+        <v>45081648000</v>
+      </c>
+      <c r="J69" t="str">
+        <v>2023-01-04T11:18:00.000Z</v>
+      </c>
+      <c r="K69">
+        <v>4957559817000</v>
+      </c>
+      <c r="L69">
+        <v>305517600</v>
+      </c>
+      <c r="M69">
+        <v>-1580000</v>
+      </c>
+      <c r="N69">
+        <v>-26943925000</v>
+      </c>
+      <c r="O69">
+        <v>-5098200</v>
+      </c>
+      <c r="P69">
+        <v>88560280000</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>1672831200000</v>
+      </c>
+      <c r="B70">
+        <v>1612600</v>
+      </c>
+      <c r="C70">
+        <v>676600</v>
+      </c>
+      <c r="D70">
+        <v>8500</v>
+      </c>
+      <c r="E70">
+        <v>22574001000</v>
+      </c>
+      <c r="F70">
+        <v>12604346000</v>
+      </c>
+      <c r="G70">
+        <v>109709000</v>
+      </c>
+      <c r="H70">
+        <v>2297700</v>
+      </c>
+      <c r="I70">
+        <v>35288056000</v>
+      </c>
+      <c r="J70" t="str">
+        <v>2023-01-04T11:20:00.000Z</v>
+      </c>
+      <c r="K70">
+        <v>4992847873000</v>
+      </c>
+      <c r="L70">
+        <v>307815300</v>
+      </c>
+      <c r="M70">
+        <v>-936000</v>
+      </c>
+      <c r="N70">
+        <v>-9969655000</v>
+      </c>
+      <c r="O70">
+        <v>-6034200</v>
+      </c>
+      <c r="P70">
+        <v>78590625000</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>1672831320000</v>
+      </c>
+      <c r="B71">
+        <v>1668900</v>
+      </c>
+      <c r="C71">
+        <v>1017900</v>
+      </c>
+      <c r="D71">
+        <v>23300</v>
+      </c>
+      <c r="E71">
+        <v>29914405000</v>
+      </c>
+      <c r="F71">
+        <v>17864118000</v>
+      </c>
+      <c r="G71">
+        <v>477015000</v>
+      </c>
+      <c r="H71">
+        <v>2710100</v>
+      </c>
+      <c r="I71">
+        <v>48255538000</v>
+      </c>
+      <c r="J71" t="str">
+        <v>2023-01-04T11:22:00.000Z</v>
+      </c>
+      <c r="K71">
+        <v>5041103411000</v>
+      </c>
+      <c r="L71">
+        <v>310525400</v>
+      </c>
+      <c r="M71">
+        <v>-651000</v>
+      </c>
+      <c r="N71">
+        <v>-12050287000</v>
+      </c>
+      <c r="O71">
+        <v>-6685200</v>
+      </c>
+      <c r="P71">
+        <v>66540338000</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>1672831440000</v>
+      </c>
+      <c r="B72">
+        <v>1106800</v>
+      </c>
+      <c r="C72">
+        <v>825700</v>
+      </c>
+      <c r="D72">
+        <v>3200</v>
+      </c>
+      <c r="E72">
+        <v>16888626000</v>
+      </c>
+      <c r="F72">
+        <v>15759881000</v>
+      </c>
+      <c r="G72">
+        <v>37370000</v>
+      </c>
+      <c r="H72">
+        <v>1935700</v>
+      </c>
+      <c r="I72">
+        <v>32685877000</v>
+      </c>
+      <c r="J72" t="str">
+        <v>2023-01-04T11:24:00.000Z</v>
+      </c>
+      <c r="K72">
+        <v>5073789288000</v>
+      </c>
+      <c r="L72">
+        <v>312461100</v>
+      </c>
+      <c r="M72">
+        <v>-281100</v>
+      </c>
+      <c r="N72">
+        <v>-1128745000</v>
+      </c>
+      <c r="O72">
+        <v>-6966300</v>
+      </c>
+      <c r="P72">
+        <v>65411593000</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>1672831560000</v>
+      </c>
+      <c r="B73">
+        <v>1557600</v>
+      </c>
+      <c r="C73">
+        <v>451500</v>
+      </c>
+      <c r="D73">
+        <v>5000</v>
+      </c>
+      <c r="E73">
+        <v>22562819000</v>
+      </c>
+      <c r="F73">
+        <v>8576443000</v>
+      </c>
+      <c r="G73">
+        <v>35550000</v>
+      </c>
+      <c r="H73">
+        <v>2014100</v>
+      </c>
+      <c r="I73">
+        <v>31174812000</v>
+      </c>
+      <c r="J73" t="str">
+        <v>2023-01-04T11:26:00.000Z</v>
+      </c>
+      <c r="K73">
+        <v>5104964100000</v>
+      </c>
+      <c r="L73">
+        <v>314475200</v>
+      </c>
+      <c r="M73">
+        <v>-1106100</v>
+      </c>
+      <c r="N73">
+        <v>-13986376000</v>
+      </c>
+      <c r="O73">
+        <v>-8072400</v>
+      </c>
+      <c r="P73">
+        <v>51425217000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>1672831680000</v>
+      </c>
+      <c r="B74">
+        <v>1170800</v>
+      </c>
+      <c r="C74">
+        <v>911900</v>
+      </c>
+      <c r="D74">
+        <v>1300</v>
+      </c>
+      <c r="E74">
+        <v>18884790000</v>
+      </c>
+      <c r="F74">
+        <v>18596046000</v>
+      </c>
+      <c r="G74">
+        <v>54340000</v>
+      </c>
+      <c r="H74">
+        <v>2084000</v>
+      </c>
+      <c r="I74">
+        <v>37535176000</v>
+      </c>
+      <c r="J74" t="str">
+        <v>2023-01-04T11:28:00.000Z</v>
+      </c>
+      <c r="K74">
+        <v>5142499276000</v>
+      </c>
+      <c r="L74">
+        <v>316559200</v>
+      </c>
+      <c r="M74">
+        <v>-258900</v>
+      </c>
+      <c r="N74">
+        <v>-288744000</v>
+      </c>
+      <c r="O74">
+        <v>-8331300</v>
+      </c>
+      <c r="P74">
+        <v>51136473000</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>1672831800000</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
         <v>300</v>
       </c>
-      <c r="C57">
+      <c r="D75">
         <v>0</v>
       </c>
-      <c r="D57">
+      <c r="E75">
         <v>0</v>
       </c>
-      <c r="E57">
+      <c r="F75">
+        <v>624000</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>300</v>
+      </c>
+      <c r="I75">
+        <v>624000</v>
+      </c>
+      <c r="J75" t="str">
+        <v>2023-01-04T11:30:00.000Z</v>
+      </c>
+      <c r="K75">
+        <v>5142499900000</v>
+      </c>
+      <c r="L75">
+        <v>316559500</v>
+      </c>
+      <c r="M75">
+        <v>300</v>
+      </c>
+      <c r="N75">
+        <v>624000</v>
+      </c>
+      <c r="O75">
+        <v>-8331000</v>
+      </c>
+      <c r="P75">
+        <v>51137097000</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>1672837080000</v>
+      </c>
+      <c r="B76">
+        <v>42100</v>
+      </c>
+      <c r="C76">
+        <v>15700</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>652330000</v>
+      </c>
+      <c r="F76">
+        <v>287545000</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>57800</v>
+      </c>
+      <c r="I76">
+        <v>939875000</v>
+      </c>
+      <c r="J76" t="str">
+        <v>2023-01-04T12:58:00.000Z</v>
+      </c>
+      <c r="K76">
+        <v>5143439775000</v>
+      </c>
+      <c r="L76">
+        <v>316617300</v>
+      </c>
+      <c r="M76">
+        <v>-26400</v>
+      </c>
+      <c r="N76">
+        <v>-364785000</v>
+      </c>
+      <c r="O76">
+        <v>-8357400</v>
+      </c>
+      <c r="P76">
+        <v>50772312000</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>1672837200000</v>
+      </c>
+      <c r="B77">
+        <v>5240300</v>
+      </c>
+      <c r="C77">
+        <v>2353400</v>
+      </c>
+      <c r="D77">
+        <v>258900</v>
+      </c>
+      <c r="E77">
+        <v>78860477000</v>
+      </c>
+      <c r="F77">
+        <v>38278752000</v>
+      </c>
+      <c r="G77">
+        <v>3015530000</v>
+      </c>
+      <c r="H77">
+        <v>7852600</v>
+      </c>
+      <c r="I77">
+        <v>120154759000</v>
+      </c>
+      <c r="J77" t="str">
+        <v>2023-01-04T13:00:00.000Z</v>
+      </c>
+      <c r="K77">
+        <v>5263594534000</v>
+      </c>
+      <c r="L77">
+        <v>324469900</v>
+      </c>
+      <c r="M77">
+        <v>-2886900</v>
+      </c>
+      <c r="N77">
+        <v>-40581725000</v>
+      </c>
+      <c r="O77">
+        <v>-11244300</v>
+      </c>
+      <c r="P77">
+        <v>10190587000</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>1672837320000</v>
+      </c>
+      <c r="B78">
+        <v>2753000</v>
+      </c>
+      <c r="C78">
+        <v>1073700</v>
+      </c>
+      <c r="D78">
+        <v>11300</v>
+      </c>
+      <c r="E78">
+        <v>38858702000</v>
+      </c>
+      <c r="F78">
+        <v>18079096000</v>
+      </c>
+      <c r="G78">
+        <v>224094000</v>
+      </c>
+      <c r="H78">
+        <v>3838000</v>
+      </c>
+      <c r="I78">
+        <v>57161892000</v>
+      </c>
+      <c r="J78" t="str">
+        <v>2023-01-04T13:02:00.000Z</v>
+      </c>
+      <c r="K78">
+        <v>5320756426000</v>
+      </c>
+      <c r="L78">
+        <v>328307900</v>
+      </c>
+      <c r="M78">
+        <v>-1679300</v>
+      </c>
+      <c r="N78">
+        <v>-20779606000</v>
+      </c>
+      <c r="O78">
+        <v>-12923600</v>
+      </c>
+      <c r="P78">
+        <v>-10589019000</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>1672837440000</v>
+      </c>
+      <c r="B79">
+        <v>2161700</v>
+      </c>
+      <c r="C79">
+        <v>1839600</v>
+      </c>
+      <c r="D79">
+        <v>15600</v>
+      </c>
+      <c r="E79">
+        <v>30348067000</v>
+      </c>
+      <c r="F79">
+        <v>27790586000</v>
+      </c>
+      <c r="G79">
+        <v>306383000</v>
+      </c>
+      <c r="H79">
+        <v>4016900</v>
+      </c>
+      <c r="I79">
+        <v>58445036000</v>
+      </c>
+      <c r="J79" t="str">
+        <v>2023-01-04T13:04:00.000Z</v>
+      </c>
+      <c r="K79">
+        <v>5379201462000</v>
+      </c>
+      <c r="L79">
+        <v>332324800</v>
+      </c>
+      <c r="M79">
+        <v>-322100</v>
+      </c>
+      <c r="N79">
+        <v>-2557481000</v>
+      </c>
+      <c r="O79">
+        <v>-13245700</v>
+      </c>
+      <c r="P79">
+        <v>-13146500000</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>1672837560000</v>
+      </c>
+      <c r="B80">
+        <v>1420000</v>
+      </c>
+      <c r="C80">
+        <v>1597800</v>
+      </c>
+      <c r="D80">
+        <v>11800</v>
+      </c>
+      <c r="E80">
+        <v>23397824000</v>
+      </c>
+      <c r="F80">
+        <v>28837533000</v>
+      </c>
+      <c r="G80">
+        <v>260272000</v>
+      </c>
+      <c r="H80">
+        <v>3029600</v>
+      </c>
+      <c r="I80">
+        <v>52495629000</v>
+      </c>
+      <c r="J80" t="str">
+        <v>2023-01-04T13:06:00.000Z</v>
+      </c>
+      <c r="K80">
+        <v>5431697091000</v>
+      </c>
+      <c r="L80">
+        <v>335354400</v>
+      </c>
+      <c r="M80">
+        <v>177800</v>
+      </c>
+      <c r="N80">
+        <v>5439709000</v>
+      </c>
+      <c r="O80">
+        <v>-13067900</v>
+      </c>
+      <c r="P80">
+        <v>-7706791000</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>1672837680000</v>
+      </c>
+      <c r="B81">
+        <v>2335800</v>
+      </c>
+      <c r="C81">
+        <v>1506100</v>
+      </c>
+      <c r="D81">
+        <v>7900</v>
+      </c>
+      <c r="E81">
+        <v>34503678000</v>
+      </c>
+      <c r="F81">
+        <v>24732408000</v>
+      </c>
+      <c r="G81">
+        <v>144736000</v>
+      </c>
+      <c r="H81">
+        <v>3849800</v>
+      </c>
+      <c r="I81">
+        <v>59380822000</v>
+      </c>
+      <c r="J81" t="str">
+        <v>2023-01-04T13:08:00.000Z</v>
+      </c>
+      <c r="K81">
+        <v>5491077913000</v>
+      </c>
+      <c r="L81">
+        <v>339204200</v>
+      </c>
+      <c r="M81">
+        <v>-829700</v>
+      </c>
+      <c r="N81">
+        <v>-9771270000</v>
+      </c>
+      <c r="O81">
+        <v>-13897600</v>
+      </c>
+      <c r="P81">
+        <v>-17478061000</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>1672837800000</v>
+      </c>
+      <c r="B82">
+        <v>1450000</v>
+      </c>
+      <c r="C82">
+        <v>1309700</v>
+      </c>
+      <c r="D82">
+        <v>21000</v>
+      </c>
+      <c r="E82">
+        <v>24055613000</v>
+      </c>
+      <c r="F82">
+        <v>23577202000</v>
+      </c>
+      <c r="G82">
+        <v>265634000</v>
+      </c>
+      <c r="H82">
+        <v>2780700</v>
+      </c>
+      <c r="I82">
+        <v>47898449000</v>
+      </c>
+      <c r="J82" t="str">
+        <v>2023-01-04T13:10:00.000Z</v>
+      </c>
+      <c r="K82">
+        <v>5538976362000</v>
+      </c>
+      <c r="L82">
+        <v>341984900</v>
+      </c>
+      <c r="M82">
+        <v>-140300</v>
+      </c>
+      <c r="N82">
+        <v>-478411000</v>
+      </c>
+      <c r="O82">
+        <v>-14037900</v>
+      </c>
+      <c r="P82">
+        <v>-17956472000</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>1672837920000</v>
+      </c>
+      <c r="B83">
+        <v>1255800</v>
+      </c>
+      <c r="C83">
+        <v>1140100</v>
+      </c>
+      <c r="D83">
+        <v>7300</v>
+      </c>
+      <c r="E83">
+        <v>21313103000</v>
+      </c>
+      <c r="F83">
+        <v>17917676000</v>
+      </c>
+      <c r="G83">
+        <v>200215000</v>
+      </c>
+      <c r="H83">
+        <v>2403200</v>
+      </c>
+      <c r="I83">
+        <v>39430994000</v>
+      </c>
+      <c r="J83" t="str">
+        <v>2023-01-04T13:12:00.000Z</v>
+      </c>
+      <c r="K83">
+        <v>5578407356000</v>
+      </c>
+      <c r="L83">
+        <v>344388100</v>
+      </c>
+      <c r="M83">
+        <v>-115700</v>
+      </c>
+      <c r="N83">
+        <v>-3395427000</v>
+      </c>
+      <c r="O83">
+        <v>-14153600</v>
+      </c>
+      <c r="P83">
+        <v>-21351899000</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>1672838040000</v>
+      </c>
+      <c r="B84">
+        <v>1350500</v>
+      </c>
+      <c r="C84">
+        <v>1212200</v>
+      </c>
+      <c r="D84">
+        <v>1100</v>
+      </c>
+      <c r="E84">
+        <v>22304047000</v>
+      </c>
+      <c r="F84">
+        <v>19356475000</v>
+      </c>
+      <c r="G84">
+        <v>10030000</v>
+      </c>
+      <c r="H84">
+        <v>2563800</v>
+      </c>
+      <c r="I84">
+        <v>41670552000</v>
+      </c>
+      <c r="J84" t="str">
+        <v>2023-01-04T13:14:00.000Z</v>
+      </c>
+      <c r="K84">
+        <v>5620077908000</v>
+      </c>
+      <c r="L84">
+        <v>346951900</v>
+      </c>
+      <c r="M84">
+        <v>-138300</v>
+      </c>
+      <c r="N84">
+        <v>-2947572000</v>
+      </c>
+      <c r="O84">
+        <v>-14291900</v>
+      </c>
+      <c r="P84">
+        <v>-24299471000</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>1672838160000</v>
+      </c>
+      <c r="B85">
+        <v>1670900</v>
+      </c>
+      <c r="C85">
+        <v>1434700</v>
+      </c>
+      <c r="D85">
+        <v>15600</v>
+      </c>
+      <c r="E85">
+        <v>27402703000</v>
+      </c>
+      <c r="F85">
+        <v>23958486000</v>
+      </c>
+      <c r="G85">
+        <v>486533000</v>
+      </c>
+      <c r="H85">
+        <v>3121200</v>
+      </c>
+      <c r="I85">
+        <v>51847722000</v>
+      </c>
+      <c r="J85" t="str">
+        <v>2023-01-04T13:16:00.000Z</v>
+      </c>
+      <c r="K85">
+        <v>5671925630000</v>
+      </c>
+      <c r="L85">
+        <v>350073100</v>
+      </c>
+      <c r="M85">
+        <v>-236200</v>
+      </c>
+      <c r="N85">
+        <v>-3444217000</v>
+      </c>
+      <c r="O85">
+        <v>-14528100</v>
+      </c>
+      <c r="P85">
+        <v>-27743688000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>1672838280000</v>
+      </c>
+      <c r="B86">
+        <v>2551700</v>
+      </c>
+      <c r="C86">
+        <v>889700</v>
+      </c>
+      <c r="D86">
+        <v>19100</v>
+      </c>
+      <c r="E86">
+        <v>45357160000</v>
+      </c>
+      <c r="F86">
+        <v>16281760000</v>
+      </c>
+      <c r="G86">
+        <v>412287000</v>
+      </c>
+      <c r="H86">
+        <v>3460500</v>
+      </c>
+      <c r="I86">
+        <v>62051207000</v>
+      </c>
+      <c r="J86" t="str">
+        <v>2023-01-04T13:18:00.000Z</v>
+      </c>
+      <c r="K86">
+        <v>5733976837000</v>
+      </c>
+      <c r="L86">
+        <v>353533600</v>
+      </c>
+      <c r="M86">
+        <v>-1662000</v>
+      </c>
+      <c r="N86">
+        <v>-29075400000</v>
+      </c>
+      <c r="O86">
+        <v>-16190100</v>
+      </c>
+      <c r="P86">
+        <v>-56819088000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>1672838400000</v>
+      </c>
+      <c r="B87">
+        <v>4107300</v>
+      </c>
+      <c r="C87">
+        <v>1135800</v>
+      </c>
+      <c r="D87">
+        <v>27800</v>
+      </c>
+      <c r="E87">
+        <v>71409079000</v>
+      </c>
+      <c r="F87">
+        <v>21152108000</v>
+      </c>
+      <c r="G87">
+        <v>470823000</v>
+      </c>
+      <c r="H87">
+        <v>5270900</v>
+      </c>
+      <c r="I87">
+        <v>93032010000</v>
+      </c>
+      <c r="J87" t="str">
+        <v>2023-01-04T13:20:00.000Z</v>
+      </c>
+      <c r="K87">
+        <v>5827008847000</v>
+      </c>
+      <c r="L87">
+        <v>358804500</v>
+      </c>
+      <c r="M87">
+        <v>-2971500</v>
+      </c>
+      <c r="N87">
+        <v>-50256971000</v>
+      </c>
+      <c r="O87">
+        <v>-19161600</v>
+      </c>
+      <c r="P87">
+        <v>-107076059000</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>1672838520000</v>
+      </c>
+      <c r="B88">
+        <v>4629700</v>
+      </c>
+      <c r="C88">
+        <v>1189700</v>
+      </c>
+      <c r="D88">
+        <v>21700</v>
+      </c>
+      <c r="E88">
+        <v>70165145000</v>
+      </c>
+      <c r="F88">
+        <v>19161280000</v>
+      </c>
+      <c r="G88">
+        <v>618452000</v>
+      </c>
+      <c r="H88">
+        <v>5841100</v>
+      </c>
+      <c r="I88">
+        <v>89944877000</v>
+      </c>
+      <c r="J88" t="str">
+        <v>2023-01-04T13:22:00.000Z</v>
+      </c>
+      <c r="K88">
+        <v>5916953724000</v>
+      </c>
+      <c r="L88">
+        <v>364645600</v>
+      </c>
+      <c r="M88">
+        <v>-3440000</v>
+      </c>
+      <c r="N88">
+        <v>-51003865000</v>
+      </c>
+      <c r="O88">
+        <v>-22601600</v>
+      </c>
+      <c r="P88">
+        <v>-158079924000</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>1672838640000</v>
+      </c>
+      <c r="B89">
+        <v>6157900</v>
+      </c>
+      <c r="C89">
+        <v>1360200</v>
+      </c>
+      <c r="D89">
+        <v>19300</v>
+      </c>
+      <c r="E89">
+        <v>95008292000</v>
+      </c>
+      <c r="F89">
+        <v>22226120000</v>
+      </c>
+      <c r="G89">
+        <v>302821000</v>
+      </c>
+      <c r="H89">
+        <v>7537400</v>
+      </c>
+      <c r="I89">
+        <v>117537233000</v>
+      </c>
+      <c r="J89" t="str">
+        <v>2023-01-04T13:24:00.000Z</v>
+      </c>
+      <c r="K89">
+        <v>6034490957000</v>
+      </c>
+      <c r="L89">
+        <v>372183000</v>
+      </c>
+      <c r="M89">
+        <v>-4797700</v>
+      </c>
+      <c r="N89">
+        <v>-72782172000</v>
+      </c>
+      <c r="O89">
+        <v>-27399300</v>
+      </c>
+      <c r="P89">
+        <v>-230862096000</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>1672838760000</v>
+      </c>
+      <c r="B90">
+        <v>3827000</v>
+      </c>
+      <c r="C90">
+        <v>2799300</v>
+      </c>
+      <c r="D90">
+        <v>22500</v>
+      </c>
+      <c r="E90">
+        <v>61338317000</v>
+      </c>
+      <c r="F90">
+        <v>46621284000</v>
+      </c>
+      <c r="G90">
+        <v>483156000</v>
+      </c>
+      <c r="H90">
+        <v>6648800</v>
+      </c>
+      <c r="I90">
+        <v>108442757000</v>
+      </c>
+      <c r="J90" t="str">
+        <v>2023-01-04T13:26:00.000Z</v>
+      </c>
+      <c r="K90">
+        <v>6142933714000</v>
+      </c>
+      <c r="L90">
+        <v>378831800</v>
+      </c>
+      <c r="M90">
+        <v>-1027700</v>
+      </c>
+      <c r="N90">
+        <v>-14717033000</v>
+      </c>
+      <c r="O90">
+        <v>-28427000</v>
+      </c>
+      <c r="P90">
+        <v>-245579129000</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>1672838880000</v>
+      </c>
+      <c r="B91">
+        <v>2333700</v>
+      </c>
+      <c r="C91">
+        <v>2846400</v>
+      </c>
+      <c r="D91">
+        <v>17100</v>
+      </c>
+      <c r="E91">
+        <v>36450025000</v>
+      </c>
+      <c r="F91">
+        <v>48735193000</v>
+      </c>
+      <c r="G91">
+        <v>258351000</v>
+      </c>
+      <c r="H91">
+        <v>5197200</v>
+      </c>
+      <c r="I91">
+        <v>85443569000</v>
+      </c>
+      <c r="J91" t="str">
+        <v>2023-01-04T13:28:00.000Z</v>
+      </c>
+      <c r="K91">
+        <v>6228377283000</v>
+      </c>
+      <c r="L91">
+        <v>384029000</v>
+      </c>
+      <c r="M91">
+        <v>512700</v>
+      </c>
+      <c r="N91">
+        <v>12285168000</v>
+      </c>
+      <c r="O91">
+        <v>-27914300</v>
+      </c>
+      <c r="P91">
+        <v>-233293961000</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>1672839000000</v>
+      </c>
+      <c r="B92">
+        <v>1321300</v>
+      </c>
+      <c r="C92">
+        <v>3196200</v>
+      </c>
+      <c r="D92">
+        <v>24500</v>
+      </c>
+      <c r="E92">
+        <v>21795213000</v>
+      </c>
+      <c r="F92">
+        <v>53857647000</v>
+      </c>
+      <c r="G92">
+        <v>1258302000</v>
+      </c>
+      <c r="H92">
+        <v>4542000</v>
+      </c>
+      <c r="I92">
+        <v>76911162000</v>
+      </c>
+      <c r="J92" t="str">
+        <v>2023-01-04T13:30:00.000Z</v>
+      </c>
+      <c r="K92">
+        <v>6305288445000</v>
+      </c>
+      <c r="L92">
+        <v>388571000</v>
+      </c>
+      <c r="M92">
+        <v>1874900</v>
+      </c>
+      <c r="N92">
+        <v>32062434000</v>
+      </c>
+      <c r="O92">
+        <v>-26039400</v>
+      </c>
+      <c r="P92">
+        <v>-201231527000</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>1672839120000</v>
+      </c>
+      <c r="B93">
+        <v>1289300</v>
+      </c>
+      <c r="C93">
+        <v>2499800</v>
+      </c>
+      <c r="D93">
+        <v>23400</v>
+      </c>
+      <c r="E93">
+        <v>19709126000</v>
+      </c>
+      <c r="F93">
+        <v>46395127000</v>
+      </c>
+      <c r="G93">
+        <v>266890000</v>
+      </c>
+      <c r="H93">
+        <v>3812500</v>
+      </c>
+      <c r="I93">
+        <v>66371143000</v>
+      </c>
+      <c r="J93" t="str">
+        <v>2023-01-04T13:32:00.000Z</v>
+      </c>
+      <c r="K93">
+        <v>6371659588000</v>
+      </c>
+      <c r="L93">
+        <v>392383500</v>
+      </c>
+      <c r="M93">
+        <v>1210500</v>
+      </c>
+      <c r="N93">
+        <v>26686001000</v>
+      </c>
+      <c r="O93">
+        <v>-24828900</v>
+      </c>
+      <c r="P93">
+        <v>-174545526000</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>1672839240000</v>
+      </c>
+      <c r="B94">
+        <v>1287500</v>
+      </c>
+      <c r="C94">
+        <v>2334600</v>
+      </c>
+      <c r="D94">
+        <v>3900</v>
+      </c>
+      <c r="E94">
+        <v>22162320000</v>
+      </c>
+      <c r="F94">
+        <v>38256429000</v>
+      </c>
+      <c r="G94">
+        <v>243005000</v>
+      </c>
+      <c r="H94">
+        <v>3626000</v>
+      </c>
+      <c r="I94">
+        <v>60661754000</v>
+      </c>
+      <c r="J94" t="str">
+        <v>2023-01-04T13:34:00.000Z</v>
+      </c>
+      <c r="K94">
+        <v>6432321342000</v>
+      </c>
+      <c r="L94">
+        <v>396009500</v>
+      </c>
+      <c r="M94">
+        <v>1047100</v>
+      </c>
+      <c r="N94">
+        <v>16094109000</v>
+      </c>
+      <c r="O94">
+        <v>-23781800</v>
+      </c>
+      <c r="P94">
+        <v>-158451417000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>1672839360000</v>
+      </c>
+      <c r="B95">
+        <v>1716000</v>
+      </c>
+      <c r="C95">
+        <v>1112600</v>
+      </c>
+      <c r="D95">
+        <v>5800</v>
+      </c>
+      <c r="E95">
+        <v>29673431000</v>
+      </c>
+      <c r="F95">
+        <v>19118578000</v>
+      </c>
+      <c r="G95">
+        <v>202460000</v>
+      </c>
+      <c r="H95">
+        <v>2834400</v>
+      </c>
+      <c r="I95">
+        <v>48994469000</v>
+      </c>
+      <c r="J95" t="str">
+        <v>2023-01-04T13:36:00.000Z</v>
+      </c>
+      <c r="K95">
+        <v>6481315811000</v>
+      </c>
+      <c r="L95">
+        <v>398843900</v>
+      </c>
+      <c r="M95">
+        <v>-603400</v>
+      </c>
+      <c r="N95">
+        <v>-10554853000</v>
+      </c>
+      <c r="O95">
+        <v>-24385200</v>
+      </c>
+      <c r="P95">
+        <v>-169006270000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>1672839480000</v>
+      </c>
+      <c r="B96">
+        <v>1825300</v>
+      </c>
+      <c r="C96">
+        <v>993700</v>
+      </c>
+      <c r="D96">
+        <v>7400</v>
+      </c>
+      <c r="E96">
+        <v>30494842000</v>
+      </c>
+      <c r="F96">
+        <v>16956334000</v>
+      </c>
+      <c r="G96">
+        <v>71790000</v>
+      </c>
+      <c r="H96">
+        <v>2826400</v>
+      </c>
+      <c r="I96">
+        <v>47522966000</v>
+      </c>
+      <c r="J96" t="str">
+        <v>2023-01-04T13:38:00.000Z</v>
+      </c>
+      <c r="K96">
+        <v>6528838777000</v>
+      </c>
+      <c r="L96">
+        <v>401670300</v>
+      </c>
+      <c r="M96">
+        <v>-831600</v>
+      </c>
+      <c r="N96">
+        <v>-13538508000</v>
+      </c>
+      <c r="O96">
+        <v>-25216800</v>
+      </c>
+      <c r="P96">
+        <v>-182544778000</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>1672839600000</v>
+      </c>
+      <c r="B97">
+        <v>2157300</v>
+      </c>
+      <c r="C97">
+        <v>740600</v>
+      </c>
+      <c r="D97">
+        <v>12100</v>
+      </c>
+      <c r="E97">
+        <v>38581580000</v>
+      </c>
+      <c r="F97">
+        <v>13613287000</v>
+      </c>
+      <c r="G97">
+        <v>175937000</v>
+      </c>
+      <c r="H97">
+        <v>2910000</v>
+      </c>
+      <c r="I97">
+        <v>52370804000</v>
+      </c>
+      <c r="J97" t="str">
+        <v>2023-01-04T13:40:00.000Z</v>
+      </c>
+      <c r="K97">
+        <v>6581209581000</v>
+      </c>
+      <c r="L97">
+        <v>404580300</v>
+      </c>
+      <c r="M97">
+        <v>-1416700</v>
+      </c>
+      <c r="N97">
+        <v>-24968293000</v>
+      </c>
+      <c r="O97">
+        <v>-26633500</v>
+      </c>
+      <c r="P97">
+        <v>-207513071000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>1672839720000</v>
+      </c>
+      <c r="B98">
+        <v>2718200</v>
+      </c>
+      <c r="C98">
+        <v>865900</v>
+      </c>
+      <c r="D98">
+        <v>79200</v>
+      </c>
+      <c r="E98">
+        <v>50433189000</v>
+      </c>
+      <c r="F98">
+        <v>14305739000</v>
+      </c>
+      <c r="G98">
+        <v>1102306000</v>
+      </c>
+      <c r="H98">
+        <v>3663300</v>
+      </c>
+      <c r="I98">
+        <v>65841234000</v>
+      </c>
+      <c r="J98" t="str">
+        <v>2023-01-04T13:42:00.000Z</v>
+      </c>
+      <c r="K98">
+        <v>6647050815000</v>
+      </c>
+      <c r="L98">
+        <v>408243600</v>
+      </c>
+      <c r="M98">
+        <v>-1852300</v>
+      </c>
+      <c r="N98">
+        <v>-36127450000</v>
+      </c>
+      <c r="O98">
+        <v>-28485800</v>
+      </c>
+      <c r="P98">
+        <v>-243640521000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>1672839840000</v>
+      </c>
+      <c r="B99">
+        <v>1369700</v>
+      </c>
+      <c r="C99">
+        <v>1446200</v>
+      </c>
+      <c r="D99">
+        <v>900</v>
+      </c>
+      <c r="E99">
+        <v>21658392000</v>
+      </c>
+      <c r="F99">
+        <v>25780946000</v>
+      </c>
+      <c r="G99">
+        <v>27486000</v>
+      </c>
+      <c r="H99">
+        <v>2816800</v>
+      </c>
+      <c r="I99">
+        <v>47466824000</v>
+      </c>
+      <c r="J99" t="str">
+        <v>2023-01-04T13:44:00.000Z</v>
+      </c>
+      <c r="K99">
+        <v>6694517639000</v>
+      </c>
+      <c r="L99">
+        <v>411060400</v>
+      </c>
+      <c r="M99">
+        <v>76500</v>
+      </c>
+      <c r="N99">
+        <v>4122554000</v>
+      </c>
+      <c r="O99">
+        <v>-28409300</v>
+      </c>
+      <c r="P99">
+        <v>-239517967000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>1672839960000</v>
+      </c>
+      <c r="B100">
+        <v>1572000</v>
+      </c>
+      <c r="C100">
+        <v>1470300</v>
+      </c>
+      <c r="D100">
+        <v>13600</v>
+      </c>
+      <c r="E100">
+        <v>25148125000</v>
+      </c>
+      <c r="F100">
+        <v>28328181000</v>
+      </c>
+      <c r="G100">
+        <v>395453000</v>
+      </c>
+      <c r="H100">
+        <v>3055900</v>
+      </c>
+      <c r="I100">
+        <v>53871759000</v>
+      </c>
+      <c r="J100" t="str">
+        <v>2023-01-04T13:46:00.000Z</v>
+      </c>
+      <c r="K100">
+        <v>6748389398000</v>
+      </c>
+      <c r="L100">
+        <v>414116300</v>
+      </c>
+      <c r="M100">
+        <v>-101700</v>
+      </c>
+      <c r="N100">
+        <v>3180056000</v>
+      </c>
+      <c r="O100">
+        <v>-28511000</v>
+      </c>
+      <c r="P100">
+        <v>-236337911000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>1672840080000</v>
+      </c>
+      <c r="B101">
+        <v>1544300</v>
+      </c>
+      <c r="C101">
+        <v>1897500</v>
+      </c>
+      <c r="D101">
+        <v>10600</v>
+      </c>
+      <c r="E101">
+        <v>28494152000</v>
+      </c>
+      <c r="F101">
+        <v>33037894000</v>
+      </c>
+      <c r="G101">
+        <v>289223000</v>
+      </c>
+      <c r="H101">
+        <v>3452400</v>
+      </c>
+      <c r="I101">
+        <v>61821269000</v>
+      </c>
+      <c r="J101" t="str">
+        <v>2023-01-04T13:48:00.000Z</v>
+      </c>
+      <c r="K101">
+        <v>6810210667000</v>
+      </c>
+      <c r="L101">
+        <v>417568700</v>
+      </c>
+      <c r="M101">
+        <v>353200</v>
+      </c>
+      <c r="N101">
+        <v>4543742000</v>
+      </c>
+      <c r="O101">
+        <v>-28157800</v>
+      </c>
+      <c r="P101">
+        <v>-231794169000</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>1672840200000</v>
+      </c>
+      <c r="B102">
+        <v>1871400</v>
+      </c>
+      <c r="C102">
+        <v>1827400</v>
+      </c>
+      <c r="D102">
+        <v>15200</v>
+      </c>
+      <c r="E102">
+        <v>35751832000</v>
+      </c>
+      <c r="F102">
+        <v>30871023000</v>
+      </c>
+      <c r="G102">
+        <v>236600000</v>
+      </c>
+      <c r="H102">
+        <v>3714000</v>
+      </c>
+      <c r="I102">
+        <v>66859455000</v>
+      </c>
+      <c r="J102" t="str">
+        <v>2023-01-04T13:50:00.000Z</v>
+      </c>
+      <c r="K102">
+        <v>6877070122000</v>
+      </c>
+      <c r="L102">
+        <v>421282700</v>
+      </c>
+      <c r="M102">
+        <v>-44000</v>
+      </c>
+      <c r="N102">
+        <v>-4880809000</v>
+      </c>
+      <c r="O102">
+        <v>-28201800</v>
+      </c>
+      <c r="P102">
+        <v>-236674978000</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>1672840320000</v>
+      </c>
+      <c r="B103">
+        <v>1648400</v>
+      </c>
+      <c r="C103">
+        <v>1233000</v>
+      </c>
+      <c r="D103">
+        <v>26300</v>
+      </c>
+      <c r="E103">
+        <v>25537449000</v>
+      </c>
+      <c r="F103">
+        <v>22602620000</v>
+      </c>
+      <c r="G103">
+        <v>712685000</v>
+      </c>
+      <c r="H103">
+        <v>2907700</v>
+      </c>
+      <c r="I103">
+        <v>48852754000</v>
+      </c>
+      <c r="J103" t="str">
+        <v>2023-01-04T13:52:00.000Z</v>
+      </c>
+      <c r="K103">
+        <v>6925922876000</v>
+      </c>
+      <c r="L103">
+        <v>424190400</v>
+      </c>
+      <c r="M103">
+        <v>-415400</v>
+      </c>
+      <c r="N103">
+        <v>-2934829000</v>
+      </c>
+      <c r="O103">
+        <v>-28617200</v>
+      </c>
+      <c r="P103">
+        <v>-239609807000</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>1672840440000</v>
+      </c>
+      <c r="B104">
+        <v>1739700</v>
+      </c>
+      <c r="C104">
+        <v>1074600</v>
+      </c>
+      <c r="D104">
+        <v>19900</v>
+      </c>
+      <c r="E104">
+        <v>31645916000</v>
+      </c>
+      <c r="F104">
+        <v>19995277000</v>
+      </c>
+      <c r="G104">
+        <v>290477000</v>
+      </c>
+      <c r="H104">
+        <v>2834200</v>
+      </c>
+      <c r="I104">
+        <v>51931670000</v>
+      </c>
+      <c r="J104" t="str">
+        <v>2023-01-04T13:54:00.000Z</v>
+      </c>
+      <c r="K104">
+        <v>6977854546000</v>
+      </c>
+      <c r="L104">
+        <v>427024600</v>
+      </c>
+      <c r="M104">
+        <v>-665100</v>
+      </c>
+      <c r="N104">
+        <v>-11650639000</v>
+      </c>
+      <c r="O104">
+        <v>-29282300</v>
+      </c>
+      <c r="P104">
+        <v>-251260446000</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>1672840560000</v>
+      </c>
+      <c r="B105">
+        <v>4181800</v>
+      </c>
+      <c r="C105">
+        <v>1260900</v>
+      </c>
+      <c r="D105">
+        <v>37300</v>
+      </c>
+      <c r="E105">
+        <v>82170098000</v>
+      </c>
+      <c r="F105">
+        <v>24391314000</v>
+      </c>
+      <c r="G105">
+        <v>633940000</v>
+      </c>
+      <c r="H105">
+        <v>5480000</v>
+      </c>
+      <c r="I105">
+        <v>107195352000</v>
+      </c>
+      <c r="J105" t="str">
+        <v>2023-01-04T13:56:00.000Z</v>
+      </c>
+      <c r="K105">
+        <v>7085049898000</v>
+      </c>
+      <c r="L105">
+        <v>432504600</v>
+      </c>
+      <c r="M105">
+        <v>-2920900</v>
+      </c>
+      <c r="N105">
+        <v>-57778784000</v>
+      </c>
+      <c r="O105">
+        <v>-32203200</v>
+      </c>
+      <c r="P105">
+        <v>-309039230000</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>1672840680000</v>
+      </c>
+      <c r="B106">
+        <v>3696400</v>
+      </c>
+      <c r="C106">
+        <v>1263900</v>
+      </c>
+      <c r="D106">
+        <v>25400</v>
+      </c>
+      <c r="E106">
+        <v>66294867000</v>
+      </c>
+      <c r="F106">
+        <v>23624188000</v>
+      </c>
+      <c r="G106">
+        <v>266392000</v>
+      </c>
+      <c r="H106">
+        <v>4985700</v>
+      </c>
+      <c r="I106">
+        <v>90185447000</v>
+      </c>
+      <c r="J106" t="str">
+        <v>2023-01-04T13:58:00.000Z</v>
+      </c>
+      <c r="K106">
+        <v>7175235345000</v>
+      </c>
+      <c r="L106">
+        <v>437490300</v>
+      </c>
+      <c r="M106">
+        <v>-2432500</v>
+      </c>
+      <c r="N106">
+        <v>-42670679000</v>
+      </c>
+      <c r="O106">
+        <v>-34635700</v>
+      </c>
+      <c r="P106">
+        <v>-351709909000</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>1672840800000</v>
+      </c>
+      <c r="B107">
+        <v>5879900</v>
+      </c>
+      <c r="C107">
+        <v>1594800</v>
+      </c>
+      <c r="D107">
+        <v>48900</v>
+      </c>
+      <c r="E107">
+        <v>96418498000</v>
+      </c>
+      <c r="F107">
+        <v>32752314000</v>
+      </c>
+      <c r="G107">
+        <v>990549000</v>
+      </c>
+      <c r="H107">
+        <v>7523600</v>
+      </c>
+      <c r="I107">
+        <v>130161361000</v>
+      </c>
+      <c r="J107" t="str">
+        <v>2023-01-04T14:00:00.000Z</v>
+      </c>
+      <c r="K107">
+        <v>7305396706000</v>
+      </c>
+      <c r="L107">
+        <v>445013900</v>
+      </c>
+      <c r="M107">
+        <v>-4285100</v>
+      </c>
+      <c r="N107">
+        <v>-63666184000</v>
+      </c>
+      <c r="O107">
+        <v>-38920800</v>
+      </c>
+      <c r="P107">
+        <v>-415376093000</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>1672840920000</v>
+      </c>
+      <c r="B108">
+        <v>2989800</v>
+      </c>
+      <c r="C108">
+        <v>2218700</v>
+      </c>
+      <c r="D108">
+        <v>57100</v>
+      </c>
+      <c r="E108">
+        <v>45037396000</v>
+      </c>
+      <c r="F108">
+        <v>40565568000</v>
+      </c>
+      <c r="G108">
+        <v>567170000</v>
+      </c>
+      <c r="H108">
+        <v>5265600</v>
+      </c>
+      <c r="I108">
+        <v>86170134000</v>
+      </c>
+      <c r="J108" t="str">
+        <v>2023-01-04T14:02:00.000Z</v>
+      </c>
+      <c r="K108">
+        <v>7391566840000</v>
+      </c>
+      <c r="L108">
+        <v>450279500</v>
+      </c>
+      <c r="M108">
+        <v>-771100</v>
+      </c>
+      <c r="N108">
+        <v>-4471828000</v>
+      </c>
+      <c r="O108">
+        <v>-39691900</v>
+      </c>
+      <c r="P108">
+        <v>-419847921000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>1672841040000</v>
+      </c>
+      <c r="B109">
+        <v>1360900</v>
+      </c>
+      <c r="C109">
+        <v>1882100</v>
+      </c>
+      <c r="D109">
+        <v>25900</v>
+      </c>
+      <c r="E109">
+        <v>23379895000</v>
+      </c>
+      <c r="F109">
+        <v>32838300000</v>
+      </c>
+      <c r="G109">
+        <v>348848000</v>
+      </c>
+      <c r="H109">
+        <v>3268900</v>
+      </c>
+      <c r="I109">
+        <v>56567043000</v>
+      </c>
+      <c r="J109" t="str">
+        <v>2023-01-04T14:04:00.000Z</v>
+      </c>
+      <c r="K109">
+        <v>7448133883000</v>
+      </c>
+      <c r="L109">
+        <v>453548400</v>
+      </c>
+      <c r="M109">
+        <v>521200</v>
+      </c>
+      <c r="N109">
+        <v>9458405000</v>
+      </c>
+      <c r="O109">
+        <v>-39170700</v>
+      </c>
+      <c r="P109">
+        <v>-410389516000</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>1672841160000</v>
+      </c>
+      <c r="B110">
+        <v>1007700</v>
+      </c>
+      <c r="C110">
+        <v>2163400</v>
+      </c>
+      <c r="D110">
+        <v>5100</v>
+      </c>
+      <c r="E110">
+        <v>17468587000</v>
+      </c>
+      <c r="F110">
+        <v>36108539000</v>
+      </c>
+      <c r="G110">
+        <v>133487000</v>
+      </c>
+      <c r="H110">
+        <v>3176200</v>
+      </c>
+      <c r="I110">
+        <v>53710613000</v>
+      </c>
+      <c r="J110" t="str">
+        <v>2023-01-04T14:06:00.000Z</v>
+      </c>
+      <c r="K110">
+        <v>7501844496000</v>
+      </c>
+      <c r="L110">
+        <v>456724600</v>
+      </c>
+      <c r="M110">
+        <v>1155700</v>
+      </c>
+      <c r="N110">
+        <v>18639952000</v>
+      </c>
+      <c r="O110">
+        <v>-38015000</v>
+      </c>
+      <c r="P110">
+        <v>-391749564000</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>1672841280000</v>
+      </c>
+      <c r="B111">
+        <v>1233000</v>
+      </c>
+      <c r="C111">
+        <v>2120600</v>
+      </c>
+      <c r="D111">
+        <v>16200</v>
+      </c>
+      <c r="E111">
+        <v>21044991000</v>
+      </c>
+      <c r="F111">
+        <v>37119358000</v>
+      </c>
+      <c r="G111">
+        <v>545567000</v>
+      </c>
+      <c r="H111">
+        <v>3369800</v>
+      </c>
+      <c r="I111">
+        <v>58709916000</v>
+      </c>
+      <c r="J111" t="str">
+        <v>2023-01-04T14:08:00.000Z</v>
+      </c>
+      <c r="K111">
+        <v>7560554412000</v>
+      </c>
+      <c r="L111">
+        <v>460094400</v>
+      </c>
+      <c r="M111">
+        <v>887600</v>
+      </c>
+      <c r="N111">
+        <v>16074367000</v>
+      </c>
+      <c r="O111">
+        <v>-37127400</v>
+      </c>
+      <c r="P111">
+        <v>-375675197000</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>1672841400000</v>
+      </c>
+      <c r="B112">
+        <v>2332900</v>
+      </c>
+      <c r="C112">
+        <v>1821300</v>
+      </c>
+      <c r="D112">
+        <v>16000</v>
+      </c>
+      <c r="E112">
+        <v>39880776000</v>
+      </c>
+      <c r="F112">
+        <v>37918681000</v>
+      </c>
+      <c r="G112">
+        <v>261537000</v>
+      </c>
+      <c r="H112">
+        <v>4170200</v>
+      </c>
+      <c r="I112">
+        <v>78060994000</v>
+      </c>
+      <c r="J112" t="str">
+        <v>2023-01-04T14:10:00.000Z</v>
+      </c>
+      <c r="K112">
+        <v>7638615406000</v>
+      </c>
+      <c r="L112">
+        <v>464264600</v>
+      </c>
+      <c r="M112">
+        <v>-511600</v>
+      </c>
+      <c r="N112">
+        <v>-1962095000</v>
+      </c>
+      <c r="O112">
+        <v>-37639000</v>
+      </c>
+      <c r="P112">
+        <v>-377637292000</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>1672841520000</v>
+      </c>
+      <c r="B113">
+        <v>1736900</v>
+      </c>
+      <c r="C113">
+        <v>2421300</v>
+      </c>
+      <c r="D113">
+        <v>79500</v>
+      </c>
+      <c r="E113">
+        <v>28623069000</v>
+      </c>
+      <c r="F113">
+        <v>49020563000</v>
+      </c>
+      <c r="G113">
+        <v>1152871000</v>
+      </c>
+      <c r="H113">
+        <v>4237700</v>
+      </c>
+      <c r="I113">
+        <v>78796503000</v>
+      </c>
+      <c r="J113" t="str">
+        <v>2023-01-04T14:12:00.000Z</v>
+      </c>
+      <c r="K113">
+        <v>7717411909000</v>
+      </c>
+      <c r="L113">
+        <v>468502300</v>
+      </c>
+      <c r="M113">
+        <v>684400</v>
+      </c>
+      <c r="N113">
+        <v>20397494000</v>
+      </c>
+      <c r="O113">
+        <v>-36954600</v>
+      </c>
+      <c r="P113">
+        <v>-357239798000</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>1672841640000</v>
+      </c>
+      <c r="B114">
+        <v>1654100</v>
+      </c>
+      <c r="C114">
+        <v>2485200</v>
+      </c>
+      <c r="D114">
+        <v>10100</v>
+      </c>
+      <c r="E114">
+        <v>27508965000</v>
+      </c>
+      <c r="F114">
+        <v>49242985000</v>
+      </c>
+      <c r="G114">
+        <v>237899000</v>
+      </c>
+      <c r="H114">
+        <v>4149400</v>
+      </c>
+      <c r="I114">
+        <v>76989849000</v>
+      </c>
+      <c r="J114" t="str">
+        <v>2023-01-04T14:14:00.000Z</v>
+      </c>
+      <c r="K114">
+        <v>7794401758000</v>
+      </c>
+      <c r="L114">
+        <v>472651700</v>
+      </c>
+      <c r="M114">
+        <v>831100</v>
+      </c>
+      <c r="N114">
+        <v>21734020000</v>
+      </c>
+      <c r="O114">
+        <v>-36123500</v>
+      </c>
+      <c r="P114">
+        <v>-335505778000</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>1672841760000</v>
+      </c>
+      <c r="B115">
+        <v>1522600</v>
+      </c>
+      <c r="C115">
+        <v>3919800</v>
+      </c>
+      <c r="D115">
+        <v>49000</v>
+      </c>
+      <c r="E115">
+        <v>25152775000</v>
+      </c>
+      <c r="F115">
+        <v>68429656000</v>
+      </c>
+      <c r="G115">
+        <v>289337000</v>
+      </c>
+      <c r="H115">
+        <v>5491400</v>
+      </c>
+      <c r="I115">
+        <v>93871768000</v>
+      </c>
+      <c r="J115" t="str">
+        <v>2023-01-04T14:16:00.000Z</v>
+      </c>
+      <c r="K115">
+        <v>7888273526000</v>
+      </c>
+      <c r="L115">
+        <v>478143100</v>
+      </c>
+      <c r="M115">
+        <v>2397200</v>
+      </c>
+      <c r="N115">
+        <v>43276881000</v>
+      </c>
+      <c r="O115">
+        <v>-33726300</v>
+      </c>
+      <c r="P115">
+        <v>-292228897000</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>1672841880000</v>
+      </c>
+      <c r="B116">
+        <v>1839000</v>
+      </c>
+      <c r="C116">
+        <v>5529900</v>
+      </c>
+      <c r="D116">
+        <v>52200</v>
+      </c>
+      <c r="E116">
+        <v>31197028000</v>
+      </c>
+      <c r="F116">
+        <v>97821277000</v>
+      </c>
+      <c r="G116">
+        <v>784332000</v>
+      </c>
+      <c r="H116">
+        <v>7421100</v>
+      </c>
+      <c r="I116">
+        <v>129802637000</v>
+      </c>
+      <c r="J116" t="str">
+        <v>2023-01-04T14:18:00.000Z</v>
+      </c>
+      <c r="K116">
+        <v>8018076163000</v>
+      </c>
+      <c r="L116">
+        <v>485564200</v>
+      </c>
+      <c r="M116">
+        <v>3690900</v>
+      </c>
+      <c r="N116">
+        <v>66624249000</v>
+      </c>
+      <c r="O116">
+        <v>-30035400</v>
+      </c>
+      <c r="P116">
+        <v>-225604648000</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>1672842000000</v>
+      </c>
+      <c r="B117">
+        <v>2196100</v>
+      </c>
+      <c r="C117">
+        <v>3486000</v>
+      </c>
+      <c r="D117">
+        <v>33700</v>
+      </c>
+      <c r="E117">
+        <v>41836505000</v>
+      </c>
+      <c r="F117">
+        <v>65035736000</v>
+      </c>
+      <c r="G117">
+        <v>477780000</v>
+      </c>
+      <c r="H117">
+        <v>5715800</v>
+      </c>
+      <c r="I117">
+        <v>107350021000</v>
+      </c>
+      <c r="J117" t="str">
+        <v>2023-01-04T14:20:00.000Z</v>
+      </c>
+      <c r="K117">
+        <v>8125426184000</v>
+      </c>
+      <c r="L117">
+        <v>491280000</v>
+      </c>
+      <c r="M117">
+        <v>1289900</v>
+      </c>
+      <c r="N117">
+        <v>23199231000</v>
+      </c>
+      <c r="O117">
+        <v>-28745500</v>
+      </c>
+      <c r="P117">
+        <v>-202405417000</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <v>1672842120000</v>
+      </c>
+      <c r="B118">
+        <v>2719000</v>
+      </c>
+      <c r="C118">
+        <v>2470500</v>
+      </c>
+      <c r="D118">
+        <v>13200</v>
+      </c>
+      <c r="E118">
+        <v>45556128000</v>
+      </c>
+      <c r="F118">
+        <v>41235721000</v>
+      </c>
+      <c r="G118">
+        <v>474585000</v>
+      </c>
+      <c r="H118">
+        <v>5202700</v>
+      </c>
+      <c r="I118">
+        <v>87266434000</v>
+      </c>
+      <c r="J118" t="str">
+        <v>2023-01-04T14:22:00.000Z</v>
+      </c>
+      <c r="K118">
+        <v>8212692618000</v>
+      </c>
+      <c r="L118">
+        <v>496482700</v>
+      </c>
+      <c r="M118">
+        <v>-248500</v>
+      </c>
+      <c r="N118">
+        <v>-4320407000</v>
+      </c>
+      <c r="O118">
+        <v>-28994000</v>
+      </c>
+      <c r="P118">
+        <v>-206725824000</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <v>1672842240000</v>
+      </c>
+      <c r="B119">
+        <v>3978900</v>
+      </c>
+      <c r="C119">
+        <v>1519600</v>
+      </c>
+      <c r="D119">
+        <v>20100</v>
+      </c>
+      <c r="E119">
+        <v>65305791000</v>
+      </c>
+      <c r="F119">
+        <v>27926183000</v>
+      </c>
+      <c r="G119">
+        <v>259308000</v>
+      </c>
+      <c r="H119">
+        <v>5518600</v>
+      </c>
+      <c r="I119">
+        <v>93491282000</v>
+      </c>
+      <c r="J119" t="str">
+        <v>2023-01-04T14:24:00.000Z</v>
+      </c>
+      <c r="K119">
+        <v>8306183900000</v>
+      </c>
+      <c r="L119">
+        <v>502001300</v>
+      </c>
+      <c r="M119">
+        <v>-2459300</v>
+      </c>
+      <c r="N119">
+        <v>-37379608000</v>
+      </c>
+      <c r="O119">
+        <v>-31453300</v>
+      </c>
+      <c r="P119">
+        <v>-244105432000</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <v>1672842360000</v>
+      </c>
+      <c r="B120">
+        <v>5516200</v>
+      </c>
+      <c r="C120">
+        <v>1765600</v>
+      </c>
+      <c r="D120">
+        <v>50700</v>
+      </c>
+      <c r="E120">
+        <v>86060962000</v>
+      </c>
+      <c r="F120">
+        <v>32158493000</v>
+      </c>
+      <c r="G120">
+        <v>683371000</v>
+      </c>
+      <c r="H120">
+        <v>7332500</v>
+      </c>
+      <c r="I120">
+        <v>118902826000</v>
+      </c>
+      <c r="J120" t="str">
+        <v>2023-01-04T14:26:00.000Z</v>
+      </c>
+      <c r="K120">
+        <v>8425086726000</v>
+      </c>
+      <c r="L120">
+        <v>509333800</v>
+      </c>
+      <c r="M120">
+        <v>-3750600</v>
+      </c>
+      <c r="N120">
+        <v>-53902469000</v>
+      </c>
+      <c r="O120">
+        <v>-35203900</v>
+      </c>
+      <c r="P120">
+        <v>-298007901000</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>1672842480000</v>
+      </c>
+      <c r="B121">
+        <v>6361500</v>
+      </c>
+      <c r="C121">
+        <v>3154900</v>
+      </c>
+      <c r="D121">
+        <v>32000</v>
+      </c>
+      <c r="E121">
+        <v>100499158000</v>
+      </c>
+      <c r="F121">
+        <v>53578430000</v>
+      </c>
+      <c r="G121">
+        <v>503463000</v>
+      </c>
+      <c r="H121">
+        <v>9548400</v>
+      </c>
+      <c r="I121">
+        <v>154581051000</v>
+      </c>
+      <c r="J121" t="str">
+        <v>2023-01-04T14:28:00.000Z</v>
+      </c>
+      <c r="K121">
+        <v>8579667777000</v>
+      </c>
+      <c r="L121">
+        <v>518882200</v>
+      </c>
+      <c r="M121">
+        <v>-3206600</v>
+      </c>
+      <c r="N121">
+        <v>-46920728000</v>
+      </c>
+      <c r="O121">
+        <v>-38410500</v>
+      </c>
+      <c r="P121">
+        <v>-344928629000</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
+        <v>1672842600000</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>1900</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>38690000</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>1900</v>
+      </c>
+      <c r="I122">
+        <v>38690000</v>
+      </c>
+      <c r="J122" t="str">
+        <v>2023-01-04T14:30:00.000Z</v>
+      </c>
+      <c r="K122">
+        <v>8579706467000</v>
+      </c>
+      <c r="L122">
+        <v>518884100</v>
+      </c>
+      <c r="M122">
+        <v>1900</v>
+      </c>
+      <c r="N122">
+        <v>38690000</v>
+      </c>
+      <c r="O122">
+        <v>-38408600</v>
+      </c>
+      <c r="P122">
+        <v>-344889939000</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123">
+        <v>1672842720000</v>
+      </c>
+      <c r="B123">
+        <v>9900</v>
+      </c>
+      <c r="C123">
+        <v>4900</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>130680000</v>
+      </c>
+      <c r="F123">
+        <v>65170000</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>14800</v>
+      </c>
+      <c r="I123">
+        <v>195850000</v>
+      </c>
+      <c r="J123" t="str">
+        <v>2023-01-04T14:32:00.000Z</v>
+      </c>
+      <c r="K123">
+        <v>8579902317000</v>
+      </c>
+      <c r="L123">
+        <v>518898900</v>
+      </c>
+      <c r="M123">
+        <v>-5000</v>
+      </c>
+      <c r="N123">
+        <v>-65510000</v>
+      </c>
+      <c r="O123">
+        <v>-38413600</v>
+      </c>
+      <c r="P123">
+        <v>-344955449000</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124">
+        <v>1672842840000</v>
+      </c>
+      <c r="B124">
+        <v>5000</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>66000000</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>5000</v>
+      </c>
+      <c r="I124">
+        <v>66000000</v>
+      </c>
+      <c r="J124" t="str">
+        <v>2023-01-04T14:34:00.000Z</v>
+      </c>
+      <c r="K124">
+        <v>8579968317000</v>
+      </c>
+      <c r="L124">
+        <v>518903900</v>
+      </c>
+      <c r="M124">
+        <v>-5000</v>
+      </c>
+      <c r="N124">
+        <v>-66000000</v>
+      </c>
+      <c r="O124">
+        <v>-38418600</v>
+      </c>
+      <c r="P124">
+        <v>-345021449000</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125">
+        <v>1672842960000</v>
+      </c>
+      <c r="B125">
+        <v>400</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>5280000</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>400</v>
+      </c>
+      <c r="I125">
+        <v>5280000</v>
+      </c>
+      <c r="J125" t="str">
+        <v>2023-01-04T14:36:00.000Z</v>
+      </c>
+      <c r="K125">
+        <v>8579973597000</v>
+      </c>
+      <c r="L125">
+        <v>518904300</v>
+      </c>
+      <c r="M125">
+        <v>-400</v>
+      </c>
+      <c r="N125">
+        <v>-5280000</v>
+      </c>
+      <c r="O125">
+        <v>-38419000</v>
+      </c>
+      <c r="P125">
+        <v>-345026729000</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126">
+        <v>1672843080000</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>3000</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>39600000</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>3000</v>
+      </c>
+      <c r="I126">
+        <v>39600000</v>
+      </c>
+      <c r="J126" t="str">
+        <v>2023-01-04T14:38:00.000Z</v>
+      </c>
+      <c r="K126">
+        <v>8580013197000</v>
+      </c>
+      <c r="L126">
+        <v>518907300</v>
+      </c>
+      <c r="M126">
+        <v>3000</v>
+      </c>
+      <c r="N126">
+        <v>39600000</v>
+      </c>
+      <c r="O126">
+        <v>-38416000</v>
+      </c>
+      <c r="P126">
+        <v>-344987129000</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127">
+        <v>1672843200000</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>200</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>2640000</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>200</v>
+      </c>
+      <c r="I127">
+        <v>2640000</v>
+      </c>
+      <c r="J127" t="str">
+        <v>2023-01-04T14:40:00.000Z</v>
+      </c>
+      <c r="K127">
+        <v>8580015837000</v>
+      </c>
+      <c r="L127">
+        <v>518907500</v>
+      </c>
+      <c r="M127">
+        <v>200</v>
+      </c>
+      <c r="N127">
+        <v>2640000</v>
+      </c>
+      <c r="O127">
+        <v>-38415800</v>
+      </c>
+      <c r="P127">
+        <v>-344984489000</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128">
+        <v>1672843440000</v>
+      </c>
+      <c r="B128">
+        <v>1563800</v>
+      </c>
+      <c r="C128">
+        <v>1516100</v>
+      </c>
+      <c r="D128">
+        <v>21122400</v>
+      </c>
+      <c r="E128">
+        <v>21964489000</v>
+      </c>
+      <c r="F128">
+        <v>45418721000</v>
+      </c>
+      <c r="G128">
+        <v>378365769000</v>
+      </c>
+      <c r="H128">
+        <v>24202300</v>
+      </c>
+      <c r="I128">
+        <v>445748979000</v>
+      </c>
+      <c r="J128" t="str">
+        <v>2023-01-04T14:44:00.000Z</v>
+      </c>
+      <c r="K128">
+        <v>9025764816000</v>
+      </c>
+      <c r="L128">
+        <v>543109800</v>
+      </c>
+      <c r="M128">
+        <v>-47700</v>
+      </c>
+      <c r="N128">
+        <v>23454232000</v>
+      </c>
+      <c r="O128">
+        <v>-38463500</v>
+      </c>
+      <c r="P128">
+        <v>-321530257000</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129">
+        <v>1672843560000</v>
+      </c>
+      <c r="B129">
+        <v>6800</v>
+      </c>
+      <c r="C129">
+        <v>2800</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>89760000</v>
+      </c>
+      <c r="F129">
+        <v>36960000</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>9600</v>
+      </c>
+      <c r="I129">
+        <v>126720000</v>
+      </c>
+      <c r="J129" t="str">
+        <v>2023-01-04T14:46:00.000Z</v>
+      </c>
+      <c r="K129">
+        <v>9025891536000</v>
+      </c>
+      <c r="L129">
+        <v>543119400</v>
+      </c>
+      <c r="M129">
+        <v>-4000</v>
+      </c>
+      <c r="N129">
+        <v>-52800000</v>
+      </c>
+      <c r="O129">
+        <v>-38467500</v>
+      </c>
+      <c r="P129">
+        <v>-321583057000</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130">
+        <v>1672843680000</v>
+      </c>
+      <c r="B130">
+        <v>200</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>2640000</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>200</v>
+      </c>
+      <c r="I130">
+        <v>2640000</v>
+      </c>
+      <c r="J130" t="str">
+        <v>2023-01-04T14:48:00.000Z</v>
+      </c>
+      <c r="K130">
+        <v>9025894176000</v>
+      </c>
+      <c r="L130">
+        <v>543119600</v>
+      </c>
+      <c r="M130">
+        <v>-200</v>
+      </c>
+      <c r="N130">
+        <v>-2640000</v>
+      </c>
+      <c r="O130">
+        <v>-38467700</v>
+      </c>
+      <c r="P130">
+        <v>-321585697000</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131">
+        <v>1672843800000</v>
+      </c>
+      <c r="B131">
+        <v>1000</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>13200000</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>1000</v>
+      </c>
+      <c r="I131">
+        <v>13200000</v>
+      </c>
+      <c r="J131" t="str">
+        <v>2023-01-04T14:50:00.000Z</v>
+      </c>
+      <c r="K131">
+        <v>9025907376000</v>
+      </c>
+      <c r="L131">
+        <v>543120600</v>
+      </c>
+      <c r="M131">
+        <v>-1000</v>
+      </c>
+      <c r="N131">
+        <v>-13200000</v>
+      </c>
+      <c r="O131">
+        <v>-38468700</v>
+      </c>
+      <c r="P131">
+        <v>-321598897000</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132">
+        <v>1672844160000</v>
+      </c>
+      <c r="B132">
+        <v>300</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
         <v>3960000</v>
       </c>
-      <c r="F57">
+      <c r="F132">
         <v>0</v>
       </c>
-      <c r="G57">
+      <c r="G132">
         <v>0</v>
       </c>
-      <c r="H57">
+      <c r="H132">
         <v>300</v>
       </c>
-      <c r="I57">
+      <c r="I132">
         <v>3960000</v>
       </c>
-      <c r="J57" t="str">
-        <v>2023-01-04T14:55:00.000Z</v>
-      </c>
-      <c r="K57">
+      <c r="J132" t="str">
+        <v>2023-01-04T14:56:00.000Z</v>
+      </c>
+      <c r="K132">
         <v>9025911336000</v>
       </c>
-      <c r="L57">
+      <c r="L132">
         <v>543120900</v>
       </c>
-      <c r="M57">
+      <c r="M132">
         <v>-300</v>
       </c>
-      <c r="N57">
+      <c r="N132">
         <v>-3960000</v>
       </c>
-      <c r="O57">
+      <c r="O132">
         <v>-38469000</v>
       </c>
-      <c r="P57">
+      <c r="P132">
         <v>-321602857000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P57"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P132"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/name/vnindex/20230104/VNINDEX_HOSE_5p_20230104.xlsx
+++ b/name/vnindex/20230104/VNINDEX_HOSE_5p_20230104.xlsx
@@ -469,7 +469,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>3900000</v>
+        <v>3900</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -478,13 +478,13 @@
         <v>300</v>
       </c>
       <c r="I2">
-        <v>3900000</v>
+        <v>3900</v>
       </c>
       <c r="J2" t="str">
         <v>2023-01-04T09:00:00.000Z</v>
       </c>
       <c r="K2">
-        <v>3900000</v>
+        <v>3900</v>
       </c>
       <c r="L2">
         <v>300</v>
@@ -493,13 +493,13 @@
         <v>300</v>
       </c>
       <c r="N2">
-        <v>3900000</v>
+        <v>3900</v>
       </c>
       <c r="O2">
         <v>300</v>
       </c>
       <c r="P2">
-        <v>3900000</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="3">
@@ -522,19 +522,19 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1300000</v>
+        <v>1300</v>
       </c>
       <c r="H3">
         <v>100</v>
       </c>
       <c r="I3">
-        <v>1300000</v>
+        <v>1300</v>
       </c>
       <c r="J3" t="str">
         <v>2023-01-04T09:02:00.000Z</v>
       </c>
       <c r="K3">
-        <v>5200000</v>
+        <v>5200</v>
       </c>
       <c r="L3">
         <v>400</v>
@@ -549,7 +549,7 @@
         <v>300</v>
       </c>
       <c r="P3">
-        <v>3900000</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="4">
@@ -584,7 +584,7 @@
         <v>2023-01-04T09:06:00.000Z</v>
       </c>
       <c r="K4">
-        <v>6520000</v>
+        <v>1325200</v>
       </c>
       <c r="L4">
         <v>500</v>
@@ -599,7 +599,7 @@
         <v>400</v>
       </c>
       <c r="P4">
-        <v>5220000</v>
+        <v>1323900</v>
       </c>
     </row>
     <row r="5">
@@ -634,7 +634,7 @@
         <v>2023-01-04T09:10:00.000Z</v>
       </c>
       <c r="K5">
-        <v>19620000</v>
+        <v>14425200</v>
       </c>
       <c r="L5">
         <v>1500</v>
@@ -649,7 +649,7 @@
         <v>1400</v>
       </c>
       <c r="P5">
-        <v>18320000</v>
+        <v>14423900</v>
       </c>
     </row>
     <row r="6">
@@ -684,7 +684,7 @@
         <v>2023-01-04T09:12:00.000Z</v>
       </c>
       <c r="K6">
-        <v>39270000</v>
+        <v>34075200</v>
       </c>
       <c r="L6">
         <v>3000</v>
@@ -699,7 +699,7 @@
         <v>2900</v>
       </c>
       <c r="P6">
-        <v>37970000</v>
+        <v>34073900</v>
       </c>
     </row>
     <row r="7">
@@ -716,25 +716,25 @@
         <v>8733800</v>
       </c>
       <c r="E7">
-        <v>54172803000</v>
+        <v>51116562300</v>
       </c>
       <c r="F7">
-        <v>103393127000</v>
+        <v>99016108400</v>
       </c>
       <c r="G7">
-        <v>75739813000</v>
+        <v>74735018800</v>
       </c>
       <c r="H7">
         <v>19527500</v>
       </c>
       <c r="I7">
-        <v>233305743000</v>
+        <v>224867689500</v>
       </c>
       <c r="J7" t="str">
         <v>2023-01-04T09:14:00.000Z</v>
       </c>
       <c r="K7">
-        <v>233345013000</v>
+        <v>224901764700</v>
       </c>
       <c r="L7">
         <v>19530500</v>
@@ -743,13 +743,13 @@
         <v>3724100</v>
       </c>
       <c r="N7">
-        <v>49220324000</v>
+        <v>47899546100</v>
       </c>
       <c r="O7">
         <v>3727000</v>
       </c>
       <c r="P7">
-        <v>49258294000</v>
+        <v>47933620000</v>
       </c>
     </row>
     <row r="8">
@@ -766,10 +766,10 @@
         <v>91800</v>
       </c>
       <c r="E8">
-        <v>33465263000</v>
+        <v>32273555900</v>
       </c>
       <c r="F8">
-        <v>77196107000</v>
+        <v>74515090700</v>
       </c>
       <c r="G8">
         <v>925801000</v>
@@ -778,13 +778,13 @@
         <v>7552600</v>
       </c>
       <c r="I8">
-        <v>111587171000</v>
+        <v>107714447600</v>
       </c>
       <c r="J8" t="str">
         <v>2023-01-04T09:16:00.000Z</v>
       </c>
       <c r="K8">
-        <v>344932184000</v>
+        <v>332616212300</v>
       </c>
       <c r="L8">
         <v>27083100</v>
@@ -793,13 +793,13 @@
         <v>2853400</v>
       </c>
       <c r="N8">
-        <v>43730844000</v>
+        <v>42241534800</v>
       </c>
       <c r="O8">
         <v>6580400</v>
       </c>
       <c r="P8">
-        <v>92989138000</v>
+        <v>90175154800</v>
       </c>
     </row>
     <row r="9">
@@ -816,25 +816,25 @@
         <v>98800</v>
       </c>
       <c r="E9">
-        <v>46412747000</v>
+        <v>43545517100</v>
       </c>
       <c r="F9">
-        <v>58147162000</v>
+        <v>53440873000</v>
       </c>
       <c r="G9">
-        <v>1133199000</v>
+        <v>1129003200</v>
       </c>
       <c r="H9">
         <v>7100200</v>
       </c>
       <c r="I9">
-        <v>105693108000</v>
+        <v>98115393300</v>
       </c>
       <c r="J9" t="str">
         <v>2023-01-04T09:18:00.000Z</v>
       </c>
       <c r="K9">
-        <v>450625292000</v>
+        <v>430731605600</v>
       </c>
       <c r="L9">
         <v>34183300</v>
@@ -843,13 +843,13 @@
         <v>1065600</v>
       </c>
       <c r="N9">
-        <v>11734415000</v>
+        <v>9895355900</v>
       </c>
       <c r="O9">
         <v>7646000</v>
       </c>
       <c r="P9">
-        <v>104723553000</v>
+        <v>100070510700</v>
       </c>
     </row>
     <row r="10">
@@ -866,10 +866,10 @@
         <v>35200</v>
       </c>
       <c r="E10">
-        <v>42538019000</v>
+        <v>38912148500</v>
       </c>
       <c r="F10">
-        <v>74823476000</v>
+        <v>71561840900</v>
       </c>
       <c r="G10">
         <v>445162000</v>
@@ -878,13 +878,13 @@
         <v>9027500</v>
       </c>
       <c r="I10">
-        <v>117806657000</v>
+        <v>110919151400</v>
       </c>
       <c r="J10" t="str">
         <v>2023-01-04T09:20:00.000Z</v>
       </c>
       <c r="K10">
-        <v>568431949000</v>
+        <v>541650757000</v>
       </c>
       <c r="L10">
         <v>43210800</v>
@@ -893,13 +893,13 @@
         <v>3262300</v>
       </c>
       <c r="N10">
-        <v>32285457000</v>
+        <v>32649692400</v>
       </c>
       <c r="O10">
         <v>10908300</v>
       </c>
       <c r="P10">
-        <v>137009010000</v>
+        <v>132720203100</v>
       </c>
     </row>
     <row r="11">
@@ -916,10 +916,10 @@
         <v>21800</v>
       </c>
       <c r="E11">
-        <v>43087824000</v>
+        <v>35395723800</v>
       </c>
       <c r="F11">
-        <v>66447194000</v>
+        <v>59686161800</v>
       </c>
       <c r="G11">
         <v>355463000</v>
@@ -928,13 +928,13 @@
         <v>7175600</v>
       </c>
       <c r="I11">
-        <v>109890481000</v>
+        <v>95437348600</v>
       </c>
       <c r="J11" t="str">
         <v>2023-01-04T09:22:00.000Z</v>
       </c>
       <c r="K11">
-        <v>678322430000</v>
+        <v>637088105600</v>
       </c>
       <c r="L11">
         <v>50386400</v>
@@ -943,13 +943,13 @@
         <v>1463800</v>
       </c>
       <c r="N11">
-        <v>23359370000</v>
+        <v>24290438000</v>
       </c>
       <c r="O11">
         <v>12372100</v>
       </c>
       <c r="P11">
-        <v>160368380000</v>
+        <v>157010641100</v>
       </c>
     </row>
     <row r="12">
@@ -966,25 +966,25 @@
         <v>29500</v>
       </c>
       <c r="E12">
-        <v>37305463000</v>
+        <v>35573996200</v>
       </c>
       <c r="F12">
-        <v>60568812000</v>
+        <v>56546038800</v>
       </c>
       <c r="G12">
-        <v>256643000</v>
+        <v>236163500</v>
       </c>
       <c r="H12">
         <v>6350300</v>
       </c>
       <c r="I12">
-        <v>98130918000</v>
+        <v>92356198500</v>
       </c>
       <c r="J12" t="str">
         <v>2023-01-04T09:24:00.000Z</v>
       </c>
       <c r="K12">
-        <v>776453348000</v>
+        <v>729444304100</v>
       </c>
       <c r="L12">
         <v>56736700</v>
@@ -993,13 +993,13 @@
         <v>1279800</v>
       </c>
       <c r="N12">
-        <v>23263349000</v>
+        <v>20972042600</v>
       </c>
       <c r="O12">
         <v>13651900</v>
       </c>
       <c r="P12">
-        <v>183631729000</v>
+        <v>177982683700</v>
       </c>
     </row>
     <row r="13">
@@ -1016,25 +1016,25 @@
         <v>36500</v>
       </c>
       <c r="E13">
-        <v>31944198000</v>
+        <v>28101544500</v>
       </c>
       <c r="F13">
-        <v>116429637000</v>
+        <v>92501389200</v>
       </c>
       <c r="G13">
-        <v>792270000</v>
+        <v>784977300</v>
       </c>
       <c r="H13">
         <v>8817000</v>
       </c>
       <c r="I13">
-        <v>149166105000</v>
+        <v>121387911000</v>
       </c>
       <c r="J13" t="str">
         <v>2023-01-04T09:26:00.000Z</v>
       </c>
       <c r="K13">
-        <v>925619453000</v>
+        <v>850832215100</v>
       </c>
       <c r="L13">
         <v>65553700</v>
@@ -1043,13 +1043,13 @@
         <v>4487300</v>
       </c>
       <c r="N13">
-        <v>84485439000</v>
+        <v>64399844700</v>
       </c>
       <c r="O13">
         <v>18139200</v>
       </c>
       <c r="P13">
-        <v>268117168000</v>
+        <v>242382528400</v>
       </c>
     </row>
     <row r="14">
@@ -1066,10 +1066,10 @@
         <v>146300</v>
       </c>
       <c r="E14">
-        <v>40072769000</v>
+        <v>36834610400</v>
       </c>
       <c r="F14">
-        <v>87411705000</v>
+        <v>84000219900</v>
       </c>
       <c r="G14">
         <v>2878926000</v>
@@ -1078,13 +1078,13 @@
         <v>8056200</v>
       </c>
       <c r="I14">
-        <v>130363400000</v>
+        <v>123713756300</v>
       </c>
       <c r="J14" t="str">
         <v>2023-01-04T09:28:00.000Z</v>
       </c>
       <c r="K14">
-        <v>1055982853000</v>
+        <v>974545971400</v>
       </c>
       <c r="L14">
         <v>73609900</v>
@@ -1093,13 +1093,13 @@
         <v>2668700</v>
       </c>
       <c r="N14">
-        <v>47338936000</v>
+        <v>47165609500</v>
       </c>
       <c r="O14">
         <v>20807900</v>
       </c>
       <c r="P14">
-        <v>315456104000</v>
+        <v>289548137900</v>
       </c>
     </row>
     <row r="15">
@@ -1116,25 +1116,25 @@
         <v>65300</v>
       </c>
       <c r="E15">
-        <v>63025363000</v>
+        <v>53638958800</v>
       </c>
       <c r="F15">
-        <v>83840407000</v>
+        <v>78903349000</v>
       </c>
       <c r="G15">
-        <v>1508950000</v>
+        <v>575384500</v>
       </c>
       <c r="H15">
         <v>8644900</v>
       </c>
       <c r="I15">
-        <v>148374720000</v>
+        <v>133117692300</v>
       </c>
       <c r="J15" t="str">
         <v>2023-01-04T09:30:00.000Z</v>
       </c>
       <c r="K15">
-        <v>1204357573000</v>
+        <v>1107663663700</v>
       </c>
       <c r="L15">
         <v>82254800</v>
@@ -1143,13 +1143,13 @@
         <v>1122600</v>
       </c>
       <c r="N15">
-        <v>20815044000</v>
+        <v>25264390200</v>
       </c>
       <c r="O15">
         <v>21930500</v>
       </c>
       <c r="P15">
-        <v>336271148000</v>
+        <v>314812528100</v>
       </c>
     </row>
     <row r="16">
@@ -1166,10 +1166,10 @@
         <v>72000</v>
       </c>
       <c r="E16">
-        <v>63655130000</v>
+        <v>60797390600</v>
       </c>
       <c r="F16">
-        <v>86010740000</v>
+        <v>77689669400</v>
       </c>
       <c r="G16">
         <v>1647915000</v>
@@ -1178,13 +1178,13 @@
         <v>8293400</v>
       </c>
       <c r="I16">
-        <v>151313785000</v>
+        <v>140134975000</v>
       </c>
       <c r="J16" t="str">
         <v>2023-01-04T09:32:00.000Z</v>
       </c>
       <c r="K16">
-        <v>1355671358000</v>
+        <v>1247798638700</v>
       </c>
       <c r="L16">
         <v>90548200</v>
@@ -1193,13 +1193,13 @@
         <v>558600</v>
       </c>
       <c r="N16">
-        <v>22355610000</v>
+        <v>16892278800</v>
       </c>
       <c r="O16">
         <v>22489100</v>
       </c>
       <c r="P16">
-        <v>358626758000</v>
+        <v>331704806900</v>
       </c>
     </row>
     <row r="17">
@@ -1216,10 +1216,10 @@
         <v>163500</v>
       </c>
       <c r="E17">
-        <v>59191173000</v>
+        <v>55809757800</v>
       </c>
       <c r="F17">
-        <v>61745962000</v>
+        <v>56856256600</v>
       </c>
       <c r="G17">
         <v>3106471000</v>
@@ -1228,13 +1228,13 @@
         <v>6867200</v>
       </c>
       <c r="I17">
-        <v>124043606000</v>
+        <v>115772485400</v>
       </c>
       <c r="J17" t="str">
         <v>2023-01-04T09:34:00.000Z</v>
       </c>
       <c r="K17">
-        <v>1479714964000</v>
+        <v>1363571124100</v>
       </c>
       <c r="L17">
         <v>97415400</v>
@@ -1243,13 +1243,13 @@
         <v>-267700</v>
       </c>
       <c r="N17">
-        <v>2554789000</v>
+        <v>1046498800</v>
       </c>
       <c r="O17">
         <v>22221400</v>
       </c>
       <c r="P17">
-        <v>361181547000</v>
+        <v>332751305700</v>
       </c>
     </row>
     <row r="18">
@@ -1266,25 +1266,25 @@
         <v>81300</v>
       </c>
       <c r="E18">
-        <v>74402214000</v>
+        <v>60397033200</v>
       </c>
       <c r="F18">
-        <v>45698046000</v>
+        <v>38812738200</v>
       </c>
       <c r="G18">
-        <v>1440670000</v>
+        <v>1433876800</v>
       </c>
       <c r="H18">
         <v>7020300</v>
       </c>
       <c r="I18">
-        <v>121540930000</v>
+        <v>100643648200</v>
       </c>
       <c r="J18" t="str">
         <v>2023-01-04T09:36:00.000Z</v>
       </c>
       <c r="K18">
-        <v>1601255894000</v>
+        <v>1464214772300</v>
       </c>
       <c r="L18">
         <v>104435700</v>
@@ -1293,13 +1293,13 @@
         <v>-2098800</v>
       </c>
       <c r="N18">
-        <v>-28704168000</v>
+        <v>-21584295000</v>
       </c>
       <c r="O18">
         <v>20122600</v>
       </c>
       <c r="P18">
-        <v>332477379000</v>
+        <v>311167010700</v>
       </c>
     </row>
     <row r="19">
@@ -1316,25 +1316,25 @@
         <v>30300</v>
       </c>
       <c r="E19">
-        <v>73106812000</v>
+        <v>63158170600</v>
       </c>
       <c r="F19">
-        <v>31526250000</v>
+        <v>26924955900</v>
       </c>
       <c r="G19">
-        <v>428594000</v>
+        <v>411810800</v>
       </c>
       <c r="H19">
         <v>6753900</v>
       </c>
       <c r="I19">
-        <v>105061656000</v>
+        <v>90494937300</v>
       </c>
       <c r="J19" t="str">
         <v>2023-01-04T09:38:00.000Z</v>
       </c>
       <c r="K19">
-        <v>1706317550000</v>
+        <v>1554709709600</v>
       </c>
       <c r="L19">
         <v>111189600</v>
@@ -1343,13 +1343,13 @@
         <v>-3127800</v>
       </c>
       <c r="N19">
-        <v>-41580562000</v>
+        <v>-36233214700</v>
       </c>
       <c r="O19">
         <v>16994800</v>
       </c>
       <c r="P19">
-        <v>290896817000</v>
+        <v>274933796000</v>
       </c>
     </row>
     <row r="20">
@@ -1366,10 +1366,10 @@
         <v>13800</v>
       </c>
       <c r="E20">
-        <v>59581136000</v>
+        <v>56378841500</v>
       </c>
       <c r="F20">
-        <v>24313033000</v>
+        <v>22374873100</v>
       </c>
       <c r="G20">
         <v>367022000</v>
@@ -1378,13 +1378,13 @@
         <v>4974400</v>
       </c>
       <c r="I20">
-        <v>84261191000</v>
+        <v>79120736600</v>
       </c>
       <c r="J20" t="str">
         <v>2023-01-04T09:40:00.000Z</v>
       </c>
       <c r="K20">
-        <v>1790578741000</v>
+        <v>1633830446200</v>
       </c>
       <c r="L20">
         <v>116164000</v>
@@ -1393,13 +1393,13 @@
         <v>-2215200</v>
       </c>
       <c r="N20">
-        <v>-35268103000</v>
+        <v>-34003968400</v>
       </c>
       <c r="O20">
         <v>14779600</v>
       </c>
       <c r="P20">
-        <v>255628714000</v>
+        <v>240929827600</v>
       </c>
     </row>
     <row r="21">
@@ -1416,10 +1416,10 @@
         <v>68300</v>
       </c>
       <c r="E21">
-        <v>81169875000</v>
+        <v>79192754100</v>
       </c>
       <c r="F21">
-        <v>26221728000</v>
+        <v>24385566000</v>
       </c>
       <c r="G21">
         <v>1531540000</v>
@@ -1428,13 +1428,13 @@
         <v>7923400</v>
       </c>
       <c r="I21">
-        <v>108923143000</v>
+        <v>105109860100</v>
       </c>
       <c r="J21" t="str">
         <v>2023-01-04T09:42:00.000Z</v>
       </c>
       <c r="K21">
-        <v>1899501884000</v>
+        <v>1738940306300</v>
       </c>
       <c r="L21">
         <v>124087400</v>
@@ -1443,13 +1443,13 @@
         <v>-4709900</v>
       </c>
       <c r="N21">
-        <v>-54948147000</v>
+        <v>-54807188100</v>
       </c>
       <c r="O21">
         <v>10069700</v>
       </c>
       <c r="P21">
-        <v>200680567000</v>
+        <v>186122639500</v>
       </c>
     </row>
     <row r="22">
@@ -1466,25 +1466,25 @@
         <v>13400</v>
       </c>
       <c r="E22">
-        <v>53463509000</v>
+        <v>50956818200</v>
       </c>
       <c r="F22">
-        <v>30488045000</v>
+        <v>27695140700</v>
       </c>
       <c r="G22">
-        <v>230944000</v>
+        <v>212062900</v>
       </c>
       <c r="H22">
         <v>5108600</v>
       </c>
       <c r="I22">
-        <v>84182498000</v>
+        <v>78864021800</v>
       </c>
       <c r="J22" t="str">
         <v>2023-01-04T09:44:00.000Z</v>
       </c>
       <c r="K22">
-        <v>1983684382000</v>
+        <v>1817804328100</v>
       </c>
       <c r="L22">
         <v>129196000</v>
@@ -1493,13 +1493,13 @@
         <v>-1697800</v>
       </c>
       <c r="N22">
-        <v>-22975464000</v>
+        <v>-23261677500</v>
       </c>
       <c r="O22">
         <v>8371900</v>
       </c>
       <c r="P22">
-        <v>177705103000</v>
+        <v>162860962000</v>
       </c>
     </row>
     <row r="23">
@@ -1516,25 +1516,25 @@
         <v>17700</v>
       </c>
       <c r="E23">
-        <v>50868919000</v>
+        <v>47233757800</v>
       </c>
       <c r="F23">
-        <v>25092834000</v>
+        <v>23932295700</v>
       </c>
       <c r="G23">
-        <v>364829000</v>
+        <v>361132700</v>
       </c>
       <c r="H23">
         <v>4490300</v>
       </c>
       <c r="I23">
-        <v>76326582000</v>
+        <v>71527186200</v>
       </c>
       <c r="J23" t="str">
         <v>2023-01-04T09:46:00.000Z</v>
       </c>
       <c r="K23">
-        <v>2060010964000</v>
+        <v>1889331514300</v>
       </c>
       <c r="L23">
         <v>133686300</v>
@@ -1543,13 +1543,13 @@
         <v>-1840000</v>
       </c>
       <c r="N23">
-        <v>-25776085000</v>
+        <v>-23301462100</v>
       </c>
       <c r="O23">
         <v>6531900</v>
       </c>
       <c r="P23">
-        <v>151929018000</v>
+        <v>139559499900</v>
       </c>
     </row>
     <row r="24">
@@ -1566,10 +1566,10 @@
         <v>21000</v>
       </c>
       <c r="E24">
-        <v>37004713000</v>
+        <v>35903914900</v>
       </c>
       <c r="F24">
-        <v>30296877000</v>
+        <v>27766809600</v>
       </c>
       <c r="G24">
         <v>380052000</v>
@@ -1578,13 +1578,13 @@
         <v>4301400</v>
       </c>
       <c r="I24">
-        <v>67681642000</v>
+        <v>64050776500</v>
       </c>
       <c r="J24" t="str">
         <v>2023-01-04T09:48:00.000Z</v>
       </c>
       <c r="K24">
-        <v>2127692606000</v>
+        <v>1953382290800</v>
       </c>
       <c r="L24">
         <v>137987700</v>
@@ -1593,13 +1593,13 @@
         <v>-327200</v>
       </c>
       <c r="N24">
-        <v>-6707836000</v>
+        <v>-8137105300</v>
       </c>
       <c r="O24">
         <v>6204700</v>
       </c>
       <c r="P24">
-        <v>145221182000</v>
+        <v>131422394600</v>
       </c>
     </row>
     <row r="25">
@@ -1616,25 +1616,25 @@
         <v>128700</v>
       </c>
       <c r="E25">
-        <v>38318801000</v>
+        <v>36055666400</v>
       </c>
       <c r="F25">
-        <v>27769278000</v>
+        <v>25326423300</v>
       </c>
       <c r="G25">
-        <v>2031935000</v>
+        <v>1868898200</v>
       </c>
       <c r="H25">
         <v>4470100</v>
       </c>
       <c r="I25">
-        <v>68120014000</v>
+        <v>63250987900</v>
       </c>
       <c r="J25" t="str">
         <v>2023-01-04T09:50:00.000Z</v>
       </c>
       <c r="K25">
-        <v>2195812620000</v>
+        <v>2016633278700</v>
       </c>
       <c r="L25">
         <v>142457800</v>
@@ -1643,13 +1643,13 @@
         <v>-282000</v>
       </c>
       <c r="N25">
-        <v>-10549523000</v>
+        <v>-10729243100</v>
       </c>
       <c r="O25">
         <v>5922700</v>
       </c>
       <c r="P25">
-        <v>134671659000</v>
+        <v>120693151500</v>
       </c>
     </row>
     <row r="26">
@@ -1666,10 +1666,10 @@
         <v>62900</v>
       </c>
       <c r="E26">
-        <v>71364375000</v>
+        <v>68808333600</v>
       </c>
       <c r="F26">
-        <v>20843486000</v>
+        <v>18439692200</v>
       </c>
       <c r="G26">
         <v>907954000</v>
@@ -1678,13 +1678,13 @@
         <v>6006300</v>
       </c>
       <c r="I26">
-        <v>93115815000</v>
+        <v>88155979800</v>
       </c>
       <c r="J26" t="str">
         <v>2023-01-04T09:52:00.000Z</v>
       </c>
       <c r="K26">
-        <v>2288928435000</v>
+        <v>2104789258500</v>
       </c>
       <c r="L26">
         <v>148464100</v>
@@ -1693,13 +1693,13 @@
         <v>-3368600</v>
       </c>
       <c r="N26">
-        <v>-50520889000</v>
+        <v>-50368641400</v>
       </c>
       <c r="O26">
         <v>2554100</v>
       </c>
       <c r="P26">
-        <v>84150770000</v>
+        <v>70324510100</v>
       </c>
     </row>
     <row r="27">
@@ -1716,25 +1716,25 @@
         <v>55300</v>
       </c>
       <c r="E27">
-        <v>73738973000</v>
+        <v>72702210800</v>
       </c>
       <c r="F27">
-        <v>19450927000</v>
+        <v>18967311100</v>
       </c>
       <c r="G27">
-        <v>376027000</v>
+        <v>365038000</v>
       </c>
       <c r="H27">
         <v>5765600</v>
       </c>
       <c r="I27">
-        <v>93565927000</v>
+        <v>92034559900</v>
       </c>
       <c r="J27" t="str">
         <v>2023-01-04T09:54:00.000Z</v>
       </c>
       <c r="K27">
-        <v>2382494362000</v>
+        <v>2196823818400</v>
       </c>
       <c r="L27">
         <v>154229700</v>
@@ -1743,13 +1743,13 @@
         <v>-3472500</v>
       </c>
       <c r="N27">
-        <v>-54288046000</v>
+        <v>-53734899700</v>
       </c>
       <c r="O27">
         <v>-918400</v>
       </c>
       <c r="P27">
-        <v>29862724000</v>
+        <v>16589610400</v>
       </c>
     </row>
     <row r="28">
@@ -1766,10 +1766,10 @@
         <v>6700</v>
       </c>
       <c r="E28">
-        <v>40078045000</v>
+        <v>38348975800</v>
       </c>
       <c r="F28">
-        <v>19806479000</v>
+        <v>18514772000</v>
       </c>
       <c r="G28">
         <v>56783000</v>
@@ -1778,13 +1778,13 @@
         <v>4019500</v>
       </c>
       <c r="I28">
-        <v>59941307000</v>
+        <v>56920530800</v>
       </c>
       <c r="J28" t="str">
         <v>2023-01-04T09:56:00.000Z</v>
       </c>
       <c r="K28">
-        <v>2442435669000</v>
+        <v>2253744349200</v>
       </c>
       <c r="L28">
         <v>158249200</v>
@@ -1793,13 +1793,13 @@
         <v>-1567000</v>
       </c>
       <c r="N28">
-        <v>-20271566000</v>
+        <v>-19834203800</v>
       </c>
       <c r="O28">
         <v>-2485400</v>
       </c>
       <c r="P28">
-        <v>9591158000</v>
+        <v>-3244593400</v>
       </c>
     </row>
     <row r="29">
@@ -1816,10 +1816,10 @@
         <v>13700</v>
       </c>
       <c r="E29">
-        <v>44981735000</v>
+        <v>43186432100</v>
       </c>
       <c r="F29">
-        <v>22841474000</v>
+        <v>21992224100</v>
       </c>
       <c r="G29">
         <v>126722000</v>
@@ -1828,13 +1828,13 @@
         <v>4264500</v>
       </c>
       <c r="I29">
-        <v>67949931000</v>
+        <v>65305378200</v>
       </c>
       <c r="J29" t="str">
         <v>2023-01-04T09:58:00.000Z</v>
       </c>
       <c r="K29">
-        <v>2510385600000</v>
+        <v>2319049727400</v>
       </c>
       <c r="L29">
         <v>162513700</v>
@@ -1843,13 +1843,13 @@
         <v>-1941800</v>
       </c>
       <c r="N29">
-        <v>-22140261000</v>
+        <v>-21194208000</v>
       </c>
       <c r="O29">
         <v>-4427200</v>
       </c>
       <c r="P29">
-        <v>-12549103000</v>
+        <v>-24438801400</v>
       </c>
     </row>
     <row r="30">
@@ -1866,25 +1866,25 @@
         <v>32800</v>
       </c>
       <c r="E30">
-        <v>32778503000</v>
+        <v>31619163500</v>
       </c>
       <c r="F30">
-        <v>28781372000</v>
+        <v>27627926600</v>
       </c>
       <c r="G30">
-        <v>383648000</v>
+        <v>350081600</v>
       </c>
       <c r="H30">
         <v>4052300</v>
       </c>
       <c r="I30">
-        <v>61943523000</v>
+        <v>59597171700</v>
       </c>
       <c r="J30" t="str">
         <v>2023-01-04T10:00:00.000Z</v>
       </c>
       <c r="K30">
-        <v>2572329123000</v>
+        <v>2378646899100</v>
       </c>
       <c r="L30">
         <v>166566000</v>
@@ -1893,13 +1893,13 @@
         <v>-122300</v>
       </c>
       <c r="N30">
-        <v>-3997131000</v>
+        <v>-3991236900</v>
       </c>
       <c r="O30">
         <v>-4549500</v>
       </c>
       <c r="P30">
-        <v>-16546234000</v>
+        <v>-28430038300</v>
       </c>
     </row>
     <row r="31">
@@ -1916,10 +1916,10 @@
         <v>1600</v>
       </c>
       <c r="E31">
-        <v>20283571000</v>
+        <v>19749405700</v>
       </c>
       <c r="F31">
-        <v>88850749000</v>
+        <v>68407812400</v>
       </c>
       <c r="G31">
         <v>93985000.00000001</v>
@@ -1928,13 +1928,13 @@
         <v>6409600</v>
       </c>
       <c r="I31">
-        <v>109228305000</v>
+        <v>88251203100</v>
       </c>
       <c r="J31" t="str">
         <v>2023-01-04T10:02:00.000Z</v>
       </c>
       <c r="K31">
-        <v>2681557428000</v>
+        <v>2466898102200</v>
       </c>
       <c r="L31">
         <v>172975600</v>
@@ -1943,13 +1943,13 @@
         <v>3491800</v>
       </c>
       <c r="N31">
-        <v>68567178000</v>
+        <v>48658406700</v>
       </c>
       <c r="O31">
         <v>-1057700</v>
       </c>
       <c r="P31">
-        <v>52020944000</v>
+        <v>20228368400</v>
       </c>
     </row>
     <row r="32">
@@ -1966,25 +1966,25 @@
         <v>18000</v>
       </c>
       <c r="E32">
-        <v>23181616000</v>
+        <v>22520278000</v>
       </c>
       <c r="F32">
-        <v>114768521000</v>
+        <v>98781124400</v>
       </c>
       <c r="G32">
-        <v>473494000</v>
+        <v>456411100</v>
       </c>
       <c r="H32">
         <v>8320200</v>
       </c>
       <c r="I32">
-        <v>138423631000</v>
+        <v>121757813500</v>
       </c>
       <c r="J32" t="str">
         <v>2023-01-04T10:04:00.000Z</v>
       </c>
       <c r="K32">
-        <v>2819981059000</v>
+        <v>2588655915700</v>
       </c>
       <c r="L32">
         <v>181295800</v>
@@ -1993,13 +1993,13 @@
         <v>5594400</v>
       </c>
       <c r="N32">
-        <v>91586905000</v>
+        <v>76260846400</v>
       </c>
       <c r="O32">
         <v>4536700</v>
       </c>
       <c r="P32">
-        <v>143607849000</v>
+        <v>96489214800</v>
       </c>
     </row>
     <row r="33">
@@ -2016,10 +2016,10 @@
         <v>28300</v>
       </c>
       <c r="E33">
-        <v>34714645000</v>
+        <v>32664796900</v>
       </c>
       <c r="F33">
-        <v>52974282000</v>
+        <v>46618244400</v>
       </c>
       <c r="G33">
         <v>760031000</v>
@@ -2028,13 +2028,13 @@
         <v>5046700</v>
       </c>
       <c r="I33">
-        <v>88448958000</v>
+        <v>80043072300</v>
       </c>
       <c r="J33" t="str">
         <v>2023-01-04T10:06:00.000Z</v>
       </c>
       <c r="K33">
-        <v>2908430017000</v>
+        <v>2668698988000</v>
       </c>
       <c r="L33">
         <v>186342500</v>
@@ -2043,13 +2043,13 @@
         <v>795600</v>
       </c>
       <c r="N33">
-        <v>18259637000</v>
+        <v>13953447500</v>
       </c>
       <c r="O33">
         <v>5332300</v>
       </c>
       <c r="P33">
-        <v>161867486000</v>
+        <v>110442662300</v>
       </c>
     </row>
     <row r="34">
@@ -2066,10 +2066,10 @@
         <v>11200</v>
       </c>
       <c r="E34">
-        <v>27038514000</v>
+        <v>25971781800</v>
       </c>
       <c r="F34">
-        <v>38081118000</v>
+        <v>32419285500</v>
       </c>
       <c r="G34">
         <v>137816000</v>
@@ -2078,13 +2078,13 @@
         <v>4282300</v>
       </c>
       <c r="I34">
-        <v>65257448000</v>
+        <v>58528883300</v>
       </c>
       <c r="J34" t="str">
         <v>2023-01-04T10:08:00.000Z</v>
       </c>
       <c r="K34">
-        <v>2973687465000</v>
+        <v>2727227871300</v>
       </c>
       <c r="L34">
         <v>190624800</v>
@@ -2093,13 +2093,13 @@
         <v>785500</v>
       </c>
       <c r="N34">
-        <v>11042604000</v>
+        <v>6447503700</v>
       </c>
       <c r="O34">
         <v>6117800</v>
       </c>
       <c r="P34">
-        <v>172910090000</v>
+        <v>116890166000</v>
       </c>
     </row>
     <row r="35">
@@ -2116,25 +2116,25 @@
         <v>10800</v>
       </c>
       <c r="E35">
-        <v>45001972000</v>
+        <v>42055921000</v>
       </c>
       <c r="F35">
-        <v>25883360000</v>
+        <v>21972075200</v>
       </c>
       <c r="G35">
-        <v>142013000</v>
+        <v>56298800</v>
       </c>
       <c r="H35">
         <v>4495000</v>
       </c>
       <c r="I35">
-        <v>71027345000</v>
+        <v>64084295000</v>
       </c>
       <c r="J35" t="str">
         <v>2023-01-04T10:10:00.000Z</v>
       </c>
       <c r="K35">
-        <v>3044714810000</v>
+        <v>2791312166300</v>
       </c>
       <c r="L35">
         <v>195119800</v>
@@ -2143,13 +2143,13 @@
         <v>-1581800</v>
       </c>
       <c r="N35">
-        <v>-19118612000</v>
+        <v>-20083845800</v>
       </c>
       <c r="O35">
         <v>4536000</v>
       </c>
       <c r="P35">
-        <v>153791478000</v>
+        <v>96806320200</v>
       </c>
     </row>
     <row r="36">
@@ -2166,10 +2166,10 @@
         <v>2200</v>
       </c>
       <c r="E36">
-        <v>24090572000</v>
+        <v>23472590600</v>
       </c>
       <c r="F36">
-        <v>22411152000</v>
+        <v>21579684300</v>
       </c>
       <c r="G36">
         <v>55894000</v>
@@ -2178,13 +2178,13 @@
         <v>3111700</v>
       </c>
       <c r="I36">
-        <v>46557618000</v>
+        <v>45108168900</v>
       </c>
       <c r="J36" t="str">
         <v>2023-01-04T10:12:00.000Z</v>
       </c>
       <c r="K36">
-        <v>3091272428000</v>
+        <v>2836420335200</v>
       </c>
       <c r="L36">
         <v>198231500</v>
@@ -2193,13 +2193,13 @@
         <v>-737700</v>
       </c>
       <c r="N36">
-        <v>-1679420000</v>
+        <v>-1892906300</v>
       </c>
       <c r="O36">
         <v>3798300</v>
       </c>
       <c r="P36">
-        <v>152112058000</v>
+        <v>94913413900</v>
       </c>
     </row>
     <row r="37">
@@ -2216,10 +2216,10 @@
         <v>17100</v>
       </c>
       <c r="E37">
-        <v>24041032000</v>
+        <v>21317458300</v>
       </c>
       <c r="F37">
-        <v>31780345000</v>
+        <v>30537788800</v>
       </c>
       <c r="G37">
         <v>175949000</v>
@@ -2228,13 +2228,13 @@
         <v>3601600</v>
       </c>
       <c r="I37">
-        <v>55997326000</v>
+        <v>52031196100</v>
       </c>
       <c r="J37" t="str">
         <v>2023-01-04T10:14:00.000Z</v>
       </c>
       <c r="K37">
-        <v>3147269754000</v>
+        <v>2888451531300</v>
       </c>
       <c r="L37">
         <v>201833100</v>
@@ -2243,13 +2243,13 @@
         <v>264700</v>
       </c>
       <c r="N37">
-        <v>7739313000</v>
+        <v>9220330500</v>
       </c>
       <c r="O37">
         <v>4063000</v>
       </c>
       <c r="P37">
-        <v>159851371000</v>
+        <v>104133744400</v>
       </c>
     </row>
     <row r="38">
@@ -2266,10 +2266,10 @@
         <v>7000</v>
       </c>
       <c r="E38">
-        <v>35569173000</v>
+        <v>33180164400</v>
       </c>
       <c r="F38">
-        <v>16346933000</v>
+        <v>13800382100</v>
       </c>
       <c r="G38">
         <v>164010000</v>
@@ -2278,13 +2278,13 @@
         <v>2951400</v>
       </c>
       <c r="I38">
-        <v>52080116000</v>
+        <v>47144556500</v>
       </c>
       <c r="J38" t="str">
         <v>2023-01-04T10:16:00.000Z</v>
       </c>
       <c r="K38">
-        <v>3199349870000</v>
+        <v>2935596087800</v>
       </c>
       <c r="L38">
         <v>204784500</v>
@@ -2293,13 +2293,13 @@
         <v>-1120200</v>
       </c>
       <c r="N38">
-        <v>-19222240000</v>
+        <v>-19379782300</v>
       </c>
       <c r="O38">
         <v>2942800</v>
       </c>
       <c r="P38">
-        <v>140629131000</v>
+        <v>84753962100</v>
       </c>
     </row>
     <row r="39">
@@ -2316,25 +2316,25 @@
         <v>23800</v>
       </c>
       <c r="E39">
-        <v>29948528000</v>
+        <v>27896082500</v>
       </c>
       <c r="F39">
-        <v>13587272000</v>
+        <v>12885574400</v>
       </c>
       <c r="G39">
-        <v>500390000</v>
+        <v>484206200</v>
       </c>
       <c r="H39">
         <v>2493100</v>
       </c>
       <c r="I39">
-        <v>44036190000</v>
+        <v>41265863100</v>
       </c>
       <c r="J39" t="str">
         <v>2023-01-04T10:18:00.000Z</v>
       </c>
       <c r="K39">
-        <v>3243386060000</v>
+        <v>2976861950900</v>
       </c>
       <c r="L39">
         <v>207277600</v>
@@ -2343,13 +2343,13 @@
         <v>-955500</v>
       </c>
       <c r="N39">
-        <v>-16361256000</v>
+        <v>-15010508100</v>
       </c>
       <c r="O39">
         <v>1987300</v>
       </c>
       <c r="P39">
-        <v>124267875000</v>
+        <v>69743454000</v>
       </c>
     </row>
     <row r="40">
@@ -2366,25 +2366,25 @@
         <v>6500</v>
       </c>
       <c r="E40">
-        <v>48115913000</v>
+        <v>47372457200</v>
       </c>
       <c r="F40">
-        <v>21203941000</v>
+        <v>19325321500</v>
       </c>
       <c r="G40">
-        <v>133370000</v>
+        <v>92211200</v>
       </c>
       <c r="H40">
         <v>5117500</v>
       </c>
       <c r="I40">
-        <v>69453224000</v>
+        <v>66789989900</v>
       </c>
       <c r="J40" t="str">
         <v>2023-01-04T10:20:00.000Z</v>
       </c>
       <c r="K40">
-        <v>3312839284000</v>
+        <v>3043651940800</v>
       </c>
       <c r="L40">
         <v>212395100</v>
@@ -2393,13 +2393,13 @@
         <v>-2616000</v>
       </c>
       <c r="N40">
-        <v>-26911972000</v>
+        <v>-28047135700</v>
       </c>
       <c r="O40">
         <v>-628700</v>
       </c>
       <c r="P40">
-        <v>97355903000</v>
+        <v>41696318300</v>
       </c>
     </row>
     <row r="41">
@@ -2416,25 +2416,25 @@
         <v>50200</v>
       </c>
       <c r="E41">
-        <v>43868086000</v>
+        <v>37126034800</v>
       </c>
       <c r="F41">
-        <v>15189115000</v>
+        <v>14215389700</v>
       </c>
       <c r="G41">
-        <v>928038000</v>
+        <v>142224600</v>
       </c>
       <c r="H41">
         <v>3789700</v>
       </c>
       <c r="I41">
-        <v>59985239000</v>
+        <v>51483649100</v>
       </c>
       <c r="J41" t="str">
         <v>2023-01-04T10:22:00.000Z</v>
       </c>
       <c r="K41">
-        <v>3372824523000</v>
+        <v>3095135589900</v>
       </c>
       <c r="L41">
         <v>216184800</v>
@@ -2443,13 +2443,13 @@
         <v>-1884300</v>
       </c>
       <c r="N41">
-        <v>-28678971000</v>
+        <v>-22910645100</v>
       </c>
       <c r="O41">
         <v>-2513000</v>
       </c>
       <c r="P41">
-        <v>68676932000</v>
+        <v>18785673200</v>
       </c>
     </row>
     <row r="42">
@@ -2466,10 +2466,10 @@
         <v>84900</v>
       </c>
       <c r="E42">
-        <v>37950119000</v>
+        <v>33957515600</v>
       </c>
       <c r="F42">
-        <v>23186085000</v>
+        <v>21250322700</v>
       </c>
       <c r="G42">
         <v>930302000</v>
@@ -2478,13 +2478,13 @@
         <v>3577200</v>
       </c>
       <c r="I42">
-        <v>62066506000</v>
+        <v>56138140300</v>
       </c>
       <c r="J42" t="str">
         <v>2023-01-04T10:24:00.000Z</v>
       </c>
       <c r="K42">
-        <v>3434891029000</v>
+        <v>3151273730200</v>
       </c>
       <c r="L42">
         <v>219762000</v>
@@ -2493,13 +2493,13 @@
         <v>-814900</v>
       </c>
       <c r="N42">
-        <v>-14764034000</v>
+        <v>-12707192900</v>
       </c>
       <c r="O42">
         <v>-3327900</v>
       </c>
       <c r="P42">
-        <v>53912898000</v>
+        <v>6078480300</v>
       </c>
     </row>
     <row r="43">
@@ -2516,10 +2516,10 @@
         <v>55400</v>
       </c>
       <c r="E43">
-        <v>23201654000</v>
+        <v>21794762300</v>
       </c>
       <c r="F43">
-        <v>33624322000</v>
+        <v>28914037000</v>
       </c>
       <c r="G43">
         <v>1257449000</v>
@@ -2528,13 +2528,13 @@
         <v>3349800</v>
       </c>
       <c r="I43">
-        <v>58083425000</v>
+        <v>51966248300</v>
       </c>
       <c r="J43" t="str">
         <v>2023-01-04T10:26:00.000Z</v>
       </c>
       <c r="K43">
-        <v>3492974454000</v>
+        <v>3203239978500</v>
       </c>
       <c r="L43">
         <v>223111800</v>
@@ -2543,13 +2543,13 @@
         <v>66200</v>
       </c>
       <c r="N43">
-        <v>10422668000</v>
+        <v>7119274700</v>
       </c>
       <c r="O43">
         <v>-3261700</v>
       </c>
       <c r="P43">
-        <v>64335566000</v>
+        <v>13197755000</v>
       </c>
     </row>
     <row r="44">
@@ -2566,10 +2566,10 @@
         <v>7000</v>
       </c>
       <c r="E44">
-        <v>20782751000</v>
+        <v>17880256400</v>
       </c>
       <c r="F44">
-        <v>51750378000</v>
+        <v>49430799900</v>
       </c>
       <c r="G44">
         <v>40368000</v>
@@ -2578,13 +2578,13 @@
         <v>3872100</v>
       </c>
       <c r="I44">
-        <v>72573497000</v>
+        <v>67351424300</v>
       </c>
       <c r="J44" t="str">
         <v>2023-01-04T10:28:00.000Z</v>
       </c>
       <c r="K44">
-        <v>3565547951000</v>
+        <v>3270591402800</v>
       </c>
       <c r="L44">
         <v>226983900</v>
@@ -2593,13 +2593,13 @@
         <v>1453900</v>
       </c>
       <c r="N44">
-        <v>30967627000</v>
+        <v>31550543500</v>
       </c>
       <c r="O44">
         <v>-1807800</v>
       </c>
       <c r="P44">
-        <v>95303193000</v>
+        <v>44748298500</v>
       </c>
     </row>
     <row r="45">
@@ -2616,10 +2616,10 @@
         <v>39600</v>
       </c>
       <c r="E45">
-        <v>20208346000</v>
+        <v>19334121100</v>
       </c>
       <c r="F45">
-        <v>39547814000</v>
+        <v>36883680800</v>
       </c>
       <c r="G45">
         <v>976773000</v>
@@ -2628,13 +2628,13 @@
         <v>3301000</v>
       </c>
       <c r="I45">
-        <v>60732933000</v>
+        <v>57194574900</v>
       </c>
       <c r="J45" t="str">
         <v>2023-01-04T10:30:00.000Z</v>
       </c>
       <c r="K45">
-        <v>3626280884000</v>
+        <v>3327785977700</v>
       </c>
       <c r="L45">
         <v>230284900</v>
@@ -2643,13 +2643,13 @@
         <v>1023600</v>
       </c>
       <c r="N45">
-        <v>19339468000</v>
+        <v>17549559700</v>
       </c>
       <c r="O45">
         <v>-784200</v>
       </c>
       <c r="P45">
-        <v>114642661000</v>
+        <v>62297858200</v>
       </c>
     </row>
     <row r="46">
@@ -2666,10 +2666,10 @@
         <v>9100</v>
       </c>
       <c r="E46">
-        <v>15347568000</v>
+        <v>15012603300</v>
       </c>
       <c r="F46">
-        <v>55613928000</v>
+        <v>52681763100</v>
       </c>
       <c r="G46">
         <v>45230000</v>
@@ -2678,13 +2678,13 @@
         <v>3921700</v>
       </c>
       <c r="I46">
-        <v>71006726000</v>
+        <v>67739596400</v>
       </c>
       <c r="J46" t="str">
         <v>2023-01-04T10:32:00.000Z</v>
       </c>
       <c r="K46">
-        <v>3697287610000</v>
+        <v>3395525574100</v>
       </c>
       <c r="L46">
         <v>234206600</v>
@@ -2693,13 +2693,13 @@
         <v>2138000</v>
       </c>
       <c r="N46">
-        <v>40266360000</v>
+        <v>37669159800</v>
       </c>
       <c r="O46">
         <v>1353800</v>
       </c>
       <c r="P46">
-        <v>154909021000</v>
+        <v>99967018000</v>
       </c>
     </row>
     <row r="47">
@@ -2716,25 +2716,25 @@
         <v>23600</v>
       </c>
       <c r="E47">
-        <v>15040091000</v>
+        <v>13785147200</v>
       </c>
       <c r="F47">
-        <v>29242677000</v>
+        <v>24010714200</v>
       </c>
       <c r="G47">
-        <v>493814000</v>
+        <v>442565300</v>
       </c>
       <c r="H47">
         <v>2626800</v>
       </c>
       <c r="I47">
-        <v>44776582000</v>
+        <v>38238426700</v>
       </c>
       <c r="J47" t="str">
         <v>2023-01-04T10:34:00.000Z</v>
       </c>
       <c r="K47">
-        <v>3742064192000</v>
+        <v>3433764000800</v>
       </c>
       <c r="L47">
         <v>236833400</v>
@@ -2743,13 +2743,13 @@
         <v>831000</v>
       </c>
       <c r="N47">
-        <v>14202586000</v>
+        <v>10225567000</v>
       </c>
       <c r="O47">
         <v>2184800</v>
       </c>
       <c r="P47">
-        <v>169111607000</v>
+        <v>110192585000</v>
       </c>
     </row>
     <row r="48">
@@ -2766,25 +2766,25 @@
         <v>23400</v>
       </c>
       <c r="E48">
-        <v>23269402000</v>
+        <v>21867904900</v>
       </c>
       <c r="F48">
-        <v>49416857000</v>
+        <v>41595086600</v>
       </c>
       <c r="G48">
-        <v>379894000</v>
+        <v>368905000</v>
       </c>
       <c r="H48">
         <v>3773700</v>
       </c>
       <c r="I48">
-        <v>73066153000</v>
+        <v>63831896500</v>
       </c>
       <c r="J48" t="str">
         <v>2023-01-04T10:36:00.000Z</v>
       </c>
       <c r="K48">
-        <v>3815130345000</v>
+        <v>3497595897300</v>
       </c>
       <c r="L48">
         <v>240607100</v>
@@ -2793,13 +2793,13 @@
         <v>1064700</v>
       </c>
       <c r="N48">
-        <v>26147455000</v>
+        <v>19727181700</v>
       </c>
       <c r="O48">
         <v>3249500</v>
       </c>
       <c r="P48">
-        <v>195259062000</v>
+        <v>129919766700</v>
       </c>
     </row>
     <row r="49">
@@ -2816,10 +2816,10 @@
         <v>21900</v>
       </c>
       <c r="E49">
-        <v>18124604000</v>
+        <v>16569860300</v>
       </c>
       <c r="F49">
-        <v>55606200000</v>
+        <v>33479548800</v>
       </c>
       <c r="G49">
         <v>110750000</v>
@@ -2828,13 +2828,13 @@
         <v>3800500</v>
       </c>
       <c r="I49">
-        <v>73841554000</v>
+        <v>50160159100</v>
       </c>
       <c r="J49" t="str">
         <v>2023-01-04T10:38:00.000Z</v>
       </c>
       <c r="K49">
-        <v>3888971899000</v>
+        <v>3547756056400</v>
       </c>
       <c r="L49">
         <v>244407600</v>
@@ -2843,13 +2843,13 @@
         <v>1522800</v>
       </c>
       <c r="N49">
-        <v>37481596000</v>
+        <v>16909688500</v>
       </c>
       <c r="O49">
         <v>4772300</v>
       </c>
       <c r="P49">
-        <v>232740658000</v>
+        <v>146829455200</v>
       </c>
     </row>
     <row r="50">
@@ -2866,10 +2866,10 @@
         <v>17600</v>
       </c>
       <c r="E50">
-        <v>31582455000</v>
+        <v>25779363900</v>
       </c>
       <c r="F50">
-        <v>60007839000</v>
+        <v>52575279000</v>
       </c>
       <c r="G50">
         <v>224342000</v>
@@ -2878,13 +2878,13 @@
         <v>5253600</v>
       </c>
       <c r="I50">
-        <v>91814636000</v>
+        <v>78578984900</v>
       </c>
       <c r="J50" t="str">
         <v>2023-01-04T10:40:00.000Z</v>
       </c>
       <c r="K50">
-        <v>3980786535000</v>
+        <v>3626335041300</v>
       </c>
       <c r="L50">
         <v>249661200</v>
@@ -2893,13 +2893,13 @@
         <v>1728000</v>
       </c>
       <c r="N50">
-        <v>28425384000</v>
+        <v>26795915100</v>
       </c>
       <c r="O50">
         <v>6500300</v>
       </c>
       <c r="P50">
-        <v>261166042000</v>
+        <v>173625370300</v>
       </c>
     </row>
     <row r="51">
@@ -2916,25 +2916,25 @@
         <v>2500</v>
       </c>
       <c r="E51">
-        <v>26497459000</v>
+        <v>24834723400</v>
       </c>
       <c r="F51">
-        <v>56571329000</v>
+        <v>54621081200</v>
       </c>
       <c r="G51">
-        <v>34620000</v>
+        <v>25029600</v>
       </c>
       <c r="H51">
         <v>4722700</v>
       </c>
       <c r="I51">
-        <v>83103408000</v>
+        <v>79480834200</v>
       </c>
       <c r="J51" t="str">
         <v>2023-01-04T10:42:00.000Z</v>
       </c>
       <c r="K51">
-        <v>4063889943000</v>
+        <v>3705815875500</v>
       </c>
       <c r="L51">
         <v>254383900</v>
@@ -2943,13 +2943,13 @@
         <v>1726200</v>
       </c>
       <c r="N51">
-        <v>30073870000</v>
+        <v>29786357800</v>
       </c>
       <c r="O51">
         <v>8226500</v>
       </c>
       <c r="P51">
-        <v>291239912000</v>
+        <v>203411728100</v>
       </c>
     </row>
     <row r="52">
@@ -2966,25 +2966,25 @@
         <v>2000</v>
       </c>
       <c r="E52">
-        <v>27942543000</v>
+        <v>24915772800</v>
       </c>
       <c r="F52">
-        <v>36168126000</v>
+        <v>35367727200</v>
       </c>
       <c r="G52">
-        <v>31146000</v>
+        <v>24752400</v>
       </c>
       <c r="H52">
         <v>3536700</v>
       </c>
       <c r="I52">
-        <v>64141815000</v>
+        <v>60308252400</v>
       </c>
       <c r="J52" t="str">
         <v>2023-01-04T10:44:00.000Z</v>
       </c>
       <c r="K52">
-        <v>4128031758000</v>
+        <v>3766124127900</v>
       </c>
       <c r="L52">
         <v>257920600</v>
@@ -2993,13 +2993,13 @@
         <v>416500</v>
       </c>
       <c r="N52">
-        <v>8225583000</v>
+        <v>10451954400</v>
       </c>
       <c r="O52">
         <v>8643000</v>
       </c>
       <c r="P52">
-        <v>299465495000</v>
+        <v>213863682500</v>
       </c>
     </row>
     <row r="53">
@@ -3016,10 +3016,10 @@
         <v>2900</v>
       </c>
       <c r="E53">
-        <v>31137084000</v>
+        <v>30198423600</v>
       </c>
       <c r="F53">
-        <v>26987256000</v>
+        <v>25673271300</v>
       </c>
       <c r="G53">
         <v>31640000</v>
@@ -3028,13 +3028,13 @@
         <v>3033100</v>
       </c>
       <c r="I53">
-        <v>58155980000</v>
+        <v>55903334900</v>
       </c>
       <c r="J53" t="str">
         <v>2023-01-04T10:46:00.000Z</v>
       </c>
       <c r="K53">
-        <v>4186187738000</v>
+        <v>3822027462800</v>
       </c>
       <c r="L53">
         <v>260953700</v>
@@ -3043,13 +3043,13 @@
         <v>-321000</v>
       </c>
       <c r="N53">
-        <v>-4149828000</v>
+        <v>-4525152300</v>
       </c>
       <c r="O53">
         <v>8322000</v>
       </c>
       <c r="P53">
-        <v>295315667000</v>
+        <v>209338530200</v>
       </c>
     </row>
     <row r="54">
@@ -3066,25 +3066,25 @@
         <v>33000</v>
       </c>
       <c r="E54">
-        <v>33217910000</v>
+        <v>30936893300</v>
       </c>
       <c r="F54">
-        <v>28029313000</v>
+        <v>26528715100</v>
       </c>
       <c r="G54">
-        <v>977545000</v>
+        <v>869653000</v>
       </c>
       <c r="H54">
         <v>3266400</v>
       </c>
       <c r="I54">
-        <v>62224768000</v>
+        <v>58335261400</v>
       </c>
       <c r="J54" t="str">
         <v>2023-01-04T10:48:00.000Z</v>
       </c>
       <c r="K54">
-        <v>4248412506000</v>
+        <v>3880362724200</v>
       </c>
       <c r="L54">
         <v>264220100</v>
@@ -3093,13 +3093,13 @@
         <v>-326400</v>
       </c>
       <c r="N54">
-        <v>-5188597000</v>
+        <v>-4408178200</v>
       </c>
       <c r="O54">
         <v>7995600</v>
       </c>
       <c r="P54">
-        <v>290127070000</v>
+        <v>204930352000</v>
       </c>
     </row>
     <row r="55">
@@ -3116,25 +3116,25 @@
         <v>9000</v>
       </c>
       <c r="E55">
-        <v>29574530000</v>
+        <v>28745260100</v>
       </c>
       <c r="F55">
-        <v>23973438000</v>
+        <v>23261151000</v>
       </c>
       <c r="G55">
-        <v>221025000</v>
+        <v>214631400</v>
       </c>
       <c r="H55">
         <v>3098500</v>
       </c>
       <c r="I55">
-        <v>53768993000</v>
+        <v>52221042500</v>
       </c>
       <c r="J55" t="str">
         <v>2023-01-04T10:50:00.000Z</v>
       </c>
       <c r="K55">
-        <v>4302181499000</v>
+        <v>3932583766700</v>
       </c>
       <c r="L55">
         <v>267318600</v>
@@ -3143,13 +3143,13 @@
         <v>-285900</v>
       </c>
       <c r="N55">
-        <v>-5601092000</v>
+        <v>-5484109100</v>
       </c>
       <c r="O55">
         <v>7709700</v>
       </c>
       <c r="P55">
-        <v>284525978000</v>
+        <v>199446242900</v>
       </c>
     </row>
     <row r="56">
@@ -3166,25 +3166,25 @@
         <v>2300</v>
       </c>
       <c r="E56">
-        <v>22740713000</v>
+        <v>22096158200</v>
       </c>
       <c r="F56">
-        <v>36816574000</v>
+        <v>36296194900</v>
       </c>
       <c r="G56">
-        <v>43900000</v>
+        <v>42501400</v>
       </c>
       <c r="H56">
         <v>3545200</v>
       </c>
       <c r="I56">
-        <v>59601187000</v>
+        <v>58434854500</v>
       </c>
       <c r="J56" t="str">
         <v>2023-01-04T10:52:00.000Z</v>
       </c>
       <c r="K56">
-        <v>4361782686000</v>
+        <v>3991018621200</v>
       </c>
       <c r="L56">
         <v>270863800</v>
@@ -3193,13 +3193,13 @@
         <v>10900</v>
       </c>
       <c r="N56">
-        <v>14075861000</v>
+        <v>14200036700</v>
       </c>
       <c r="O56">
         <v>7720600</v>
       </c>
       <c r="P56">
-        <v>298601839000</v>
+        <v>213646279600</v>
       </c>
     </row>
     <row r="57">
@@ -3216,10 +3216,10 @@
         <v>4200</v>
       </c>
       <c r="E57">
-        <v>16751627000</v>
+        <v>16589389400</v>
       </c>
       <c r="F57">
-        <v>31067528000</v>
+        <v>28682915000</v>
       </c>
       <c r="G57">
         <v>46672000</v>
@@ -3228,13 +3228,13 @@
         <v>2731400</v>
       </c>
       <c r="I57">
-        <v>47865827000</v>
+        <v>45318976400</v>
       </c>
       <c r="J57" t="str">
         <v>2023-01-04T10:54:00.000Z</v>
       </c>
       <c r="K57">
-        <v>4409648513000</v>
+        <v>4036337597600</v>
       </c>
       <c r="L57">
         <v>273595200</v>
@@ -3243,13 +3243,13 @@
         <v>769600</v>
       </c>
       <c r="N57">
-        <v>14315901000</v>
+        <v>12093525600</v>
       </c>
       <c r="O57">
         <v>8490200</v>
       </c>
       <c r="P57">
-        <v>312917740000</v>
+        <v>225739805200</v>
       </c>
     </row>
     <row r="58">
@@ -3266,25 +3266,25 @@
         <v>4000</v>
       </c>
       <c r="E58">
-        <v>29714280000</v>
+        <v>27327768900</v>
       </c>
       <c r="F58">
-        <v>19352145000</v>
+        <v>18678918900</v>
       </c>
       <c r="G58">
-        <v>48715000</v>
+        <v>30133600</v>
       </c>
       <c r="H58">
         <v>2745500</v>
       </c>
       <c r="I58">
-        <v>49115140000</v>
+        <v>46036821400</v>
       </c>
       <c r="J58" t="str">
         <v>2023-01-04T10:56:00.000Z</v>
       </c>
       <c r="K58">
-        <v>4458763653000</v>
+        <v>4082374419000</v>
       </c>
       <c r="L58">
         <v>276340700</v>
@@ -3293,13 +3293,13 @@
         <v>-673100</v>
       </c>
       <c r="N58">
-        <v>-10362135000</v>
+        <v>-8648850000</v>
       </c>
       <c r="O58">
         <v>7817100</v>
       </c>
       <c r="P58">
-        <v>302555605000</v>
+        <v>217090955200</v>
       </c>
     </row>
     <row r="59">
@@ -3316,25 +3316,25 @@
         <v>44100</v>
       </c>
       <c r="E59">
-        <v>39926358000</v>
+        <v>36718469100</v>
       </c>
       <c r="F59">
-        <v>13087595000</v>
+        <v>12397785500</v>
       </c>
       <c r="G59">
-        <v>942745000</v>
+        <v>936751000</v>
       </c>
       <c r="H59">
         <v>3001600</v>
       </c>
       <c r="I59">
-        <v>53956698000</v>
+        <v>50053005600</v>
       </c>
       <c r="J59" t="str">
         <v>2023-01-04T10:58:00.000Z</v>
       </c>
       <c r="K59">
-        <v>4512720351000</v>
+        <v>4132427424600</v>
       </c>
       <c r="L59">
         <v>279342300</v>
@@ -3343,13 +3343,13 @@
         <v>-1469700</v>
       </c>
       <c r="N59">
-        <v>-26838763000</v>
+        <v>-24320683600</v>
       </c>
       <c r="O59">
         <v>6347400</v>
       </c>
       <c r="P59">
-        <v>275716842000</v>
+        <v>192770271600</v>
       </c>
     </row>
     <row r="60">
@@ -3366,10 +3366,10 @@
         <v>6000</v>
       </c>
       <c r="E60">
-        <v>67820915000</v>
+        <v>62408932400</v>
       </c>
       <c r="F60">
-        <v>9155706000</v>
+        <v>8461700700</v>
       </c>
       <c r="G60">
         <v>161817000</v>
@@ -3378,13 +3378,13 @@
         <v>4507400</v>
       </c>
       <c r="I60">
-        <v>77138438000</v>
+        <v>71032450100</v>
       </c>
       <c r="J60" t="str">
         <v>2023-01-04T11:00:00.000Z</v>
       </c>
       <c r="K60">
-        <v>4589858789000</v>
+        <v>4203459874700</v>
       </c>
       <c r="L60">
         <v>283849700</v>
@@ -3393,13 +3393,13 @@
         <v>-3205400</v>
       </c>
       <c r="N60">
-        <v>-58665209000</v>
+        <v>-53947231700</v>
       </c>
       <c r="O60">
         <v>3142000</v>
       </c>
       <c r="P60">
-        <v>217051633000</v>
+        <v>138823039900</v>
       </c>
     </row>
     <row r="61">
@@ -3416,10 +3416,10 @@
         <v>14300</v>
       </c>
       <c r="E61">
-        <v>43464875000</v>
+        <v>39859683800</v>
       </c>
       <c r="F61">
-        <v>16060944000</v>
+        <v>13691116200</v>
       </c>
       <c r="G61">
         <v>881586000</v>
@@ -3428,13 +3428,13 @@
         <v>3223000</v>
       </c>
       <c r="I61">
-        <v>60407405000</v>
+        <v>54432386000</v>
       </c>
       <c r="J61" t="str">
         <v>2023-01-04T11:02:00.000Z</v>
       </c>
       <c r="K61">
-        <v>4650266194000</v>
+        <v>4257892260700</v>
       </c>
       <c r="L61">
         <v>287072700</v>
@@ -3443,13 +3443,13 @@
         <v>-1452700</v>
       </c>
       <c r="N61">
-        <v>-27403931000</v>
+        <v>-26168567600</v>
       </c>
       <c r="O61">
         <v>1689300</v>
       </c>
       <c r="P61">
-        <v>189647702000</v>
+        <v>112654472300</v>
       </c>
     </row>
     <row r="62">
@@ -3466,25 +3466,25 @@
         <v>5800</v>
       </c>
       <c r="E62">
-        <v>21924214000</v>
+        <v>21154484500</v>
       </c>
       <c r="F62">
-        <v>16296696000</v>
+        <v>14781612600</v>
       </c>
       <c r="G62">
-        <v>78745000</v>
+        <v>73150600</v>
       </c>
       <c r="H62">
         <v>2271500</v>
       </c>
       <c r="I62">
-        <v>38299655000</v>
+        <v>36009247700</v>
       </c>
       <c r="J62" t="str">
         <v>2023-01-04T11:04:00.000Z</v>
       </c>
       <c r="K62">
-        <v>4688565849000</v>
+        <v>4293901508400</v>
       </c>
       <c r="L62">
         <v>289344200</v>
@@ -3493,13 +3493,13 @@
         <v>-550500</v>
       </c>
       <c r="N62">
-        <v>-5627518000</v>
+        <v>-6372871900</v>
       </c>
       <c r="O62">
         <v>1138800</v>
       </c>
       <c r="P62">
-        <v>184020184000</v>
+        <v>106281600400</v>
       </c>
     </row>
     <row r="63">
@@ -3516,10 +3516,10 @@
         <v>16400</v>
       </c>
       <c r="E63">
-        <v>16954268000</v>
+        <v>15970552700</v>
       </c>
       <c r="F63">
-        <v>8720670000</v>
+        <v>8094496800</v>
       </c>
       <c r="G63">
         <v>363795000</v>
@@ -3528,13 +3528,13 @@
         <v>1526200</v>
       </c>
       <c r="I63">
-        <v>26038733000</v>
+        <v>24428844500</v>
       </c>
       <c r="J63" t="str">
         <v>2023-01-04T11:06:00.000Z</v>
       </c>
       <c r="K63">
-        <v>4714604582000</v>
+        <v>4318330352900</v>
       </c>
       <c r="L63">
         <v>290870400</v>
@@ -3543,13 +3543,13 @@
         <v>-549800</v>
       </c>
       <c r="N63">
-        <v>-8233598000</v>
+        <v>-7876055900</v>
       </c>
       <c r="O63">
         <v>589000</v>
       </c>
       <c r="P63">
-        <v>175786586000</v>
+        <v>98405544500</v>
       </c>
     </row>
     <row r="64">
@@ -3566,25 +3566,25 @@
         <v>9000</v>
       </c>
       <c r="E64">
-        <v>23896738000</v>
+        <v>22688347600</v>
       </c>
       <c r="F64">
-        <v>12743724000</v>
+        <v>12518149800</v>
       </c>
       <c r="G64">
-        <v>282229000</v>
+        <v>138273100</v>
       </c>
       <c r="H64">
         <v>1936600</v>
       </c>
       <c r="I64">
-        <v>36922691000</v>
+        <v>35344770500</v>
       </c>
       <c r="J64" t="str">
         <v>2023-01-04T11:08:00.000Z</v>
       </c>
       <c r="K64">
-        <v>4751527273000</v>
+        <v>4353675123400</v>
       </c>
       <c r="L64">
         <v>292807000</v>
@@ -3593,13 +3593,13 @@
         <v>-578400</v>
       </c>
       <c r="N64">
-        <v>-11153014000</v>
+        <v>-10170197800</v>
       </c>
       <c r="O64">
         <v>10600</v>
       </c>
       <c r="P64">
-        <v>164633572000</v>
+        <v>88235346700</v>
       </c>
     </row>
     <row r="65">
@@ -3616,10 +3616,10 @@
         <v>6600</v>
       </c>
       <c r="E65">
-        <v>30601125000</v>
+        <v>29934592200</v>
       </c>
       <c r="F65">
-        <v>13016582000</v>
+        <v>12853745000</v>
       </c>
       <c r="G65">
         <v>164850000</v>
@@ -3628,13 +3628,13 @@
         <v>2902100</v>
       </c>
       <c r="I65">
-        <v>43782557000</v>
+        <v>42953187200</v>
       </c>
       <c r="J65" t="str">
         <v>2023-01-04T11:10:00.000Z</v>
       </c>
       <c r="K65">
-        <v>4795309830000</v>
+        <v>4396628310600</v>
       </c>
       <c r="L65">
         <v>295709100</v>
@@ -3643,13 +3643,13 @@
         <v>-1068500</v>
       </c>
       <c r="N65">
-        <v>-17584543000</v>
+        <v>-17080847200</v>
       </c>
       <c r="O65">
         <v>-1057900</v>
       </c>
       <c r="P65">
-        <v>147049029000</v>
+        <v>71154499500</v>
       </c>
     </row>
     <row r="66">
@@ -3666,10 +3666,10 @@
         <v>1700</v>
       </c>
       <c r="E66">
-        <v>22537706000</v>
+        <v>22385957900</v>
       </c>
       <c r="F66">
-        <v>12673282000</v>
+        <v>11939316700</v>
       </c>
       <c r="G66">
         <v>30789000</v>
@@ -3678,13 +3678,13 @@
         <v>2420400</v>
       </c>
       <c r="I66">
-        <v>35241777000</v>
+        <v>34356063600</v>
       </c>
       <c r="J66" t="str">
         <v>2023-01-04T11:12:00.000Z</v>
       </c>
       <c r="K66">
-        <v>4830551607000</v>
+        <v>4430984374200</v>
       </c>
       <c r="L66">
         <v>298129500</v>
@@ -3693,13 +3693,13 @@
         <v>-879300</v>
       </c>
       <c r="N66">
-        <v>-9864424000</v>
+        <v>-10446641200</v>
       </c>
       <c r="O66">
         <v>-1937200</v>
       </c>
       <c r="P66">
-        <v>137184605000</v>
+        <v>60707858300</v>
       </c>
     </row>
     <row r="67">
@@ -3716,10 +3716,10 @@
         <v>2900</v>
       </c>
       <c r="E67">
-        <v>16736421000</v>
+        <v>16447610100</v>
       </c>
       <c r="F67">
-        <v>19025896000</v>
+        <v>17671651600</v>
       </c>
       <c r="G67">
         <v>105203000</v>
@@ -3728,13 +3728,13 @@
         <v>2427000</v>
       </c>
       <c r="I67">
-        <v>35867520000</v>
+        <v>34224464700</v>
       </c>
       <c r="J67" t="str">
         <v>2023-01-04T11:14:00.000Z</v>
       </c>
       <c r="K67">
-        <v>4866419127000</v>
+        <v>4465208838900</v>
       </c>
       <c r="L67">
         <v>300556500</v>
@@ -3743,13 +3743,13 @@
         <v>-417500</v>
       </c>
       <c r="N67">
-        <v>2289475000</v>
+        <v>1224041500</v>
       </c>
       <c r="O67">
         <v>-2354700</v>
       </c>
       <c r="P67">
-        <v>139474080000</v>
+        <v>61931899800</v>
       </c>
     </row>
     <row r="68">
@@ -3766,10 +3766,10 @@
         <v>17400</v>
       </c>
       <c r="E68">
-        <v>34931022000</v>
+        <v>33736517700</v>
       </c>
       <c r="F68">
-        <v>10961147000</v>
+        <v>10473535100</v>
       </c>
       <c r="G68">
         <v>166873000</v>
@@ -3778,13 +3778,13 @@
         <v>2483100</v>
       </c>
       <c r="I68">
-        <v>46059042000</v>
+        <v>44376925800</v>
       </c>
       <c r="J68" t="str">
         <v>2023-01-04T11:16:00.000Z</v>
       </c>
       <c r="K68">
-        <v>4912478169000</v>
+        <v>4509585764700</v>
       </c>
       <c r="L68">
         <v>303039600</v>
@@ -3793,13 +3793,13 @@
         <v>-1163500</v>
       </c>
       <c r="N68">
-        <v>-23969875000</v>
+        <v>-23262982600</v>
       </c>
       <c r="O68">
         <v>-3518200</v>
       </c>
       <c r="P68">
-        <v>115504205000</v>
+        <v>38668917200</v>
       </c>
     </row>
     <row r="69">
@@ -3816,10 +3816,10 @@
         <v>11400</v>
       </c>
       <c r="E69">
-        <v>35933228000</v>
+        <v>34180982000</v>
       </c>
       <c r="F69">
-        <v>8989303000</v>
+        <v>7072421800</v>
       </c>
       <c r="G69">
         <v>159117000</v>
@@ -3828,13 +3828,13 @@
         <v>2478000</v>
       </c>
       <c r="I69">
-        <v>45081648000</v>
+        <v>41412520800</v>
       </c>
       <c r="J69" t="str">
         <v>2023-01-04T11:18:00.000Z</v>
       </c>
       <c r="K69">
-        <v>4957559817000</v>
+        <v>4550998285500</v>
       </c>
       <c r="L69">
         <v>305517600</v>
@@ -3843,13 +3843,13 @@
         <v>-1580000</v>
       </c>
       <c r="N69">
-        <v>-26943925000</v>
+        <v>-27108560200</v>
       </c>
       <c r="O69">
         <v>-5098200</v>
       </c>
       <c r="P69">
-        <v>88560280000</v>
+        <v>11560357000</v>
       </c>
     </row>
     <row r="70">
@@ -3866,10 +3866,10 @@
         <v>8500</v>
       </c>
       <c r="E70">
-        <v>22574001000</v>
+        <v>19867909800</v>
       </c>
       <c r="F70">
-        <v>12604346000</v>
+        <v>11804346800</v>
       </c>
       <c r="G70">
         <v>109709000</v>
@@ -3878,13 +3878,13 @@
         <v>2297700</v>
       </c>
       <c r="I70">
-        <v>35288056000</v>
+        <v>31781965600</v>
       </c>
       <c r="J70" t="str">
         <v>2023-01-04T11:20:00.000Z</v>
       </c>
       <c r="K70">
-        <v>4992847873000</v>
+        <v>4582780251100</v>
       </c>
       <c r="L70">
         <v>307815300</v>
@@ -3893,13 +3893,13 @@
         <v>-936000</v>
       </c>
       <c r="N70">
-        <v>-9969655000</v>
+        <v>-8063563000</v>
       </c>
       <c r="O70">
         <v>-6034200</v>
       </c>
       <c r="P70">
-        <v>78590625000</v>
+        <v>3496794000</v>
       </c>
     </row>
     <row r="71">
@@ -3916,25 +3916,25 @@
         <v>23300</v>
       </c>
       <c r="E71">
-        <v>29914405000</v>
+        <v>21066761500</v>
       </c>
       <c r="F71">
-        <v>17864118000</v>
+        <v>17428254300</v>
       </c>
       <c r="G71">
-        <v>477015000</v>
+        <v>285306900</v>
       </c>
       <c r="H71">
         <v>2710100</v>
       </c>
       <c r="I71">
-        <v>48255538000</v>
+        <v>38780322700</v>
       </c>
       <c r="J71" t="str">
         <v>2023-01-04T11:22:00.000Z</v>
       </c>
       <c r="K71">
-        <v>5041103411000</v>
+        <v>4621560573800</v>
       </c>
       <c r="L71">
         <v>310525400</v>
@@ -3943,13 +3943,13 @@
         <v>-651000</v>
       </c>
       <c r="N71">
-        <v>-12050287000</v>
+        <v>-3638507200</v>
       </c>
       <c r="O71">
         <v>-6685200</v>
       </c>
       <c r="P71">
-        <v>66540338000</v>
+        <v>-141713200</v>
       </c>
     </row>
     <row r="72">
@@ -3966,10 +3966,10 @@
         <v>3200</v>
       </c>
       <c r="E72">
-        <v>16888626000</v>
+        <v>16666448400</v>
       </c>
       <c r="F72">
-        <v>15759881000</v>
+        <v>15115925600</v>
       </c>
       <c r="G72">
         <v>37370000</v>
@@ -3978,13 +3978,13 @@
         <v>1935700</v>
       </c>
       <c r="I72">
-        <v>32685877000</v>
+        <v>31819744000</v>
       </c>
       <c r="J72" t="str">
         <v>2023-01-04T11:24:00.000Z</v>
       </c>
       <c r="K72">
-        <v>5073789288000</v>
+        <v>4653380317800</v>
       </c>
       <c r="L72">
         <v>312461100</v>
@@ -3993,13 +3993,13 @@
         <v>-281100</v>
       </c>
       <c r="N72">
-        <v>-1128745000</v>
+        <v>-1550522800</v>
       </c>
       <c r="O72">
         <v>-6966300</v>
       </c>
       <c r="P72">
-        <v>65411593000</v>
+        <v>-1692236000</v>
       </c>
     </row>
     <row r="73">
@@ -4016,10 +4016,10 @@
         <v>5000</v>
       </c>
       <c r="E73">
-        <v>22562819000</v>
+        <v>22264217900</v>
       </c>
       <c r="F73">
-        <v>8576443000</v>
+        <v>8283336400</v>
       </c>
       <c r="G73">
         <v>35550000</v>
@@ -4028,13 +4028,13 @@
         <v>2014100</v>
       </c>
       <c r="I73">
-        <v>31174812000</v>
+        <v>30583104300</v>
       </c>
       <c r="J73" t="str">
         <v>2023-01-04T11:26:00.000Z</v>
       </c>
       <c r="K73">
-        <v>5104964100000</v>
+        <v>4683963422100</v>
       </c>
       <c r="L73">
         <v>314475200</v>
@@ -4043,13 +4043,13 @@
         <v>-1106100</v>
       </c>
       <c r="N73">
-        <v>-13986376000</v>
+        <v>-13980881500</v>
       </c>
       <c r="O73">
         <v>-8072400</v>
       </c>
       <c r="P73">
-        <v>51425217000</v>
+        <v>-15673117500</v>
       </c>
     </row>
     <row r="74">
@@ -4066,10 +4066,10 @@
         <v>1300</v>
       </c>
       <c r="E74">
-        <v>18884790000</v>
+        <v>18668506500</v>
       </c>
       <c r="F74">
-        <v>18596046000</v>
+        <v>14930015700</v>
       </c>
       <c r="G74">
         <v>54340000</v>
@@ -4078,13 +4078,13 @@
         <v>2084000</v>
       </c>
       <c r="I74">
-        <v>37535176000</v>
+        <v>33652862200</v>
       </c>
       <c r="J74" t="str">
         <v>2023-01-04T11:28:00.000Z</v>
       </c>
       <c r="K74">
-        <v>5142499276000</v>
+        <v>4717616284300</v>
       </c>
       <c r="L74">
         <v>316559200</v>
@@ -4093,13 +4093,13 @@
         <v>-258900</v>
       </c>
       <c r="N74">
-        <v>-288744000</v>
+        <v>-3738490800</v>
       </c>
       <c r="O74">
         <v>-8331300</v>
       </c>
       <c r="P74">
-        <v>51136473000</v>
+        <v>-19411608300</v>
       </c>
     </row>
     <row r="75">
@@ -4134,7 +4134,7 @@
         <v>2023-01-04T11:30:00.000Z</v>
       </c>
       <c r="K75">
-        <v>5142499900000</v>
+        <v>4717616908300</v>
       </c>
       <c r="L75">
         <v>316559500</v>
@@ -4149,7 +4149,7 @@
         <v>-8331000</v>
       </c>
       <c r="P75">
-        <v>51137097000</v>
+        <v>-19410984300</v>
       </c>
     </row>
     <row r="76">
@@ -4169,7 +4169,7 @@
         <v>652330000</v>
       </c>
       <c r="F76">
-        <v>287545000</v>
+        <v>277155400</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -4178,13 +4178,13 @@
         <v>57800</v>
       </c>
       <c r="I76">
-        <v>939875000</v>
+        <v>929485400</v>
       </c>
       <c r="J76" t="str">
         <v>2023-01-04T12:58:00.000Z</v>
       </c>
       <c r="K76">
-        <v>5143439775000</v>
+        <v>4718546393700</v>
       </c>
       <c r="L76">
         <v>316617300</v>
@@ -4193,13 +4193,13 @@
         <v>-26400</v>
       </c>
       <c r="N76">
-        <v>-364785000</v>
+        <v>-375174600</v>
       </c>
       <c r="O76">
         <v>-8357400</v>
       </c>
       <c r="P76">
-        <v>50772312000</v>
+        <v>-19786158900</v>
       </c>
     </row>
     <row r="77">
@@ -4216,25 +4216,25 @@
         <v>258900</v>
       </c>
       <c r="E77">
-        <v>78860477000</v>
+        <v>75238802300</v>
       </c>
       <c r="F77">
-        <v>38278752000</v>
+        <v>33773062200</v>
       </c>
       <c r="G77">
-        <v>3015530000</v>
+        <v>2932513100</v>
       </c>
       <c r="H77">
         <v>7852600</v>
       </c>
       <c r="I77">
-        <v>120154759000</v>
+        <v>111944377600</v>
       </c>
       <c r="J77" t="str">
         <v>2023-01-04T13:00:00.000Z</v>
       </c>
       <c r="K77">
-        <v>5263594534000</v>
+        <v>4830490771300</v>
       </c>
       <c r="L77">
         <v>324469900</v>
@@ -4243,13 +4243,13 @@
         <v>-2886900</v>
       </c>
       <c r="N77">
-        <v>-40581725000</v>
+        <v>-41465740100</v>
       </c>
       <c r="O77">
         <v>-11244300</v>
       </c>
       <c r="P77">
-        <v>10190587000</v>
+        <v>-61251899000</v>
       </c>
     </row>
     <row r="78">
@@ -4266,10 +4266,10 @@
         <v>11300</v>
       </c>
       <c r="E78">
-        <v>38858702000</v>
+        <v>35201562800</v>
       </c>
       <c r="F78">
-        <v>18079096000</v>
+        <v>13188091900</v>
       </c>
       <c r="G78">
         <v>224094000</v>
@@ -4278,13 +4278,13 @@
         <v>3838000</v>
       </c>
       <c r="I78">
-        <v>57161892000</v>
+        <v>48613748700</v>
       </c>
       <c r="J78" t="str">
         <v>2023-01-04T13:02:00.000Z</v>
       </c>
       <c r="K78">
-        <v>5320756426000</v>
+        <v>4879104520000</v>
       </c>
       <c r="L78">
         <v>328307900</v>
@@ -4293,13 +4293,13 @@
         <v>-1679300</v>
       </c>
       <c r="N78">
-        <v>-20779606000</v>
+        <v>-22013470900</v>
       </c>
       <c r="O78">
         <v>-12923600</v>
       </c>
       <c r="P78">
-        <v>-10589019000</v>
+        <v>-83265369900</v>
       </c>
     </row>
     <row r="79">
@@ -4316,10 +4316,10 @@
         <v>15600</v>
       </c>
       <c r="E79">
-        <v>30348067000</v>
+        <v>29662952800</v>
       </c>
       <c r="F79">
-        <v>27790586000</v>
+        <v>26732744900</v>
       </c>
       <c r="G79">
         <v>306383000</v>
@@ -4328,13 +4328,13 @@
         <v>4016900</v>
       </c>
       <c r="I79">
-        <v>58445036000</v>
+        <v>56702080700</v>
       </c>
       <c r="J79" t="str">
         <v>2023-01-04T13:04:00.000Z</v>
       </c>
       <c r="K79">
-        <v>5379201462000</v>
+        <v>4935806600700</v>
       </c>
       <c r="L79">
         <v>332324800</v>
@@ -4343,13 +4343,13 @@
         <v>-322100</v>
       </c>
       <c r="N79">
-        <v>-2557481000</v>
+        <v>-2930207900</v>
       </c>
       <c r="O79">
         <v>-13245700</v>
       </c>
       <c r="P79">
-        <v>-13146500000</v>
+        <v>-86195577800</v>
       </c>
     </row>
     <row r="80">
@@ -4366,25 +4366,25 @@
         <v>11800</v>
       </c>
       <c r="E80">
-        <v>23397824000</v>
+        <v>22278744200</v>
       </c>
       <c r="F80">
-        <v>28837533000</v>
+        <v>27705666000</v>
       </c>
       <c r="G80">
-        <v>260272000</v>
+        <v>173259100</v>
       </c>
       <c r="H80">
         <v>3029600</v>
       </c>
       <c r="I80">
-        <v>52495629000</v>
+        <v>50157669300</v>
       </c>
       <c r="J80" t="str">
         <v>2023-01-04T13:06:00.000Z</v>
       </c>
       <c r="K80">
-        <v>5431697091000</v>
+        <v>4985964270000</v>
       </c>
       <c r="L80">
         <v>335354400</v>
@@ -4393,13 +4393,13 @@
         <v>177800</v>
       </c>
       <c r="N80">
-        <v>5439709000</v>
+        <v>5426921800</v>
       </c>
       <c r="O80">
         <v>-13067900</v>
       </c>
       <c r="P80">
-        <v>-7706791000</v>
+        <v>-80768656000</v>
       </c>
     </row>
     <row r="81">
@@ -4416,10 +4416,10 @@
         <v>7900</v>
       </c>
       <c r="E81">
-        <v>34503678000</v>
+        <v>34156425600</v>
       </c>
       <c r="F81">
-        <v>24732408000</v>
+        <v>20192852100</v>
       </c>
       <c r="G81">
         <v>144736000</v>
@@ -4428,13 +4428,13 @@
         <v>3849800</v>
       </c>
       <c r="I81">
-        <v>59380822000</v>
+        <v>54494013700</v>
       </c>
       <c r="J81" t="str">
         <v>2023-01-04T13:08:00.000Z</v>
       </c>
       <c r="K81">
-        <v>5491077913000</v>
+        <v>5040458283700</v>
       </c>
       <c r="L81">
         <v>339204200</v>
@@ -4443,13 +4443,13 @@
         <v>-829700</v>
       </c>
       <c r="N81">
-        <v>-9771270000</v>
+        <v>-13963573500</v>
       </c>
       <c r="O81">
         <v>-13897600</v>
       </c>
       <c r="P81">
-        <v>-17478061000</v>
+        <v>-94732229500</v>
       </c>
     </row>
     <row r="82">
@@ -4466,25 +4466,25 @@
         <v>21000</v>
       </c>
       <c r="E82">
-        <v>24055613000</v>
+        <v>23569999100</v>
       </c>
       <c r="F82">
-        <v>23577202000</v>
+        <v>22346334100</v>
       </c>
       <c r="G82">
-        <v>265634000</v>
+        <v>239660000</v>
       </c>
       <c r="H82">
         <v>2780700</v>
       </c>
       <c r="I82">
-        <v>47898449000</v>
+        <v>46155993200</v>
       </c>
       <c r="J82" t="str">
         <v>2023-01-04T13:10:00.000Z</v>
       </c>
       <c r="K82">
-        <v>5538976362000</v>
+        <v>5086614276900</v>
       </c>
       <c r="L82">
         <v>341984900</v>
@@ -4493,13 +4493,13 @@
         <v>-140300</v>
       </c>
       <c r="N82">
-        <v>-478411000</v>
+        <v>-1223665000</v>
       </c>
       <c r="O82">
         <v>-14037900</v>
       </c>
       <c r="P82">
-        <v>-17956472000</v>
+        <v>-95955894500</v>
       </c>
     </row>
     <row r="83">
@@ -4516,10 +4516,10 @@
         <v>7300</v>
       </c>
       <c r="E83">
-        <v>21313103000</v>
+        <v>20826789800</v>
       </c>
       <c r="F83">
-        <v>17917676000</v>
+        <v>17087706800</v>
       </c>
       <c r="G83">
         <v>200215000</v>
@@ -4528,13 +4528,13 @@
         <v>2403200</v>
       </c>
       <c r="I83">
-        <v>39430994000</v>
+        <v>38114711600</v>
       </c>
       <c r="J83" t="str">
         <v>2023-01-04T13:12:00.000Z</v>
       </c>
       <c r="K83">
-        <v>5578407356000</v>
+        <v>5124728988500</v>
       </c>
       <c r="L83">
         <v>344388100</v>
@@ -4543,13 +4543,13 @@
         <v>-115700</v>
       </c>
       <c r="N83">
-        <v>-3395427000</v>
+        <v>-3739083000</v>
       </c>
       <c r="O83">
         <v>-14153600</v>
       </c>
       <c r="P83">
-        <v>-21351899000</v>
+        <v>-99694977500</v>
       </c>
     </row>
     <row r="84">
@@ -4566,10 +4566,10 @@
         <v>1100</v>
       </c>
       <c r="E84">
-        <v>22304047000</v>
+        <v>21698453200</v>
       </c>
       <c r="F84">
-        <v>19356475000</v>
+        <v>18952978900</v>
       </c>
       <c r="G84">
         <v>10030000</v>
@@ -4578,13 +4578,13 @@
         <v>2563800</v>
       </c>
       <c r="I84">
-        <v>41670552000</v>
+        <v>40661462100</v>
       </c>
       <c r="J84" t="str">
         <v>2023-01-04T13:14:00.000Z</v>
       </c>
       <c r="K84">
-        <v>5620077908000</v>
+        <v>5165390450600</v>
       </c>
       <c r="L84">
         <v>346951900</v>
@@ -4593,13 +4593,13 @@
         <v>-138300</v>
       </c>
       <c r="N84">
-        <v>-2947572000</v>
+        <v>-2745474300</v>
       </c>
       <c r="O84">
         <v>-14291900</v>
       </c>
       <c r="P84">
-        <v>-24299471000</v>
+        <v>-102440451800</v>
       </c>
     </row>
     <row r="85">
@@ -4616,10 +4616,10 @@
         <v>15600</v>
       </c>
       <c r="E85">
-        <v>27402703000</v>
+        <v>25466940700</v>
       </c>
       <c r="F85">
-        <v>23958486000</v>
+        <v>23007338100</v>
       </c>
       <c r="G85">
         <v>486533000</v>
@@ -4628,13 +4628,13 @@
         <v>3121200</v>
       </c>
       <c r="I85">
-        <v>51847722000</v>
+        <v>48960811800</v>
       </c>
       <c r="J85" t="str">
         <v>2023-01-04T13:16:00.000Z</v>
       </c>
       <c r="K85">
-        <v>5671925630000</v>
+        <v>5214351262400</v>
       </c>
       <c r="L85">
         <v>350073100</v>
@@ -4643,13 +4643,13 @@
         <v>-236200</v>
       </c>
       <c r="N85">
-        <v>-3444217000</v>
+        <v>-2459602600</v>
       </c>
       <c r="O85">
         <v>-14528100</v>
       </c>
       <c r="P85">
-        <v>-27743688000</v>
+        <v>-104900054400</v>
       </c>
     </row>
     <row r="86">
@@ -4666,10 +4666,10 @@
         <v>19100</v>
       </c>
       <c r="E86">
-        <v>45357160000</v>
+        <v>44270347900</v>
       </c>
       <c r="F86">
-        <v>16281760000</v>
+        <v>15293149600</v>
       </c>
       <c r="G86">
         <v>412287000</v>
@@ -4678,13 +4678,13 @@
         <v>3460500</v>
       </c>
       <c r="I86">
-        <v>62051207000</v>
+        <v>59975784500</v>
       </c>
       <c r="J86" t="str">
         <v>2023-01-04T13:18:00.000Z</v>
       </c>
       <c r="K86">
-        <v>5733976837000</v>
+        <v>5274327046900</v>
       </c>
       <c r="L86">
         <v>353533600</v>
@@ -4693,13 +4693,13 @@
         <v>-1662000</v>
       </c>
       <c r="N86">
-        <v>-29075400000</v>
+        <v>-28977198300</v>
       </c>
       <c r="O86">
         <v>-16190100</v>
       </c>
       <c r="P86">
-        <v>-56819088000</v>
+        <v>-133877252700</v>
       </c>
     </row>
     <row r="87">
@@ -4716,10 +4716,10 @@
         <v>27800</v>
       </c>
       <c r="E87">
-        <v>71409079000</v>
+        <v>64469125900</v>
       </c>
       <c r="F87">
-        <v>21152108000</v>
+        <v>18342220700</v>
       </c>
       <c r="G87">
         <v>470823000</v>
@@ -4728,13 +4728,13 @@
         <v>5270900</v>
       </c>
       <c r="I87">
-        <v>93032010000</v>
+        <v>83282169600</v>
       </c>
       <c r="J87" t="str">
         <v>2023-01-04T13:20:00.000Z</v>
       </c>
       <c r="K87">
-        <v>5827008847000</v>
+        <v>5357609216500</v>
       </c>
       <c r="L87">
         <v>358804500</v>
@@ -4743,13 +4743,13 @@
         <v>-2971500</v>
       </c>
       <c r="N87">
-        <v>-50256971000</v>
+        <v>-46126905200</v>
       </c>
       <c r="O87">
         <v>-19161600</v>
       </c>
       <c r="P87">
-        <v>-107076059000</v>
+        <v>-180004157900</v>
       </c>
     </row>
     <row r="88">
@@ -4766,10 +4766,10 @@
         <v>21700</v>
       </c>
       <c r="E88">
-        <v>70165145000</v>
+        <v>64644371300</v>
       </c>
       <c r="F88">
-        <v>19161280000</v>
+        <v>18905935600</v>
       </c>
       <c r="G88">
         <v>618452000</v>
@@ -4778,13 +4778,13 @@
         <v>5841100</v>
       </c>
       <c r="I88">
-        <v>89944877000</v>
+        <v>84168758900</v>
       </c>
       <c r="J88" t="str">
         <v>2023-01-04T13:22:00.000Z</v>
       </c>
       <c r="K88">
-        <v>5916953724000</v>
+        <v>5441777975400</v>
       </c>
       <c r="L88">
         <v>364645600</v>
@@ -4793,13 +4793,13 @@
         <v>-3440000</v>
       </c>
       <c r="N88">
-        <v>-51003865000</v>
+        <v>-45738435700</v>
       </c>
       <c r="O88">
         <v>-22601600</v>
       </c>
       <c r="P88">
-        <v>-158079924000</v>
+        <v>-225742593600</v>
       </c>
     </row>
     <row r="89">
@@ -4816,10 +4816,10 @@
         <v>19300</v>
       </c>
       <c r="E89">
-        <v>95008292000</v>
+        <v>75166054100</v>
       </c>
       <c r="F89">
-        <v>22226120000</v>
+        <v>21635810900</v>
       </c>
       <c r="G89">
         <v>302821000</v>
@@ -4828,13 +4828,13 @@
         <v>7537400</v>
       </c>
       <c r="I89">
-        <v>117537233000</v>
+        <v>97104686000</v>
       </c>
       <c r="J89" t="str">
         <v>2023-01-04T13:24:00.000Z</v>
       </c>
       <c r="K89">
-        <v>6034490957000</v>
+        <v>5538882661400</v>
       </c>
       <c r="L89">
         <v>372183000</v>
@@ -4843,13 +4843,13 @@
         <v>-4797700</v>
       </c>
       <c r="N89">
-        <v>-72782172000</v>
+        <v>-53530243200</v>
       </c>
       <c r="O89">
         <v>-27399300</v>
       </c>
       <c r="P89">
-        <v>-230862096000</v>
+        <v>-279272836800</v>
       </c>
     </row>
     <row r="90">
@@ -4866,10 +4866,10 @@
         <v>22500</v>
       </c>
       <c r="E90">
-        <v>61338317000</v>
+        <v>50939326400</v>
       </c>
       <c r="F90">
-        <v>46621284000</v>
+        <v>41700609600</v>
       </c>
       <c r="G90">
         <v>483156000</v>
@@ -4878,13 +4878,13 @@
         <v>6648800</v>
       </c>
       <c r="I90">
-        <v>108442757000</v>
+        <v>93123092000</v>
       </c>
       <c r="J90" t="str">
         <v>2023-01-04T13:26:00.000Z</v>
       </c>
       <c r="K90">
-        <v>6142933714000</v>
+        <v>5632005753400</v>
       </c>
       <c r="L90">
         <v>378831800</v>
@@ -4893,13 +4893,13 @@
         <v>-1027700</v>
       </c>
       <c r="N90">
-        <v>-14717033000</v>
+        <v>-9238716800</v>
       </c>
       <c r="O90">
         <v>-28427000</v>
       </c>
       <c r="P90">
-        <v>-245579129000</v>
+        <v>-288511553600</v>
       </c>
     </row>
     <row r="91">
@@ -4916,25 +4916,25 @@
         <v>17100</v>
       </c>
       <c r="E91">
-        <v>36450025000</v>
+        <v>30438742300</v>
       </c>
       <c r="F91">
-        <v>48735193000</v>
+        <v>38467371100</v>
       </c>
       <c r="G91">
-        <v>258351000</v>
+        <v>235973400</v>
       </c>
       <c r="H91">
         <v>5197200</v>
       </c>
       <c r="I91">
-        <v>85443569000</v>
+        <v>69142086800</v>
       </c>
       <c r="J91" t="str">
         <v>2023-01-04T13:28:00.000Z</v>
       </c>
       <c r="K91">
-        <v>6228377283000</v>
+        <v>5701147840200</v>
       </c>
       <c r="L91">
         <v>384029000</v>
@@ -4943,13 +4943,13 @@
         <v>512700</v>
       </c>
       <c r="N91">
-        <v>12285168000</v>
+        <v>8028628800</v>
       </c>
       <c r="O91">
         <v>-27914300</v>
       </c>
       <c r="P91">
-        <v>-233293961000</v>
+        <v>-280482924800</v>
       </c>
     </row>
     <row r="92">
@@ -4966,25 +4966,25 @@
         <v>24500</v>
       </c>
       <c r="E92">
-        <v>21795213000</v>
+        <v>19240170600</v>
       </c>
       <c r="F92">
-        <v>53857647000</v>
+        <v>47374936200</v>
       </c>
       <c r="G92">
-        <v>1258302000</v>
+        <v>57603900</v>
       </c>
       <c r="H92">
         <v>4542000</v>
       </c>
       <c r="I92">
-        <v>76911162000</v>
+        <v>66672710700</v>
       </c>
       <c r="J92" t="str">
         <v>2023-01-04T13:30:00.000Z</v>
       </c>
       <c r="K92">
-        <v>6305288445000</v>
+        <v>5767820550900</v>
       </c>
       <c r="L92">
         <v>388571000</v>
@@ -4993,13 +4993,13 @@
         <v>1874900</v>
       </c>
       <c r="N92">
-        <v>32062434000</v>
+        <v>28134765600</v>
       </c>
       <c r="O92">
         <v>-26039400</v>
       </c>
       <c r="P92">
-        <v>-201231527000</v>
+        <v>-252348159200</v>
       </c>
     </row>
     <row r="93">
@@ -5016,10 +5016,10 @@
         <v>23400</v>
       </c>
       <c r="E93">
-        <v>19709126000</v>
+        <v>17877559400</v>
       </c>
       <c r="F93">
-        <v>46395127000</v>
+        <v>38972357200</v>
       </c>
       <c r="G93">
         <v>266890000</v>
@@ -5028,13 +5028,13 @@
         <v>3812500</v>
       </c>
       <c r="I93">
-        <v>66371143000</v>
+        <v>57116806600</v>
       </c>
       <c r="J93" t="str">
         <v>2023-01-04T13:32:00.000Z</v>
       </c>
       <c r="K93">
-        <v>6371659588000</v>
+        <v>5824937357500</v>
       </c>
       <c r="L93">
         <v>392383500</v>
@@ -5043,13 +5043,13 @@
         <v>1210500</v>
       </c>
       <c r="N93">
-        <v>26686001000</v>
+        <v>21094797800</v>
       </c>
       <c r="O93">
         <v>-24828900</v>
       </c>
       <c r="P93">
-        <v>-174545526000</v>
+        <v>-231253361400</v>
       </c>
     </row>
     <row r="94">
@@ -5066,10 +5066,10 @@
         <v>3900</v>
       </c>
       <c r="E94">
-        <v>22162320000</v>
+        <v>20188395900</v>
       </c>
       <c r="F94">
-        <v>38256429000</v>
+        <v>31486405800</v>
       </c>
       <c r="G94">
         <v>243005000</v>
@@ -5078,13 +5078,13 @@
         <v>3626000</v>
       </c>
       <c r="I94">
-        <v>60661754000</v>
+        <v>51917806700</v>
       </c>
       <c r="J94" t="str">
         <v>2023-01-04T13:34:00.000Z</v>
       </c>
       <c r="K94">
-        <v>6432321342000</v>
+        <v>5876855164200</v>
       </c>
       <c r="L94">
         <v>396009500</v>
@@ -5093,13 +5093,13 @@
         <v>1047100</v>
       </c>
       <c r="N94">
-        <v>16094109000</v>
+        <v>11298009900</v>
       </c>
       <c r="O94">
         <v>-23781800</v>
       </c>
       <c r="P94">
-        <v>-158451417000</v>
+        <v>-219955351500</v>
       </c>
     </row>
     <row r="95">
@@ -5116,10 +5116,10 @@
         <v>5800</v>
       </c>
       <c r="E95">
-        <v>29673431000</v>
+        <v>26230877000</v>
       </c>
       <c r="F95">
-        <v>19118578000</v>
+        <v>16575423700</v>
       </c>
       <c r="G95">
         <v>202460000</v>
@@ -5128,13 +5128,13 @@
         <v>2834400</v>
       </c>
       <c r="I95">
-        <v>48994469000</v>
+        <v>43008760700</v>
       </c>
       <c r="J95" t="str">
         <v>2023-01-04T13:36:00.000Z</v>
       </c>
       <c r="K95">
-        <v>6481315811000</v>
+        <v>5919863924900</v>
       </c>
       <c r="L95">
         <v>398843900</v>
@@ -5143,13 +5143,13 @@
         <v>-603400</v>
       </c>
       <c r="N95">
-        <v>-10554853000</v>
+        <v>-9655453300</v>
       </c>
       <c r="O95">
         <v>-24385200</v>
       </c>
       <c r="P95">
-        <v>-169006270000</v>
+        <v>-229610804800</v>
       </c>
     </row>
     <row r="96">
@@ -5166,10 +5166,10 @@
         <v>7400</v>
       </c>
       <c r="E96">
-        <v>30494842000</v>
+        <v>25635606100</v>
       </c>
       <c r="F96">
-        <v>16956334000</v>
+        <v>15978213100</v>
       </c>
       <c r="G96">
         <v>71790000</v>
@@ -5178,13 +5178,13 @@
         <v>2826400</v>
       </c>
       <c r="I96">
-        <v>47522966000</v>
+        <v>41685609200</v>
       </c>
       <c r="J96" t="str">
         <v>2023-01-04T13:38:00.000Z</v>
       </c>
       <c r="K96">
-        <v>6528838777000</v>
+        <v>5961549534100</v>
       </c>
       <c r="L96">
         <v>401670300</v>
@@ -5193,13 +5193,13 @@
         <v>-831600</v>
       </c>
       <c r="N96">
-        <v>-13538508000</v>
+        <v>-9657393000</v>
       </c>
       <c r="O96">
         <v>-25216800</v>
       </c>
       <c r="P96">
-        <v>-182544778000</v>
+        <v>-239268197800</v>
       </c>
     </row>
     <row r="97">
@@ -5216,25 +5216,25 @@
         <v>12100</v>
       </c>
       <c r="E97">
-        <v>38581580000</v>
+        <v>32997070100</v>
       </c>
       <c r="F97">
-        <v>13613287000</v>
+        <v>13154146600</v>
       </c>
       <c r="G97">
-        <v>175937000</v>
+        <v>175437500</v>
       </c>
       <c r="H97">
         <v>2910000</v>
       </c>
       <c r="I97">
-        <v>52370804000</v>
+        <v>46326654200</v>
       </c>
       <c r="J97" t="str">
         <v>2023-01-04T13:40:00.000Z</v>
       </c>
       <c r="K97">
-        <v>6581209581000</v>
+        <v>6007876188300</v>
       </c>
       <c r="L97">
         <v>404580300</v>
@@ -5243,13 +5243,13 @@
         <v>-1416700</v>
       </c>
       <c r="N97">
-        <v>-24968293000</v>
+        <v>-19842923500</v>
       </c>
       <c r="O97">
         <v>-26633500</v>
       </c>
       <c r="P97">
-        <v>-207513071000</v>
+        <v>-259111121300</v>
       </c>
     </row>
     <row r="98">
@@ -5266,10 +5266,10 @@
         <v>79200</v>
       </c>
       <c r="E98">
-        <v>50433189000</v>
+        <v>40835895900</v>
       </c>
       <c r="F98">
-        <v>14305739000</v>
+        <v>13476269300</v>
       </c>
       <c r="G98">
         <v>1102306000</v>
@@ -5278,13 +5278,13 @@
         <v>3663300</v>
       </c>
       <c r="I98">
-        <v>65841234000</v>
+        <v>55414471200</v>
       </c>
       <c r="J98" t="str">
         <v>2023-01-04T13:42:00.000Z</v>
       </c>
       <c r="K98">
-        <v>6647050815000</v>
+        <v>6063290659500</v>
       </c>
       <c r="L98">
         <v>408243600</v>
@@ -5293,13 +5293,13 @@
         <v>-1852300</v>
       </c>
       <c r="N98">
-        <v>-36127450000</v>
+        <v>-27359626600</v>
       </c>
       <c r="O98">
         <v>-28485800</v>
       </c>
       <c r="P98">
-        <v>-243640521000</v>
+        <v>-286470747900</v>
       </c>
     </row>
     <row r="99">
@@ -5316,10 +5316,10 @@
         <v>900</v>
       </c>
       <c r="E99">
-        <v>21658392000</v>
+        <v>20112539400</v>
       </c>
       <c r="F99">
-        <v>25780946000</v>
+        <v>21174756800</v>
       </c>
       <c r="G99">
         <v>27486000</v>
@@ -5328,13 +5328,13 @@
         <v>2816800</v>
       </c>
       <c r="I99">
-        <v>47466824000</v>
+        <v>41314782200</v>
       </c>
       <c r="J99" t="str">
         <v>2023-01-04T13:44:00.000Z</v>
       </c>
       <c r="K99">
-        <v>6694517639000</v>
+        <v>6104605441700</v>
       </c>
       <c r="L99">
         <v>411060400</v>
@@ -5343,13 +5343,13 @@
         <v>76500</v>
       </c>
       <c r="N99">
-        <v>4122554000</v>
+        <v>1062217400</v>
       </c>
       <c r="O99">
         <v>-28409300</v>
       </c>
       <c r="P99">
-        <v>-239517967000</v>
+        <v>-285408530500</v>
       </c>
     </row>
     <row r="100">
@@ -5366,25 +5366,25 @@
         <v>13600</v>
       </c>
       <c r="E100">
-        <v>25148125000</v>
+        <v>22836538900</v>
       </c>
       <c r="F100">
-        <v>28328181000</v>
+        <v>20678238600</v>
       </c>
       <c r="G100">
-        <v>395453000</v>
+        <v>153794900</v>
       </c>
       <c r="H100">
         <v>3055900</v>
       </c>
       <c r="I100">
-        <v>53871759000</v>
+        <v>43668572400</v>
       </c>
       <c r="J100" t="str">
         <v>2023-01-04T13:46:00.000Z</v>
       </c>
       <c r="K100">
-        <v>6748389398000</v>
+        <v>6148274014100</v>
       </c>
       <c r="L100">
         <v>414116300</v>
@@ -5393,13 +5393,13 @@
         <v>-101700</v>
       </c>
       <c r="N100">
-        <v>3180056000</v>
+        <v>-2158300300</v>
       </c>
       <c r="O100">
         <v>-28511000</v>
       </c>
       <c r="P100">
-        <v>-236337911000</v>
+        <v>-287566830800</v>
       </c>
     </row>
     <row r="101">
@@ -5416,25 +5416,25 @@
         <v>10600</v>
       </c>
       <c r="E101">
-        <v>28494152000</v>
+        <v>20239914500</v>
       </c>
       <c r="F101">
-        <v>33037894000</v>
+        <v>29217817900</v>
       </c>
       <c r="G101">
-        <v>289223000</v>
+        <v>261251000</v>
       </c>
       <c r="H101">
         <v>3452400</v>
       </c>
       <c r="I101">
-        <v>61821269000</v>
+        <v>49718983400</v>
       </c>
       <c r="J101" t="str">
         <v>2023-01-04T13:48:00.000Z</v>
       </c>
       <c r="K101">
-        <v>6810210667000</v>
+        <v>6197992997500</v>
       </c>
       <c r="L101">
         <v>417568700</v>
@@ -5443,13 +5443,13 @@
         <v>353200</v>
       </c>
       <c r="N101">
-        <v>4543742000</v>
+        <v>8977903400</v>
       </c>
       <c r="O101">
         <v>-28157800</v>
       </c>
       <c r="P101">
-        <v>-231794169000</v>
+        <v>-278588927400</v>
       </c>
     </row>
     <row r="102">
@@ -5466,10 +5466,10 @@
         <v>15200</v>
       </c>
       <c r="E102">
-        <v>35751832000</v>
+        <v>30769819000</v>
       </c>
       <c r="F102">
-        <v>30871023000</v>
+        <v>24732068100</v>
       </c>
       <c r="G102">
         <v>236600000</v>
@@ -5478,13 +5478,13 @@
         <v>3714000</v>
       </c>
       <c r="I102">
-        <v>66859455000</v>
+        <v>55738487100</v>
       </c>
       <c r="J102" t="str">
         <v>2023-01-04T13:50:00.000Z</v>
       </c>
       <c r="K102">
-        <v>6877070122000</v>
+        <v>6253731484600</v>
       </c>
       <c r="L102">
         <v>421282700</v>
@@ -5493,13 +5493,13 @@
         <v>-44000</v>
       </c>
       <c r="N102">
-        <v>-4880809000</v>
+        <v>-6037750900</v>
       </c>
       <c r="O102">
         <v>-28201800</v>
       </c>
       <c r="P102">
-        <v>-236674978000</v>
+        <v>-284626678300</v>
       </c>
     </row>
     <row r="103">
@@ -5516,25 +5516,25 @@
         <v>26300</v>
       </c>
       <c r="E103">
-        <v>25537449000</v>
+        <v>17263331400</v>
       </c>
       <c r="F103">
-        <v>22602620000</v>
+        <v>21124999100</v>
       </c>
       <c r="G103">
-        <v>712685000</v>
+        <v>708189500</v>
       </c>
       <c r="H103">
         <v>2907700</v>
       </c>
       <c r="I103">
-        <v>48852754000</v>
+        <v>39096520000</v>
       </c>
       <c r="J103" t="str">
         <v>2023-01-04T13:52:00.000Z</v>
       </c>
       <c r="K103">
-        <v>6925922876000</v>
+        <v>6292828004600</v>
       </c>
       <c r="L103">
         <v>424190400</v>
@@ -5543,13 +5543,13 @@
         <v>-415400</v>
       </c>
       <c r="N103">
-        <v>-2934829000</v>
+        <v>3861667700</v>
       </c>
       <c r="O103">
         <v>-28617200</v>
       </c>
       <c r="P103">
-        <v>-239609807000</v>
+        <v>-280765010600</v>
       </c>
     </row>
     <row r="104">
@@ -5566,25 +5566,25 @@
         <v>19900</v>
       </c>
       <c r="E104">
-        <v>31645916000</v>
+        <v>23590179800</v>
       </c>
       <c r="F104">
-        <v>19995277000</v>
+        <v>17843630800</v>
       </c>
       <c r="G104">
-        <v>290477000</v>
+        <v>280886600</v>
       </c>
       <c r="H104">
         <v>2834200</v>
       </c>
       <c r="I104">
-        <v>51931670000</v>
+        <v>41714697200</v>
       </c>
       <c r="J104" t="str">
         <v>2023-01-04T13:54:00.000Z</v>
       </c>
       <c r="K104">
-        <v>6977854546000</v>
+        <v>6334542701800</v>
       </c>
       <c r="L104">
         <v>427024600</v>
@@ -5593,13 +5593,13 @@
         <v>-665100</v>
       </c>
       <c r="N104">
-        <v>-11650639000</v>
+        <v>-5746549000</v>
       </c>
       <c r="O104">
         <v>-29282300</v>
       </c>
       <c r="P104">
-        <v>-251260446000</v>
+        <v>-286511559600</v>
       </c>
     </row>
     <row r="105">
@@ -5616,10 +5616,10 @@
         <v>37300</v>
       </c>
       <c r="E105">
-        <v>82170098000</v>
+        <v>73233044000</v>
       </c>
       <c r="F105">
-        <v>24391314000</v>
+        <v>22251256200</v>
       </c>
       <c r="G105">
         <v>633940000</v>
@@ -5628,13 +5628,13 @@
         <v>5480000</v>
       </c>
       <c r="I105">
-        <v>107195352000</v>
+        <v>96118240200</v>
       </c>
       <c r="J105" t="str">
         <v>2023-01-04T13:56:00.000Z</v>
       </c>
       <c r="K105">
-        <v>7085049898000</v>
+        <v>6430660942000</v>
       </c>
       <c r="L105">
         <v>432504600</v>
@@ -5643,13 +5643,13 @@
         <v>-2920900</v>
       </c>
       <c r="N105">
-        <v>-57778784000</v>
+        <v>-50981787800</v>
       </c>
       <c r="O105">
         <v>-32203200</v>
       </c>
       <c r="P105">
-        <v>-309039230000</v>
+        <v>-337493347400</v>
       </c>
     </row>
     <row r="106">
@@ -5666,10 +5666,10 @@
         <v>25400</v>
       </c>
       <c r="E106">
-        <v>66294867000</v>
+        <v>60527040600</v>
       </c>
       <c r="F106">
-        <v>23624188000</v>
+        <v>20162752900</v>
       </c>
       <c r="G106">
         <v>266392000</v>
@@ -5678,13 +5678,13 @@
         <v>4985700</v>
       </c>
       <c r="I106">
-        <v>90185447000</v>
+        <v>80956185500</v>
       </c>
       <c r="J106" t="str">
         <v>2023-01-04T13:58:00.000Z</v>
       </c>
       <c r="K106">
-        <v>7175235345000</v>
+        <v>6511617127500</v>
       </c>
       <c r="L106">
         <v>437490300</v>
@@ -5693,13 +5693,13 @@
         <v>-2432500</v>
       </c>
       <c r="N106">
-        <v>-42670679000</v>
+        <v>-40364287700</v>
       </c>
       <c r="O106">
         <v>-34635700</v>
       </c>
       <c r="P106">
-        <v>-351709909000</v>
+        <v>-377857635100</v>
       </c>
     </row>
     <row r="107">
@@ -5716,25 +5716,25 @@
         <v>48900</v>
       </c>
       <c r="E107">
-        <v>96418498000</v>
+        <v>87762163000</v>
       </c>
       <c r="F107">
-        <v>32752314000</v>
+        <v>25515158400</v>
       </c>
       <c r="G107">
-        <v>990549000</v>
+        <v>504635400</v>
       </c>
       <c r="H107">
         <v>7523600</v>
       </c>
       <c r="I107">
-        <v>130161361000</v>
+        <v>113781956800</v>
       </c>
       <c r="J107" t="str">
         <v>2023-01-04T14:00:00.000Z</v>
       </c>
       <c r="K107">
-        <v>7305396706000</v>
+        <v>6625399084300</v>
       </c>
       <c r="L107">
         <v>445013900</v>
@@ -5743,13 +5743,13 @@
         <v>-4285100</v>
       </c>
       <c r="N107">
-        <v>-63666184000</v>
+        <v>-62247004600</v>
       </c>
       <c r="O107">
         <v>-38920800</v>
       </c>
       <c r="P107">
-        <v>-415376093000</v>
+        <v>-440104639700</v>
       </c>
     </row>
     <row r="108">
@@ -5766,25 +5766,25 @@
         <v>57100</v>
       </c>
       <c r="E108">
-        <v>45037396000</v>
+        <v>41627409400</v>
       </c>
       <c r="F108">
-        <v>40565568000</v>
+        <v>38535200400</v>
       </c>
       <c r="G108">
-        <v>567170000</v>
+        <v>524312900</v>
       </c>
       <c r="H108">
         <v>5265600</v>
       </c>
       <c r="I108">
-        <v>86170134000</v>
+        <v>80686922700</v>
       </c>
       <c r="J108" t="str">
         <v>2023-01-04T14:02:00.000Z</v>
       </c>
       <c r="K108">
-        <v>7391566840000</v>
+        <v>6706086007000</v>
       </c>
       <c r="L108">
         <v>450279500</v>
@@ -5793,13 +5793,13 @@
         <v>-771100</v>
       </c>
       <c r="N108">
-        <v>-4471828000</v>
+        <v>-3092209000</v>
       </c>
       <c r="O108">
         <v>-39691900</v>
       </c>
       <c r="P108">
-        <v>-419847921000</v>
+        <v>-443196848700</v>
       </c>
     </row>
     <row r="109">
@@ -5816,25 +5816,25 @@
         <v>25900</v>
       </c>
       <c r="E109">
-        <v>23379895000</v>
+        <v>22196679400</v>
       </c>
       <c r="F109">
-        <v>32838300000</v>
+        <v>32034304800</v>
       </c>
       <c r="G109">
-        <v>348848000</v>
+        <v>343453400</v>
       </c>
       <c r="H109">
         <v>3268900</v>
       </c>
       <c r="I109">
-        <v>56567043000</v>
+        <v>54574437600</v>
       </c>
       <c r="J109" t="str">
         <v>2023-01-04T14:04:00.000Z</v>
       </c>
       <c r="K109">
-        <v>7448133883000</v>
+        <v>6760660444600</v>
       </c>
       <c r="L109">
         <v>453548400</v>
@@ -5843,13 +5843,13 @@
         <v>521200</v>
       </c>
       <c r="N109">
-        <v>9458405000</v>
+        <v>9837625400</v>
       </c>
       <c r="O109">
         <v>-39170700</v>
       </c>
       <c r="P109">
-        <v>-410389516000</v>
+        <v>-433359223300</v>
       </c>
     </row>
     <row r="110">
@@ -5866,10 +5866,10 @@
         <v>5100</v>
       </c>
       <c r="E110">
-        <v>17468587000</v>
+        <v>17132023900</v>
       </c>
       <c r="F110">
-        <v>36108539000</v>
+        <v>33712937000</v>
       </c>
       <c r="G110">
         <v>133487000</v>
@@ -5878,13 +5878,13 @@
         <v>3176200</v>
       </c>
       <c r="I110">
-        <v>53710613000</v>
+        <v>50978447900</v>
       </c>
       <c r="J110" t="str">
         <v>2023-01-04T14:06:00.000Z</v>
       </c>
       <c r="K110">
-        <v>7501844496000</v>
+        <v>6811638892500</v>
       </c>
       <c r="L110">
         <v>456724600</v>
@@ -5893,13 +5893,13 @@
         <v>1155700</v>
       </c>
       <c r="N110">
-        <v>18639952000</v>
+        <v>16580913100</v>
       </c>
       <c r="O110">
         <v>-38015000</v>
       </c>
       <c r="P110">
-        <v>-391749564000</v>
+        <v>-416778310200</v>
       </c>
     </row>
     <row r="111">
@@ -5916,10 +5916,10 @@
         <v>16200</v>
       </c>
       <c r="E111">
-        <v>21044991000</v>
+        <v>19721815500</v>
       </c>
       <c r="F111">
-        <v>37119358000</v>
+        <v>32667314500</v>
       </c>
       <c r="G111">
         <v>545567000</v>
@@ -5928,13 +5928,13 @@
         <v>3369800</v>
       </c>
       <c r="I111">
-        <v>58709916000</v>
+        <v>52934697000</v>
       </c>
       <c r="J111" t="str">
         <v>2023-01-04T14:08:00.000Z</v>
       </c>
       <c r="K111">
-        <v>7560554412000</v>
+        <v>6864573589500</v>
       </c>
       <c r="L111">
         <v>460094400</v>
@@ -5943,13 +5943,13 @@
         <v>887600</v>
       </c>
       <c r="N111">
-        <v>16074367000</v>
+        <v>12945499000</v>
       </c>
       <c r="O111">
         <v>-37127400</v>
       </c>
       <c r="P111">
-        <v>-375675197000</v>
+        <v>-403832811200</v>
       </c>
     </row>
     <row r="112">
@@ -5966,10 +5966,10 @@
         <v>16000</v>
       </c>
       <c r="E112">
-        <v>39880776000</v>
+        <v>37907251500</v>
       </c>
       <c r="F112">
-        <v>37918681000</v>
+        <v>34265338000</v>
       </c>
       <c r="G112">
         <v>261537000</v>
@@ -5978,13 +5978,13 @@
         <v>4170200</v>
       </c>
       <c r="I112">
-        <v>78060994000</v>
+        <v>72434126500</v>
       </c>
       <c r="J112" t="str">
         <v>2023-01-04T14:10:00.000Z</v>
       </c>
       <c r="K112">
-        <v>7638615406000</v>
+        <v>6937007716000</v>
       </c>
       <c r="L112">
         <v>464264600</v>
@@ -5993,13 +5993,13 @@
         <v>-511600</v>
       </c>
       <c r="N112">
-        <v>-1962095000</v>
+        <v>-3641913500</v>
       </c>
       <c r="O112">
         <v>-37639000</v>
       </c>
       <c r="P112">
-        <v>-377637292000</v>
+        <v>-407474724700</v>
       </c>
     </row>
     <row r="113">
@@ -6016,10 +6016,10 @@
         <v>79500</v>
       </c>
       <c r="E113">
-        <v>28623069000</v>
+        <v>27534258900</v>
       </c>
       <c r="F113">
-        <v>49020563000</v>
+        <v>38513280800</v>
       </c>
       <c r="G113">
         <v>1152871000</v>
@@ -6028,13 +6028,13 @@
         <v>4237700</v>
       </c>
       <c r="I113">
-        <v>78796503000</v>
+        <v>67200410700</v>
       </c>
       <c r="J113" t="str">
         <v>2023-01-04T14:12:00.000Z</v>
       </c>
       <c r="K113">
-        <v>7717411909000</v>
+        <v>7004208126700</v>
       </c>
       <c r="L113">
         <v>468502300</v>
@@ -6043,13 +6043,13 @@
         <v>684400</v>
       </c>
       <c r="N113">
-        <v>20397494000</v>
+        <v>10979021900</v>
       </c>
       <c r="O113">
         <v>-36954600</v>
       </c>
       <c r="P113">
-        <v>-357239798000</v>
+        <v>-396495702800</v>
       </c>
     </row>
     <row r="114">
@@ -6066,10 +6066,10 @@
         <v>10100</v>
       </c>
       <c r="E114">
-        <v>27508965000</v>
+        <v>26030844600</v>
       </c>
       <c r="F114">
-        <v>49242985000</v>
+        <v>33483959800</v>
       </c>
       <c r="G114">
         <v>237899000</v>
@@ -6078,13 +6078,13 @@
         <v>4149400</v>
       </c>
       <c r="I114">
-        <v>76989849000</v>
+        <v>59752703400</v>
       </c>
       <c r="J114" t="str">
         <v>2023-01-04T14:14:00.000Z</v>
       </c>
       <c r="K114">
-        <v>7794401758000</v>
+        <v>7063960830100</v>
       </c>
       <c r="L114">
         <v>472651700</v>
@@ -6093,13 +6093,13 @@
         <v>831100</v>
       </c>
       <c r="N114">
-        <v>21734020000</v>
+        <v>7453115200</v>
       </c>
       <c r="O114">
         <v>-36123500</v>
       </c>
       <c r="P114">
-        <v>-335505778000</v>
+        <v>-389042587600</v>
       </c>
     </row>
     <row r="115">
@@ -6116,25 +6116,25 @@
         <v>49000</v>
       </c>
       <c r="E115">
-        <v>25152775000</v>
+        <v>24522605800</v>
       </c>
       <c r="F115">
-        <v>68429656000</v>
+        <v>49607996500</v>
       </c>
       <c r="G115">
-        <v>289337000</v>
+        <v>284142200</v>
       </c>
       <c r="H115">
         <v>5491400</v>
       </c>
       <c r="I115">
-        <v>93871768000</v>
+        <v>74414744500</v>
       </c>
       <c r="J115" t="str">
         <v>2023-01-04T14:16:00.000Z</v>
       </c>
       <c r="K115">
-        <v>7888273526000</v>
+        <v>7138375574600</v>
       </c>
       <c r="L115">
         <v>478143100</v>
@@ -6143,13 +6143,13 @@
         <v>2397200</v>
       </c>
       <c r="N115">
-        <v>43276881000</v>
+        <v>25085390700</v>
       </c>
       <c r="O115">
         <v>-33726300</v>
       </c>
       <c r="P115">
-        <v>-292228897000</v>
+        <v>-363957196900</v>
       </c>
     </row>
     <row r="116">
@@ -6166,25 +6166,25 @@
         <v>52200</v>
       </c>
       <c r="E116">
-        <v>31197028000</v>
+        <v>27300428500</v>
       </c>
       <c r="F116">
-        <v>97821277000</v>
+        <v>85046664400</v>
       </c>
       <c r="G116">
-        <v>784332000</v>
+        <v>697618800</v>
       </c>
       <c r="H116">
         <v>7421100</v>
       </c>
       <c r="I116">
-        <v>129802637000</v>
+        <v>113044711700</v>
       </c>
       <c r="J116" t="str">
         <v>2023-01-04T14:18:00.000Z</v>
       </c>
       <c r="K116">
-        <v>8018076163000</v>
+        <v>7251420286300</v>
       </c>
       <c r="L116">
         <v>485564200</v>
@@ -6193,13 +6193,13 @@
         <v>3690900</v>
       </c>
       <c r="N116">
-        <v>66624249000</v>
+        <v>57746235900</v>
       </c>
       <c r="O116">
         <v>-30035400</v>
       </c>
       <c r="P116">
-        <v>-225604648000</v>
+        <v>-306210961000</v>
       </c>
     </row>
     <row r="117">
@@ -6216,25 +6216,25 @@
         <v>33700</v>
       </c>
       <c r="E117">
-        <v>41836505000</v>
+        <v>38334110900</v>
       </c>
       <c r="F117">
-        <v>65035736000</v>
+        <v>61217857700</v>
       </c>
       <c r="G117">
-        <v>477780000</v>
+        <v>443314500</v>
       </c>
       <c r="H117">
         <v>5715800</v>
       </c>
       <c r="I117">
-        <v>107350021000</v>
+        <v>99995283100</v>
       </c>
       <c r="J117" t="str">
         <v>2023-01-04T14:20:00.000Z</v>
       </c>
       <c r="K117">
-        <v>8125426184000</v>
+        <v>7351415569400</v>
       </c>
       <c r="L117">
         <v>491280000</v>
@@ -6243,13 +6243,13 @@
         <v>1289900</v>
       </c>
       <c r="N117">
-        <v>23199231000</v>
+        <v>22883746800</v>
       </c>
       <c r="O117">
         <v>-28745500</v>
       </c>
       <c r="P117">
-        <v>-202405417000</v>
+        <v>-283327214200</v>
       </c>
     </row>
     <row r="118">
@@ -6266,25 +6266,25 @@
         <v>13200</v>
       </c>
       <c r="E118">
-        <v>45556128000</v>
+        <v>43659526500</v>
       </c>
       <c r="F118">
-        <v>41235721000</v>
+        <v>38496962500</v>
       </c>
       <c r="G118">
-        <v>474585000</v>
+        <v>366193500</v>
       </c>
       <c r="H118">
         <v>5202700</v>
       </c>
       <c r="I118">
-        <v>87266434000</v>
+        <v>82522682500</v>
       </c>
       <c r="J118" t="str">
         <v>2023-01-04T14:22:00.000Z</v>
       </c>
       <c r="K118">
-        <v>8212692618000</v>
+        <v>7433938251900</v>
       </c>
       <c r="L118">
         <v>496482700</v>
@@ -6293,13 +6293,13 @@
         <v>-248500</v>
       </c>
       <c r="N118">
-        <v>-4320407000</v>
+        <v>-5162564000</v>
       </c>
       <c r="O118">
         <v>-28994000</v>
       </c>
       <c r="P118">
-        <v>-206725824000</v>
+        <v>-288489778200</v>
       </c>
     </row>
     <row r="119">
@@ -6316,10 +6316,10 @@
         <v>20100</v>
       </c>
       <c r="E119">
-        <v>65305791000</v>
+        <v>58124779200</v>
       </c>
       <c r="F119">
-        <v>27926183000</v>
+        <v>25377334400</v>
       </c>
       <c r="G119">
         <v>259308000</v>
@@ -6328,13 +6328,13 @@
         <v>5518600</v>
       </c>
       <c r="I119">
-        <v>93491282000</v>
+        <v>83761421600</v>
       </c>
       <c r="J119" t="str">
         <v>2023-01-04T14:24:00.000Z</v>
       </c>
       <c r="K119">
-        <v>8306183900000</v>
+        <v>7517699673500</v>
       </c>
       <c r="L119">
         <v>502001300</v>
@@ -6343,13 +6343,13 @@
         <v>-2459300</v>
       </c>
       <c r="N119">
-        <v>-37379608000</v>
+        <v>-32747444800</v>
       </c>
       <c r="O119">
         <v>-31453300</v>
       </c>
       <c r="P119">
-        <v>-244105432000</v>
+        <v>-321237223000</v>
       </c>
     </row>
     <row r="120">
@@ -6366,10 +6366,10 @@
         <v>50700</v>
       </c>
       <c r="E120">
-        <v>86060962000</v>
+        <v>77440591000</v>
       </c>
       <c r="F120">
-        <v>32158493000</v>
+        <v>29880273500</v>
       </c>
       <c r="G120">
         <v>683371000</v>
@@ -6378,13 +6378,13 @@
         <v>7332500</v>
       </c>
       <c r="I120">
-        <v>118902826000</v>
+        <v>108004235500</v>
       </c>
       <c r="J120" t="str">
         <v>2023-01-04T14:26:00.000Z</v>
       </c>
       <c r="K120">
-        <v>8425086726000</v>
+        <v>7625703909000</v>
       </c>
       <c r="L120">
         <v>509333800</v>
@@ -6393,13 +6393,13 @@
         <v>-3750600</v>
       </c>
       <c r="N120">
-        <v>-53902469000</v>
+        <v>-47560317500</v>
       </c>
       <c r="O120">
         <v>-35203900</v>
       </c>
       <c r="P120">
-        <v>-298007901000</v>
+        <v>-368797540500</v>
       </c>
     </row>
     <row r="121">
@@ -6416,25 +6416,25 @@
         <v>32000</v>
       </c>
       <c r="E121">
-        <v>100499158000</v>
+        <v>83557916200</v>
       </c>
       <c r="F121">
-        <v>53578430000</v>
+        <v>45560456000</v>
       </c>
       <c r="G121">
-        <v>503463000</v>
+        <v>502763700</v>
       </c>
       <c r="H121">
         <v>9548400</v>
       </c>
       <c r="I121">
-        <v>154581051000</v>
+        <v>129621135900</v>
       </c>
       <c r="J121" t="str">
         <v>2023-01-04T14:28:00.000Z</v>
       </c>
       <c r="K121">
-        <v>8579667777000</v>
+        <v>7755325044900</v>
       </c>
       <c r="L121">
         <v>518882200</v>
@@ -6443,13 +6443,13 @@
         <v>-3206600</v>
       </c>
       <c r="N121">
-        <v>-46920728000</v>
+        <v>-37997460200</v>
       </c>
       <c r="O121">
         <v>-38410500</v>
       </c>
       <c r="P121">
-        <v>-344928629000</v>
+        <v>-406795000700</v>
       </c>
     </row>
     <row r="122">
@@ -6469,7 +6469,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>38690000</v>
+        <v>12716000</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -6478,13 +6478,13 @@
         <v>1900</v>
       </c>
       <c r="I122">
-        <v>38690000</v>
+        <v>12716000</v>
       </c>
       <c r="J122" t="str">
         <v>2023-01-04T14:30:00.000Z</v>
       </c>
       <c r="K122">
-        <v>8579706467000</v>
+        <v>7755337760900</v>
       </c>
       <c r="L122">
         <v>518884100</v>
@@ -6493,13 +6493,13 @@
         <v>1900</v>
       </c>
       <c r="N122">
-        <v>38690000</v>
+        <v>12716000</v>
       </c>
       <c r="O122">
         <v>-38408600</v>
       </c>
       <c r="P122">
-        <v>-344889939000</v>
+        <v>-406782284700</v>
       </c>
     </row>
     <row r="123">
@@ -6534,7 +6534,7 @@
         <v>2023-01-04T14:32:00.000Z</v>
       </c>
       <c r="K123">
-        <v>8579902317000</v>
+        <v>7755533610900</v>
       </c>
       <c r="L123">
         <v>518898900</v>
@@ -6549,7 +6549,7 @@
         <v>-38413600</v>
       </c>
       <c r="P123">
-        <v>-344955449000</v>
+        <v>-406847794700</v>
       </c>
     </row>
     <row r="124">
@@ -6584,7 +6584,7 @@
         <v>2023-01-04T14:34:00.000Z</v>
       </c>
       <c r="K124">
-        <v>8579968317000</v>
+        <v>7755599610900</v>
       </c>
       <c r="L124">
         <v>518903900</v>
@@ -6599,7 +6599,7 @@
         <v>-38418600</v>
       </c>
       <c r="P124">
-        <v>-345021449000</v>
+        <v>-406913794700</v>
       </c>
     </row>
     <row r="125">
@@ -6634,7 +6634,7 @@
         <v>2023-01-04T14:36:00.000Z</v>
       </c>
       <c r="K125">
-        <v>8579973597000</v>
+        <v>7755604890900</v>
       </c>
       <c r="L125">
         <v>518904300</v>
@@ -6649,7 +6649,7 @@
         <v>-38419000</v>
       </c>
       <c r="P125">
-        <v>-345026729000</v>
+        <v>-406919074700</v>
       </c>
     </row>
     <row r="126">
@@ -6684,7 +6684,7 @@
         <v>2023-01-04T14:38:00.000Z</v>
       </c>
       <c r="K126">
-        <v>8580013197000</v>
+        <v>7755644490900</v>
       </c>
       <c r="L126">
         <v>518907300</v>
@@ -6699,7 +6699,7 @@
         <v>-38416000</v>
       </c>
       <c r="P126">
-        <v>-344987129000</v>
+        <v>-406879474700</v>
       </c>
     </row>
     <row r="127">
@@ -6734,7 +6734,7 @@
         <v>2023-01-04T14:40:00.000Z</v>
       </c>
       <c r="K127">
-        <v>8580015837000</v>
+        <v>7755647130900</v>
       </c>
       <c r="L127">
         <v>518907500</v>
@@ -6749,7 +6749,7 @@
         <v>-38415800</v>
       </c>
       <c r="P127">
-        <v>-344984489000</v>
+        <v>-406876834700</v>
       </c>
     </row>
     <row r="128">
@@ -6766,25 +6766,25 @@
         <v>21122400</v>
       </c>
       <c r="E128">
-        <v>21964489000</v>
+        <v>16184774500</v>
       </c>
       <c r="F128">
-        <v>45418721000</v>
+        <v>23263298600</v>
       </c>
       <c r="G128">
-        <v>378365769000</v>
+        <v>300446366400</v>
       </c>
       <c r="H128">
         <v>24202300</v>
       </c>
       <c r="I128">
-        <v>445748979000</v>
+        <v>339894439500</v>
       </c>
       <c r="J128" t="str">
         <v>2023-01-04T14:44:00.000Z</v>
       </c>
       <c r="K128">
-        <v>9025764816000</v>
+        <v>8095541570400</v>
       </c>
       <c r="L128">
         <v>543109800</v>
@@ -6793,13 +6793,13 @@
         <v>-47700</v>
       </c>
       <c r="N128">
-        <v>23454232000</v>
+        <v>7078524100</v>
       </c>
       <c r="O128">
         <v>-38463500</v>
       </c>
       <c r="P128">
-        <v>-321530257000</v>
+        <v>-399798310600</v>
       </c>
     </row>
     <row r="129">
@@ -6834,7 +6834,7 @@
         <v>2023-01-04T14:46:00.000Z</v>
       </c>
       <c r="K129">
-        <v>9025891536000</v>
+        <v>8095668290400</v>
       </c>
       <c r="L129">
         <v>543119400</v>
@@ -6849,7 +6849,7 @@
         <v>-38467500</v>
       </c>
       <c r="P129">
-        <v>-321583057000</v>
+        <v>-399851110600</v>
       </c>
     </row>
     <row r="130">
@@ -6884,7 +6884,7 @@
         <v>2023-01-04T14:48:00.000Z</v>
       </c>
       <c r="K130">
-        <v>9025894176000</v>
+        <v>8095670930400</v>
       </c>
       <c r="L130">
         <v>543119600</v>
@@ -6899,7 +6899,7 @@
         <v>-38467700</v>
       </c>
       <c r="P130">
-        <v>-321585697000</v>
+        <v>-399853750600</v>
       </c>
     </row>
     <row r="131">
@@ -6934,7 +6934,7 @@
         <v>2023-01-04T14:50:00.000Z</v>
       </c>
       <c r="K131">
-        <v>9025907376000</v>
+        <v>8095684130400</v>
       </c>
       <c r="L131">
         <v>543120600</v>
@@ -6949,7 +6949,7 @@
         <v>-38468700</v>
       </c>
       <c r="P131">
-        <v>-321598897000</v>
+        <v>-399866950600</v>
       </c>
     </row>
     <row r="132">
@@ -6984,7 +6984,7 @@
         <v>2023-01-04T14:56:00.000Z</v>
       </c>
       <c r="K132">
-        <v>9025911336000</v>
+        <v>8095688090400</v>
       </c>
       <c r="L132">
         <v>543120900</v>
@@ -6999,7 +6999,7 @@
         <v>-38469000</v>
       </c>
       <c r="P132">
-        <v>-321602857000</v>
+        <v>-399870910600</v>
       </c>
     </row>
   </sheetData>

--- a/name/vnindex/20230104/VNINDEX_HOSE_5p_20230104.xlsx
+++ b/name/vnindex/20230104/VNINDEX_HOSE_5p_20230104.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P132"/>
+  <dimension ref="A1:AC132"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -451,6 +451,45 @@
       <c r="P1" t="str">
         <v>acum_busd_val</v>
       </c>
+      <c r="Q1" t="str">
+        <v>acum_val_bu</v>
+      </c>
+      <c r="R1" t="str">
+        <v>acum_val_sd</v>
+      </c>
+      <c r="S1" t="str">
+        <v>accum_bu</v>
+      </c>
+      <c r="T1" t="str">
+        <v>accum_sd</v>
+      </c>
+      <c r="U1" t="str">
+        <v>avg_val_bu</v>
+      </c>
+      <c r="V1" t="str">
+        <v>avg_val_sd</v>
+      </c>
+      <c r="W1" t="str">
+        <v>avg_val</v>
+      </c>
+      <c r="X1" t="str">
+        <v>avg_vol</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>avg_bu</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>avg_sd</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>avg_busd</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>avg_busd_val</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>rbusd</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -501,6 +540,45 @@
       <c r="P2">
         <v>3900</v>
       </c>
+      <c r="Q2">
+        <v>3900</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>300</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V2">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W2">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X2">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y2">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z2">
+        <v>2093274</v>
+      </c>
+      <c r="AA2">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB2">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -551,6 +629,45 @@
       <c r="P3">
         <v>3900</v>
       </c>
+      <c r="Q3">
+        <v>3900</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>300</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V3">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W3">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X3">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y3">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z3">
+        <v>2093274</v>
+      </c>
+      <c r="AA3">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB3">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -601,6 +718,45 @@
       <c r="P4">
         <v>1323900</v>
       </c>
+      <c r="Q4">
+        <v>1323900</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>400</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V4">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W4">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X4">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y4">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z4">
+        <v>2093274</v>
+      </c>
+      <c r="AA4">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB4">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -651,6 +807,45 @@
       <c r="P5">
         <v>14423900</v>
       </c>
+      <c r="Q5">
+        <v>14423900</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1400</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V5">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W5">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X5">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y5">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z5">
+        <v>2093274</v>
+      </c>
+      <c r="AA5">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB5">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -701,6 +896,45 @@
       <c r="P6">
         <v>34073900</v>
       </c>
+      <c r="Q6">
+        <v>34073900</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>2900</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V6">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W6">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X6">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y6">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z6">
+        <v>2093274</v>
+      </c>
+      <c r="AA6">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB6">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -751,6 +985,45 @@
       <c r="P7">
         <v>47933620000</v>
       </c>
+      <c r="Q7">
+        <v>99050182300</v>
+      </c>
+      <c r="R7">
+        <v>51116562300</v>
+      </c>
+      <c r="S7">
+        <v>7261800</v>
+      </c>
+      <c r="T7">
+        <v>3534800</v>
+      </c>
+      <c r="U7">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V7">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W7">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X7">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y7">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z7">
+        <v>2093274</v>
+      </c>
+      <c r="AA7">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB7">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC7">
+        <v>15.7</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -801,6 +1074,45 @@
       <c r="P8">
         <v>90175154800</v>
       </c>
+      <c r="Q8">
+        <v>173565273000</v>
+      </c>
+      <c r="R8">
+        <v>83390118200</v>
+      </c>
+      <c r="S8">
+        <v>12418900</v>
+      </c>
+      <c r="T8">
+        <v>5838500</v>
+      </c>
+      <c r="U8">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V8">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W8">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X8">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y8">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z8">
+        <v>2093274</v>
+      </c>
+      <c r="AA8">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB8">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC8">
+        <v>13.8</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -851,6 +1163,45 @@
       <c r="P9">
         <v>100070510700</v>
       </c>
+      <c r="Q9">
+        <v>227006146000</v>
+      </c>
+      <c r="R9">
+        <v>126935635300</v>
+      </c>
+      <c r="S9">
+        <v>16452400</v>
+      </c>
+      <c r="T9">
+        <v>8806400</v>
+      </c>
+      <c r="U9">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V9">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W9">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X9">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y9">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z9">
+        <v>2093274</v>
+      </c>
+      <c r="AA9">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB9">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC9">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -901,6 +1252,45 @@
       <c r="P10">
         <v>132720203100</v>
       </c>
+      <c r="Q10">
+        <v>298567986900</v>
+      </c>
+      <c r="R10">
+        <v>165847783800</v>
+      </c>
+      <c r="S10">
+        <v>22579700</v>
+      </c>
+      <c r="T10">
+        <v>11671400</v>
+      </c>
+      <c r="U10">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V10">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W10">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X10">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y10">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z10">
+        <v>2093274</v>
+      </c>
+      <c r="AA10">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB10">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC10">
+        <v>10.7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -951,6 +1341,45 @@
       <c r="P11">
         <v>157010641100</v>
       </c>
+      <c r="Q11">
+        <v>358254148700</v>
+      </c>
+      <c r="R11">
+        <v>201243507600</v>
+      </c>
+      <c r="S11">
+        <v>26888500</v>
+      </c>
+      <c r="T11">
+        <v>14516400</v>
+      </c>
+      <c r="U11">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V11">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W11">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X11">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y11">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z11">
+        <v>2093274</v>
+      </c>
+      <c r="AA11">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB11">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC11">
+        <v>8</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -1001,6 +1430,45 @@
       <c r="P12">
         <v>177982683700</v>
       </c>
+      <c r="Q12">
+        <v>414800187500</v>
+      </c>
+      <c r="R12">
+        <v>236817503800</v>
+      </c>
+      <c r="S12">
+        <v>30688800</v>
+      </c>
+      <c r="T12">
+        <v>17036900</v>
+      </c>
+      <c r="U12">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V12">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W12">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X12">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y12">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z12">
+        <v>2093274</v>
+      </c>
+      <c r="AA12">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB12">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC12">
+        <v>6.9</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -1051,6 +1519,45 @@
       <c r="P13">
         <v>242382528400</v>
       </c>
+      <c r="Q13">
+        <v>507301576700</v>
+      </c>
+      <c r="R13">
+        <v>264919048300</v>
+      </c>
+      <c r="S13">
+        <v>37322700</v>
+      </c>
+      <c r="T13">
+        <v>19183500</v>
+      </c>
+      <c r="U13">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V13">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W13">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X13">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y13">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z13">
+        <v>2093274</v>
+      </c>
+      <c r="AA13">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB13">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC13">
+        <v>21.1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -1101,6 +1608,45 @@
       <c r="P14">
         <v>289548137900</v>
       </c>
+      <c r="Q14">
+        <v>591301796600</v>
+      </c>
+      <c r="R14">
+        <v>301753658700</v>
+      </c>
+      <c r="S14">
+        <v>42612000</v>
+      </c>
+      <c r="T14">
+        <v>21804100</v>
+      </c>
+      <c r="U14">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V14">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W14">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X14">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y14">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z14">
+        <v>2093274</v>
+      </c>
+      <c r="AA14">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB14">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC14">
+        <v>15.5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -1151,6 +1697,45 @@
       <c r="P15">
         <v>314812528100</v>
       </c>
+      <c r="Q15">
+        <v>670205145600</v>
+      </c>
+      <c r="R15">
+        <v>355392617500</v>
+      </c>
+      <c r="S15">
+        <v>47463100</v>
+      </c>
+      <c r="T15">
+        <v>25532600</v>
+      </c>
+      <c r="U15">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V15">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W15">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X15">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y15">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z15">
+        <v>2093274</v>
+      </c>
+      <c r="AA15">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB15">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC15">
+        <v>8.3</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -1201,6 +1786,45 @@
       <c r="P16">
         <v>331704806900</v>
       </c>
+      <c r="Q16">
+        <v>747894815000</v>
+      </c>
+      <c r="R16">
+        <v>416190008100</v>
+      </c>
+      <c r="S16">
+        <v>51853100</v>
+      </c>
+      <c r="T16">
+        <v>29364000</v>
+      </c>
+      <c r="U16">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V16">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W16">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X16">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y16">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z16">
+        <v>2093274</v>
+      </c>
+      <c r="AA16">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB16">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC16">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -1251,6 +1875,45 @@
       <c r="P17">
         <v>332751305700</v>
       </c>
+      <c r="Q17">
+        <v>804751071600</v>
+      </c>
+      <c r="R17">
+        <v>471999765900</v>
+      </c>
+      <c r="S17">
+        <v>55071100</v>
+      </c>
+      <c r="T17">
+        <v>32849700</v>
+      </c>
+      <c r="U17">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V17">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W17">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X17">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y17">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z17">
+        <v>2093274</v>
+      </c>
+      <c r="AA17">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB17">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC17">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -1301,6 +1964,45 @@
       <c r="P18">
         <v>311167010700</v>
       </c>
+      <c r="Q18">
+        <v>843563809800</v>
+      </c>
+      <c r="R18">
+        <v>532396799100</v>
+      </c>
+      <c r="S18">
+        <v>57491200</v>
+      </c>
+      <c r="T18">
+        <v>37368600</v>
+      </c>
+      <c r="U18">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V18">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W18">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X18">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y18">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z18">
+        <v>2093274</v>
+      </c>
+      <c r="AA18">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB18">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC18">
+        <v>7.1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -1351,6 +2053,45 @@
       <c r="P19">
         <v>274933796000</v>
       </c>
+      <c r="Q19">
+        <v>870488765700</v>
+      </c>
+      <c r="R19">
+        <v>595554969700</v>
+      </c>
+      <c r="S19">
+        <v>59289100</v>
+      </c>
+      <c r="T19">
+        <v>42294300</v>
+      </c>
+      <c r="U19">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V19">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W19">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X19">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y19">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z19">
+        <v>2093274</v>
+      </c>
+      <c r="AA19">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB19">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC19">
+        <v>11.9</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -1401,6 +2142,45 @@
       <c r="P20">
         <v>240929827600</v>
       </c>
+      <c r="Q20">
+        <v>892863638800</v>
+      </c>
+      <c r="R20">
+        <v>651933811200</v>
+      </c>
+      <c r="S20">
+        <v>60661800</v>
+      </c>
+      <c r="T20">
+        <v>45882200</v>
+      </c>
+      <c r="U20">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V20">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W20">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X20">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y20">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z20">
+        <v>2093274</v>
+      </c>
+      <c r="AA20">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB20">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC20">
+        <v>11.1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -1451,6 +2231,45 @@
       <c r="P21">
         <v>186122639500</v>
       </c>
+      <c r="Q21">
+        <v>917249204800</v>
+      </c>
+      <c r="R21">
+        <v>731126565300</v>
+      </c>
+      <c r="S21">
+        <v>62234400</v>
+      </c>
+      <c r="T21">
+        <v>52164700</v>
+      </c>
+      <c r="U21">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V21">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W21">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X21">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y21">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z21">
+        <v>2093274</v>
+      </c>
+      <c r="AA21">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB21">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC21">
+        <v>18</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -1501,6 +2320,45 @@
       <c r="P22">
         <v>162860962000</v>
       </c>
+      <c r="Q22">
+        <v>944944345500</v>
+      </c>
+      <c r="R22">
+        <v>782083383500</v>
+      </c>
+      <c r="S22">
+        <v>63933100</v>
+      </c>
+      <c r="T22">
+        <v>55561200</v>
+      </c>
+      <c r="U22">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V22">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W22">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X22">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y22">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z22">
+        <v>2093274</v>
+      </c>
+      <c r="AA22">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB22">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC22">
+        <v>7.6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -1551,6 +2409,45 @@
       <c r="P23">
         <v>139559499900</v>
       </c>
+      <c r="Q23">
+        <v>968876641200</v>
+      </c>
+      <c r="R23">
+        <v>829317141300</v>
+      </c>
+      <c r="S23">
+        <v>65249400</v>
+      </c>
+      <c r="T23">
+        <v>58717500</v>
+      </c>
+      <c r="U23">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V23">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W23">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X23">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y23">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z23">
+        <v>2093274</v>
+      </c>
+      <c r="AA23">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB23">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC23">
+        <v>7.6</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -1601,6 +2498,45 @@
       <c r="P24">
         <v>131422394600</v>
       </c>
+      <c r="Q24">
+        <v>996643450800</v>
+      </c>
+      <c r="R24">
+        <v>865221056200</v>
+      </c>
+      <c r="S24">
+        <v>67226000</v>
+      </c>
+      <c r="T24">
+        <v>61021300</v>
+      </c>
+      <c r="U24">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V24">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W24">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X24">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y24">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z24">
+        <v>2093274</v>
+      </c>
+      <c r="AA24">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB24">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC24">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -1651,6 +2587,45 @@
       <c r="P25">
         <v>120693151500</v>
       </c>
+      <c r="Q25">
+        <v>1021969874100</v>
+      </c>
+      <c r="R25">
+        <v>901276722600</v>
+      </c>
+      <c r="S25">
+        <v>69255700</v>
+      </c>
+      <c r="T25">
+        <v>63333000</v>
+      </c>
+      <c r="U25">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V25">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W25">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X25">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y25">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z25">
+        <v>2093274</v>
+      </c>
+      <c r="AA25">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB25">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC25">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -1701,6 +2676,45 @@
       <c r="P26">
         <v>70324510100</v>
       </c>
+      <c r="Q26">
+        <v>1040409566300</v>
+      </c>
+      <c r="R26">
+        <v>970085056200</v>
+      </c>
+      <c r="S26">
+        <v>70543100</v>
+      </c>
+      <c r="T26">
+        <v>67989000</v>
+      </c>
+      <c r="U26">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V26">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W26">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X26">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y26">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z26">
+        <v>2093274</v>
+      </c>
+      <c r="AA26">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB26">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC26">
+        <v>16.5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -1751,6 +2765,45 @@
       <c r="P27">
         <v>16589610400</v>
       </c>
+      <c r="Q27">
+        <v>1059376877400</v>
+      </c>
+      <c r="R27">
+        <v>1042787267000</v>
+      </c>
+      <c r="S27">
+        <v>71662000</v>
+      </c>
+      <c r="T27">
+        <v>72580400</v>
+      </c>
+      <c r="U27">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V27">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W27">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X27">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y27">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z27">
+        <v>2093274</v>
+      </c>
+      <c r="AA27">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB27">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC27">
+        <v>17.6</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -1801,6 +2854,45 @@
       <c r="P28">
         <v>-3244593400</v>
       </c>
+      <c r="Q28">
+        <v>1077891649400</v>
+      </c>
+      <c r="R28">
+        <v>1081136242800</v>
+      </c>
+      <c r="S28">
+        <v>72884900</v>
+      </c>
+      <c r="T28">
+        <v>75370300</v>
+      </c>
+      <c r="U28">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V28">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W28">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X28">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y28">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z28">
+        <v>2093274</v>
+      </c>
+      <c r="AA28">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB28">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC28">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -1851,6 +2943,45 @@
       <c r="P29">
         <v>-24438801400</v>
       </c>
+      <c r="Q29">
+        <v>1099883873500</v>
+      </c>
+      <c r="R29">
+        <v>1124322674900</v>
+      </c>
+      <c r="S29">
+        <v>74039400</v>
+      </c>
+      <c r="T29">
+        <v>78466600</v>
+      </c>
+      <c r="U29">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V29">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W29">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X29">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y29">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z29">
+        <v>2093274</v>
+      </c>
+      <c r="AA29">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB29">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC29">
+        <v>6.9</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -1901,6 +3032,45 @@
       <c r="P30">
         <v>-28430038300</v>
       </c>
+      <c r="Q30">
+        <v>1127511800100</v>
+      </c>
+      <c r="R30">
+        <v>1155941838400</v>
+      </c>
+      <c r="S30">
+        <v>75988000</v>
+      </c>
+      <c r="T30">
+        <v>80537500</v>
+      </c>
+      <c r="U30">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V30">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W30">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X30">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y30">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z30">
+        <v>2093274</v>
+      </c>
+      <c r="AA30">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB30">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC30">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -1951,6 +3121,45 @@
       <c r="P31">
         <v>20228368400</v>
       </c>
+      <c r="Q31">
+        <v>1195919612500</v>
+      </c>
+      <c r="R31">
+        <v>1175691244100</v>
+      </c>
+      <c r="S31">
+        <v>80937900</v>
+      </c>
+      <c r="T31">
+        <v>81995600</v>
+      </c>
+      <c r="U31">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V31">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W31">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X31">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y31">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z31">
+        <v>2093274</v>
+      </c>
+      <c r="AA31">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB31">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC31">
+        <v>15.9</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -2001,6 +3210,45 @@
       <c r="P32">
         <v>96489214800</v>
       </c>
+      <c r="Q32">
+        <v>1294700736900</v>
+      </c>
+      <c r="R32">
+        <v>1198211522100</v>
+      </c>
+      <c r="S32">
+        <v>87886200</v>
+      </c>
+      <c r="T32">
+        <v>83349500</v>
+      </c>
+      <c r="U32">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V32">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W32">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X32">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y32">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z32">
+        <v>2093274</v>
+      </c>
+      <c r="AA32">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB32">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC32">
+        <v>25</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -2051,6 +3299,45 @@
       <c r="P33">
         <v>110442662300</v>
       </c>
+      <c r="Q33">
+        <v>1341318981300</v>
+      </c>
+      <c r="R33">
+        <v>1230876319000</v>
+      </c>
+      <c r="S33">
+        <v>90793200</v>
+      </c>
+      <c r="T33">
+        <v>85460900</v>
+      </c>
+      <c r="U33">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V33">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W33">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X33">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y33">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z33">
+        <v>2093274</v>
+      </c>
+      <c r="AA33">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB33">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC33">
+        <v>4.6</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -2101,6 +3388,45 @@
       <c r="P34">
         <v>116890166000</v>
       </c>
+      <c r="Q34">
+        <v>1373738266800</v>
+      </c>
+      <c r="R34">
+        <v>1256848100800</v>
+      </c>
+      <c r="S34">
+        <v>93321500</v>
+      </c>
+      <c r="T34">
+        <v>87203700</v>
+      </c>
+      <c r="U34">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V34">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W34">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X34">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y34">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z34">
+        <v>2093274</v>
+      </c>
+      <c r="AA34">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB34">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC34">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -2151,6 +3477,45 @@
       <c r="P35">
         <v>96806320200</v>
       </c>
+      <c r="Q35">
+        <v>1395710342000</v>
+      </c>
+      <c r="R35">
+        <v>1298904021800</v>
+      </c>
+      <c r="S35">
+        <v>94772700</v>
+      </c>
+      <c r="T35">
+        <v>90236700</v>
+      </c>
+      <c r="U35">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V35">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W35">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X35">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y35">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z35">
+        <v>2093274</v>
+      </c>
+      <c r="AA35">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB35">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC35">
+        <v>6.6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -2201,6 +3566,45 @@
       <c r="P36">
         <v>94913413900</v>
       </c>
+      <c r="Q36">
+        <v>1417290026300</v>
+      </c>
+      <c r="R36">
+        <v>1322376612400</v>
+      </c>
+      <c r="S36">
+        <v>95958600</v>
+      </c>
+      <c r="T36">
+        <v>92160300</v>
+      </c>
+      <c r="U36">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V36">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W36">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X36">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y36">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z36">
+        <v>2093274</v>
+      </c>
+      <c r="AA36">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB36">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC36">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -2251,6 +3655,45 @@
       <c r="P37">
         <v>104133744400</v>
       </c>
+      <c r="Q37">
+        <v>1447827815100</v>
+      </c>
+      <c r="R37">
+        <v>1343694070700</v>
+      </c>
+      <c r="S37">
+        <v>97883200</v>
+      </c>
+      <c r="T37">
+        <v>93820200</v>
+      </c>
+      <c r="U37">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V37">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W37">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X37">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y37">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z37">
+        <v>2093274</v>
+      </c>
+      <c r="AA37">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB37">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC37">
+        <v>3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -2301,6 +3744,45 @@
       <c r="P38">
         <v>84753962100</v>
       </c>
+      <c r="Q38">
+        <v>1461628197200</v>
+      </c>
+      <c r="R38">
+        <v>1376874235100</v>
+      </c>
+      <c r="S38">
+        <v>98795300</v>
+      </c>
+      <c r="T38">
+        <v>95852500</v>
+      </c>
+      <c r="U38">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V38">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W38">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X38">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y38">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z38">
+        <v>2093274</v>
+      </c>
+      <c r="AA38">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB38">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC38">
+        <v>6.3</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -2351,6 +3833,45 @@
       <c r="P39">
         <v>69743454000</v>
       </c>
+      <c r="Q39">
+        <v>1474513771600</v>
+      </c>
+      <c r="R39">
+        <v>1404770317600</v>
+      </c>
+      <c r="S39">
+        <v>99552200</v>
+      </c>
+      <c r="T39">
+        <v>97564900</v>
+      </c>
+      <c r="U39">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V39">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W39">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X39">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y39">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z39">
+        <v>2093274</v>
+      </c>
+      <c r="AA39">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB39">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC39">
+        <v>4.9</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -2401,6 +3922,45 @@
       <c r="P40">
         <v>41696318300</v>
       </c>
+      <c r="Q40">
+        <v>1493839093100</v>
+      </c>
+      <c r="R40">
+        <v>1452142774800</v>
+      </c>
+      <c r="S40">
+        <v>100799700</v>
+      </c>
+      <c r="T40">
+        <v>101428400</v>
+      </c>
+      <c r="U40">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V40">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W40">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X40">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y40">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z40">
+        <v>2093274</v>
+      </c>
+      <c r="AA40">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB40">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC40">
+        <v>9.2</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -2451,6 +4011,45 @@
       <c r="P41">
         <v>18785673200</v>
       </c>
+      <c r="Q41">
+        <v>1508054482800</v>
+      </c>
+      <c r="R41">
+        <v>1489268809600</v>
+      </c>
+      <c r="S41">
+        <v>101727300</v>
+      </c>
+      <c r="T41">
+        <v>104240300</v>
+      </c>
+      <c r="U41">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V41">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W41">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X41">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y41">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z41">
+        <v>2093274</v>
+      </c>
+      <c r="AA41">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB41">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC41">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -2501,6 +4100,45 @@
       <c r="P42">
         <v>6078480300</v>
       </c>
+      <c r="Q42">
+        <v>1529304805500</v>
+      </c>
+      <c r="R42">
+        <v>1523226325200</v>
+      </c>
+      <c r="S42">
+        <v>103066000</v>
+      </c>
+      <c r="T42">
+        <v>106393900</v>
+      </c>
+      <c r="U42">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V42">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W42">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X42">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y42">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z42">
+        <v>2093274</v>
+      </c>
+      <c r="AA42">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB42">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC42">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -2551,6 +4189,45 @@
       <c r="P43">
         <v>13197755000</v>
       </c>
+      <c r="Q43">
+        <v>1558218842500</v>
+      </c>
+      <c r="R43">
+        <v>1545021087500</v>
+      </c>
+      <c r="S43">
+        <v>104746300</v>
+      </c>
+      <c r="T43">
+        <v>108008000</v>
+      </c>
+      <c r="U43">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V43">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W43">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X43">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y43">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z43">
+        <v>2093274</v>
+      </c>
+      <c r="AA43">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB43">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC43">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -2601,6 +4278,45 @@
       <c r="P44">
         <v>44748298500</v>
       </c>
+      <c r="Q44">
+        <v>1607649642400</v>
+      </c>
+      <c r="R44">
+        <v>1562901343900</v>
+      </c>
+      <c r="S44">
+        <v>107405800</v>
+      </c>
+      <c r="T44">
+        <v>109213600</v>
+      </c>
+      <c r="U44">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V44">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W44">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X44">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y44">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z44">
+        <v>2093274</v>
+      </c>
+      <c r="AA44">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB44">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC44">
+        <v>10.3</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -2651,6 +4367,45 @@
       <c r="P45">
         <v>62297858200</v>
       </c>
+      <c r="Q45">
+        <v>1644533323200</v>
+      </c>
+      <c r="R45">
+        <v>1582235465000</v>
+      </c>
+      <c r="S45">
+        <v>109548300</v>
+      </c>
+      <c r="T45">
+        <v>110332500</v>
+      </c>
+      <c r="U45">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V45">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W45">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X45">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y45">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z45">
+        <v>2093274</v>
+      </c>
+      <c r="AA45">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB45">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC45">
+        <v>5.7</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -2701,6 +4456,45 @@
       <c r="P46">
         <v>99967018000</v>
       </c>
+      <c r="Q46">
+        <v>1697215086300</v>
+      </c>
+      <c r="R46">
+        <v>1597248068300</v>
+      </c>
+      <c r="S46">
+        <v>112573600</v>
+      </c>
+      <c r="T46">
+        <v>111219800</v>
+      </c>
+      <c r="U46">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V46">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W46">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X46">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y46">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z46">
+        <v>2093274</v>
+      </c>
+      <c r="AA46">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB46">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC46">
+        <v>12.3</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -2751,6 +4545,45 @@
       <c r="P47">
         <v>110192585000</v>
       </c>
+      <c r="Q47">
+        <v>1721225800500</v>
+      </c>
+      <c r="R47">
+        <v>1611033215500</v>
+      </c>
+      <c r="S47">
+        <v>114290700</v>
+      </c>
+      <c r="T47">
+        <v>112105900</v>
+      </c>
+      <c r="U47">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V47">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W47">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X47">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y47">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z47">
+        <v>2093274</v>
+      </c>
+      <c r="AA47">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB47">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC47">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -2801,6 +4634,45 @@
       <c r="P48">
         <v>129919766700</v>
       </c>
+      <c r="Q48">
+        <v>1762820887100</v>
+      </c>
+      <c r="R48">
+        <v>1632901120400</v>
+      </c>
+      <c r="S48">
+        <v>116698200</v>
+      </c>
+      <c r="T48">
+        <v>113448700</v>
+      </c>
+      <c r="U48">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V48">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W48">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X48">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y48">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z48">
+        <v>2093274</v>
+      </c>
+      <c r="AA48">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB48">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC48">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -2851,6 +4723,45 @@
       <c r="P49">
         <v>146829455200</v>
       </c>
+      <c r="Q49">
+        <v>1796300435900</v>
+      </c>
+      <c r="R49">
+        <v>1649470980700</v>
+      </c>
+      <c r="S49">
+        <v>119348900</v>
+      </c>
+      <c r="T49">
+        <v>114576600</v>
+      </c>
+      <c r="U49">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V49">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W49">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X49">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y49">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z49">
+        <v>2093274</v>
+      </c>
+      <c r="AA49">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB49">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC49">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -2901,6 +4812,45 @@
       <c r="P50">
         <v>173625370300</v>
       </c>
+      <c r="Q50">
+        <v>1848875714900</v>
+      </c>
+      <c r="R50">
+        <v>1675250344600</v>
+      </c>
+      <c r="S50">
+        <v>122830900</v>
+      </c>
+      <c r="T50">
+        <v>116330600</v>
+      </c>
+      <c r="U50">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V50">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W50">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X50">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y50">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z50">
+        <v>2093274</v>
+      </c>
+      <c r="AA50">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB50">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC50">
+        <v>8.8</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -2951,6 +4901,45 @@
       <c r="P51">
         <v>203411728100</v>
       </c>
+      <c r="Q51">
+        <v>1903496796100</v>
+      </c>
+      <c r="R51">
+        <v>1700085068000</v>
+      </c>
+      <c r="S51">
+        <v>126054100</v>
+      </c>
+      <c r="T51">
+        <v>117827600</v>
+      </c>
+      <c r="U51">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V51">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W51">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X51">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y51">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z51">
+        <v>2093274</v>
+      </c>
+      <c r="AA51">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB51">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC51">
+        <v>9.8</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -3001,6 +4990,45 @@
       <c r="P52">
         <v>213863682500</v>
       </c>
+      <c r="Q52">
+        <v>1938864523300</v>
+      </c>
+      <c r="R52">
+        <v>1725000840800</v>
+      </c>
+      <c r="S52">
+        <v>128029700</v>
+      </c>
+      <c r="T52">
+        <v>119386700</v>
+      </c>
+      <c r="U52">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V52">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W52">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X52">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y52">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z52">
+        <v>2093274</v>
+      </c>
+      <c r="AA52">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB52">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC52">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -3051,6 +5079,45 @@
       <c r="P53">
         <v>209338530200</v>
       </c>
+      <c r="Q53">
+        <v>1964537794600</v>
+      </c>
+      <c r="R53">
+        <v>1755199264400</v>
+      </c>
+      <c r="S53">
+        <v>129384300</v>
+      </c>
+      <c r="T53">
+        <v>121062300</v>
+      </c>
+      <c r="U53">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V53">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W53">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X53">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y53">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z53">
+        <v>2093274</v>
+      </c>
+      <c r="AA53">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB53">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC53">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -3101,6 +5168,45 @@
       <c r="P54">
         <v>204930352000</v>
       </c>
+      <c r="Q54">
+        <v>1991066509700</v>
+      </c>
+      <c r="R54">
+        <v>1786136157700</v>
+      </c>
+      <c r="S54">
+        <v>130837800</v>
+      </c>
+      <c r="T54">
+        <v>122842200</v>
+      </c>
+      <c r="U54">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V54">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W54">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X54">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y54">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z54">
+        <v>2093274</v>
+      </c>
+      <c r="AA54">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB54">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC54">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -3151,6 +5257,45 @@
       <c r="P55">
         <v>199446242900</v>
       </c>
+      <c r="Q55">
+        <v>2014327660700</v>
+      </c>
+      <c r="R55">
+        <v>1814881417800</v>
+      </c>
+      <c r="S55">
+        <v>132239600</v>
+      </c>
+      <c r="T55">
+        <v>124529900</v>
+      </c>
+      <c r="U55">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V55">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W55">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X55">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y55">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z55">
+        <v>2093274</v>
+      </c>
+      <c r="AA55">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB55">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC55">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -3201,6 +5346,45 @@
       <c r="P56">
         <v>213646279600</v>
       </c>
+      <c r="Q56">
+        <v>2050623855600</v>
+      </c>
+      <c r="R56">
+        <v>1836977576000</v>
+      </c>
+      <c r="S56">
+        <v>134016500</v>
+      </c>
+      <c r="T56">
+        <v>126295900</v>
+      </c>
+      <c r="U56">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V56">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W56">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X56">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y56">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z56">
+        <v>2093274</v>
+      </c>
+      <c r="AA56">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB56">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC56">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -3251,6 +5435,45 @@
       <c r="P57">
         <v>225739805200</v>
       </c>
+      <c r="Q57">
+        <v>2079306770600</v>
+      </c>
+      <c r="R57">
+        <v>1853566965400</v>
+      </c>
+      <c r="S57">
+        <v>135764900</v>
+      </c>
+      <c r="T57">
+        <v>127274700</v>
+      </c>
+      <c r="U57">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V57">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W57">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X57">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y57">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z57">
+        <v>2093274</v>
+      </c>
+      <c r="AA57">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB57">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC57">
+        <v>4</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -3301,6 +5524,45 @@
       <c r="P58">
         <v>217090955200</v>
       </c>
+      <c r="Q58">
+        <v>2097985689500</v>
+      </c>
+      <c r="R58">
+        <v>1880894734300</v>
+      </c>
+      <c r="S58">
+        <v>136799100</v>
+      </c>
+      <c r="T58">
+        <v>128982000</v>
+      </c>
+      <c r="U58">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V58">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W58">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X58">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y58">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z58">
+        <v>2093274</v>
+      </c>
+      <c r="AA58">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB58">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC58">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -3351,6 +5613,45 @@
       <c r="P59">
         <v>192770271600</v>
       </c>
+      <c r="Q59">
+        <v>2110383475000</v>
+      </c>
+      <c r="R59">
+        <v>1917613203400</v>
+      </c>
+      <c r="S59">
+        <v>137543000</v>
+      </c>
+      <c r="T59">
+        <v>131195600</v>
+      </c>
+      <c r="U59">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V59">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W59">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X59">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y59">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z59">
+        <v>2093274</v>
+      </c>
+      <c r="AA59">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB59">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC59">
+        <v>8</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -3401,6 +5702,45 @@
       <c r="P60">
         <v>138823039900</v>
       </c>
+      <c r="Q60">
+        <v>2118845175700</v>
+      </c>
+      <c r="R60">
+        <v>1980022135800</v>
+      </c>
+      <c r="S60">
+        <v>138191000</v>
+      </c>
+      <c r="T60">
+        <v>135049000</v>
+      </c>
+      <c r="U60">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V60">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W60">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X60">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y60">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z60">
+        <v>2093274</v>
+      </c>
+      <c r="AA60">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB60">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC60">
+        <v>17.7</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -3451,6 +5791,45 @@
       <c r="P61">
         <v>112654472300</v>
       </c>
+      <c r="Q61">
+        <v>2132536291900</v>
+      </c>
+      <c r="R61">
+        <v>2019881819600</v>
+      </c>
+      <c r="S61">
+        <v>139069000</v>
+      </c>
+      <c r="T61">
+        <v>137379700</v>
+      </c>
+      <c r="U61">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V61">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W61">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X61">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y61">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z61">
+        <v>2093274</v>
+      </c>
+      <c r="AA61">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB61">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC61">
+        <v>8.6</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -3501,6 +5880,45 @@
       <c r="P62">
         <v>106281600400</v>
       </c>
+      <c r="Q62">
+        <v>2147317904500</v>
+      </c>
+      <c r="R62">
+        <v>2041036304100</v>
+      </c>
+      <c r="S62">
+        <v>139926600</v>
+      </c>
+      <c r="T62">
+        <v>138787800</v>
+      </c>
+      <c r="U62">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V62">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W62">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X62">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y62">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z62">
+        <v>2093274</v>
+      </c>
+      <c r="AA62">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB62">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC62">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -3551,6 +5969,45 @@
       <c r="P63">
         <v>98405544500</v>
       </c>
+      <c r="Q63">
+        <v>2155412401300</v>
+      </c>
+      <c r="R63">
+        <v>2057006856800</v>
+      </c>
+      <c r="S63">
+        <v>140406600</v>
+      </c>
+      <c r="T63">
+        <v>139817600</v>
+      </c>
+      <c r="U63">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V63">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W63">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X63">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y63">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z63">
+        <v>2093274</v>
+      </c>
+      <c r="AA63">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB63">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC63">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -3601,6 +6058,45 @@
       <c r="P64">
         <v>88235346700</v>
       </c>
+      <c r="Q64">
+        <v>2167930551100</v>
+      </c>
+      <c r="R64">
+        <v>2079695204400</v>
+      </c>
+      <c r="S64">
+        <v>141081200</v>
+      </c>
+      <c r="T64">
+        <v>141070600</v>
+      </c>
+      <c r="U64">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V64">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W64">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X64">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y64">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z64">
+        <v>2093274</v>
+      </c>
+      <c r="AA64">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB64">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC64">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -3651,6 +6147,45 @@
       <c r="P65">
         <v>71154499500</v>
       </c>
+      <c r="Q65">
+        <v>2180784296100</v>
+      </c>
+      <c r="R65">
+        <v>2109629796600</v>
+      </c>
+      <c r="S65">
+        <v>141994700</v>
+      </c>
+      <c r="T65">
+        <v>143052600</v>
+      </c>
+      <c r="U65">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V65">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W65">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X65">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y65">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z65">
+        <v>2093274</v>
+      </c>
+      <c r="AA65">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB65">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC65">
+        <v>5.6</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -3701,6 +6236,45 @@
       <c r="P66">
         <v>60707858300</v>
       </c>
+      <c r="Q66">
+        <v>2192723612800</v>
+      </c>
+      <c r="R66">
+        <v>2132015754500</v>
+      </c>
+      <c r="S66">
+        <v>142764400</v>
+      </c>
+      <c r="T66">
+        <v>144701600</v>
+      </c>
+      <c r="U66">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V66">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W66">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X66">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y66">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z66">
+        <v>2093274</v>
+      </c>
+      <c r="AA66">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB66">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC66">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -3751,6 +6325,45 @@
       <c r="P67">
         <v>61931899800</v>
       </c>
+      <c r="Q67">
+        <v>2210395264400</v>
+      </c>
+      <c r="R67">
+        <v>2148463364600</v>
+      </c>
+      <c r="S67">
+        <v>143767700</v>
+      </c>
+      <c r="T67">
+        <v>146122400</v>
+      </c>
+      <c r="U67">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V67">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W67">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X67">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y67">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z67">
+        <v>2093274</v>
+      </c>
+      <c r="AA67">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB67">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC67">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -3801,6 +6414,45 @@
       <c r="P68">
         <v>38668917200</v>
       </c>
+      <c r="Q68">
+        <v>2220868799500</v>
+      </c>
+      <c r="R68">
+        <v>2182199882300</v>
+      </c>
+      <c r="S68">
+        <v>144418800</v>
+      </c>
+      <c r="T68">
+        <v>147937000</v>
+      </c>
+      <c r="U68">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V68">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W68">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X68">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y68">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z68">
+        <v>2093274</v>
+      </c>
+      <c r="AA68">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB68">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC68">
+        <v>7.6</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -3851,6 +6503,45 @@
       <c r="P69">
         <v>11560357000</v>
       </c>
+      <c r="Q69">
+        <v>2227941221300</v>
+      </c>
+      <c r="R69">
+        <v>2216380864300</v>
+      </c>
+      <c r="S69">
+        <v>144862100</v>
+      </c>
+      <c r="T69">
+        <v>149960300</v>
+      </c>
+      <c r="U69">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V69">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W69">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X69">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y69">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z69">
+        <v>2093274</v>
+      </c>
+      <c r="AA69">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB69">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC69">
+        <v>8.9</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -3901,6 +6592,45 @@
       <c r="P70">
         <v>3496794000</v>
       </c>
+      <c r="Q70">
+        <v>2239745568100</v>
+      </c>
+      <c r="R70">
+        <v>2236248774100</v>
+      </c>
+      <c r="S70">
+        <v>145538700</v>
+      </c>
+      <c r="T70">
+        <v>151572900</v>
+      </c>
+      <c r="U70">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V70">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W70">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X70">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y70">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z70">
+        <v>2093274</v>
+      </c>
+      <c r="AA70">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB70">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC70">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -3951,6 +6681,45 @@
       <c r="P71">
         <v>-141713200</v>
       </c>
+      <c r="Q71">
+        <v>2257173822400</v>
+      </c>
+      <c r="R71">
+        <v>2257315535600</v>
+      </c>
+      <c r="S71">
+        <v>146556600</v>
+      </c>
+      <c r="T71">
+        <v>153241800</v>
+      </c>
+      <c r="U71">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V71">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W71">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X71">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y71">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z71">
+        <v>2093274</v>
+      </c>
+      <c r="AA71">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB71">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC71">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -4001,6 +6770,45 @@
       <c r="P72">
         <v>-1692236000</v>
       </c>
+      <c r="Q72">
+        <v>2272289748000</v>
+      </c>
+      <c r="R72">
+        <v>2273981984000</v>
+      </c>
+      <c r="S72">
+        <v>147382300</v>
+      </c>
+      <c r="T72">
+        <v>154348600</v>
+      </c>
+      <c r="U72">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V72">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W72">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X72">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y72">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z72">
+        <v>2093274</v>
+      </c>
+      <c r="AA72">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB72">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC72">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -4051,6 +6859,45 @@
       <c r="P73">
         <v>-15673117500</v>
       </c>
+      <c r="Q73">
+        <v>2280573084400</v>
+      </c>
+      <c r="R73">
+        <v>2296246201900</v>
+      </c>
+      <c r="S73">
+        <v>147833800</v>
+      </c>
+      <c r="T73">
+        <v>155906200</v>
+      </c>
+      <c r="U73">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V73">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W73">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X73">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y73">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z73">
+        <v>2093274</v>
+      </c>
+      <c r="AA73">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB73">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC73">
+        <v>4.6</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -4101,6 +6948,45 @@
       <c r="P74">
         <v>-19411608300</v>
       </c>
+      <c r="Q74">
+        <v>2295503100100</v>
+      </c>
+      <c r="R74">
+        <v>2314914708400</v>
+      </c>
+      <c r="S74">
+        <v>148745700</v>
+      </c>
+      <c r="T74">
+        <v>157077000</v>
+      </c>
+      <c r="U74">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V74">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W74">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X74">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y74">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z74">
+        <v>2093274</v>
+      </c>
+      <c r="AA74">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB74">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC74">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -4151,6 +7037,45 @@
       <c r="P75">
         <v>-19410984300</v>
       </c>
+      <c r="Q75">
+        <v>2295503724100</v>
+      </c>
+      <c r="R75">
+        <v>2314914708400</v>
+      </c>
+      <c r="S75">
+        <v>148746000</v>
+      </c>
+      <c r="T75">
+        <v>157077000</v>
+      </c>
+      <c r="U75">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V75">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W75">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X75">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y75">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z75">
+        <v>2093274</v>
+      </c>
+      <c r="AA75">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB75">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -4201,6 +7126,45 @@
       <c r="P76">
         <v>-19786158900</v>
       </c>
+      <c r="Q76">
+        <v>2295780879500</v>
+      </c>
+      <c r="R76">
+        <v>2315567038400</v>
+      </c>
+      <c r="S76">
+        <v>148761700</v>
+      </c>
+      <c r="T76">
+        <v>157119100</v>
+      </c>
+      <c r="U76">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V76">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W76">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X76">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y76">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z76">
+        <v>2093274</v>
+      </c>
+      <c r="AA76">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB76">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC76">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -4251,6 +7215,45 @@
       <c r="P77">
         <v>-61251899000</v>
       </c>
+      <c r="Q77">
+        <v>2329553941700</v>
+      </c>
+      <c r="R77">
+        <v>2390805840700</v>
+      </c>
+      <c r="S77">
+        <v>151115100</v>
+      </c>
+      <c r="T77">
+        <v>162359400</v>
+      </c>
+      <c r="U77">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V77">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W77">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X77">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y77">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z77">
+        <v>2093274</v>
+      </c>
+      <c r="AA77">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB77">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC77">
+        <v>13.6</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -4301,6 +7304,45 @@
       <c r="P78">
         <v>-83265369900</v>
       </c>
+      <c r="Q78">
+        <v>2342742033600</v>
+      </c>
+      <c r="R78">
+        <v>2426007403500</v>
+      </c>
+      <c r="S78">
+        <v>152188800</v>
+      </c>
+      <c r="T78">
+        <v>165112400</v>
+      </c>
+      <c r="U78">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V78">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W78">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X78">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y78">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z78">
+        <v>2093274</v>
+      </c>
+      <c r="AA78">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB78">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC78">
+        <v>7.2</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -4351,6 +7393,45 @@
       <c r="P79">
         <v>-86195577800</v>
       </c>
+      <c r="Q79">
+        <v>2369474778500</v>
+      </c>
+      <c r="R79">
+        <v>2455670356300</v>
+      </c>
+      <c r="S79">
+        <v>154028400</v>
+      </c>
+      <c r="T79">
+        <v>167274100</v>
+      </c>
+      <c r="U79">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V79">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W79">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X79">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y79">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z79">
+        <v>2093274</v>
+      </c>
+      <c r="AA79">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB79">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC79">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -4401,6 +7482,45 @@
       <c r="P80">
         <v>-80768656000</v>
       </c>
+      <c r="Q80">
+        <v>2397180444500</v>
+      </c>
+      <c r="R80">
+        <v>2477949100500</v>
+      </c>
+      <c r="S80">
+        <v>155626200</v>
+      </c>
+      <c r="T80">
+        <v>168694100</v>
+      </c>
+      <c r="U80">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V80">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W80">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X80">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y80">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z80">
+        <v>2093274</v>
+      </c>
+      <c r="AA80">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB80">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC80">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -4451,6 +7571,45 @@
       <c r="P81">
         <v>-94732229500</v>
       </c>
+      <c r="Q81">
+        <v>2417373296600</v>
+      </c>
+      <c r="R81">
+        <v>2512105526100</v>
+      </c>
+      <c r="S81">
+        <v>157132300</v>
+      </c>
+      <c r="T81">
+        <v>171029900</v>
+      </c>
+      <c r="U81">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V81">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W81">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X81">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y81">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z81">
+        <v>2093274</v>
+      </c>
+      <c r="AA81">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB81">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC81">
+        <v>4.6</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -4501,6 +7660,45 @@
       <c r="P82">
         <v>-95955894500</v>
       </c>
+      <c r="Q82">
+        <v>2439719630700</v>
+      </c>
+      <c r="R82">
+        <v>2535675525200</v>
+      </c>
+      <c r="S82">
+        <v>158442000</v>
+      </c>
+      <c r="T82">
+        <v>172479900</v>
+      </c>
+      <c r="U82">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V82">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W82">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X82">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y82">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z82">
+        <v>2093274</v>
+      </c>
+      <c r="AA82">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB82">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC82">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -4551,6 +7749,45 @@
       <c r="P83">
         <v>-99694977500</v>
       </c>
+      <c r="Q83">
+        <v>2456807337500</v>
+      </c>
+      <c r="R83">
+        <v>2556502315000</v>
+      </c>
+      <c r="S83">
+        <v>159582100</v>
+      </c>
+      <c r="T83">
+        <v>173735700</v>
+      </c>
+      <c r="U83">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V83">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W83">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X83">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y83">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z83">
+        <v>2093274</v>
+      </c>
+      <c r="AA83">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB83">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC83">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -4601,6 +7838,45 @@
       <c r="P84">
         <v>-102440451800</v>
       </c>
+      <c r="Q84">
+        <v>2475760316400</v>
+      </c>
+      <c r="R84">
+        <v>2578200768200</v>
+      </c>
+      <c r="S84">
+        <v>160794300</v>
+      </c>
+      <c r="T84">
+        <v>175086200</v>
+      </c>
+      <c r="U84">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V84">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W84">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X84">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y84">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z84">
+        <v>2093274</v>
+      </c>
+      <c r="AA84">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB84">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC84">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -4651,6 +7927,45 @@
       <c r="P85">
         <v>-104900054400</v>
       </c>
+      <c r="Q85">
+        <v>2498767654500</v>
+      </c>
+      <c r="R85">
+        <v>2603667708900</v>
+      </c>
+      <c r="S85">
+        <v>162229000</v>
+      </c>
+      <c r="T85">
+        <v>176757100</v>
+      </c>
+      <c r="U85">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V85">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W85">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X85">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y85">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z85">
+        <v>2093274</v>
+      </c>
+      <c r="AA85">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB85">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC85">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -4701,6 +8016,45 @@
       <c r="P86">
         <v>-133877252700</v>
       </c>
+      <c r="Q86">
+        <v>2514060804100</v>
+      </c>
+      <c r="R86">
+        <v>2647938056800</v>
+      </c>
+      <c r="S86">
+        <v>163118700</v>
+      </c>
+      <c r="T86">
+        <v>179308800</v>
+      </c>
+      <c r="U86">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V86">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W86">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X86">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y86">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z86">
+        <v>2093274</v>
+      </c>
+      <c r="AA86">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB86">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC86">
+        <v>9.5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -4751,6 +8105,45 @@
       <c r="P87">
         <v>-180004157900</v>
       </c>
+      <c r="Q87">
+        <v>2532403024800</v>
+      </c>
+      <c r="R87">
+        <v>2712407182700</v>
+      </c>
+      <c r="S87">
+        <v>164254500</v>
+      </c>
+      <c r="T87">
+        <v>183416100</v>
+      </c>
+      <c r="U87">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V87">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W87">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X87">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y87">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z87">
+        <v>2093274</v>
+      </c>
+      <c r="AA87">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB87">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC87">
+        <v>15.1</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -4801,6 +8194,45 @@
       <c r="P88">
         <v>-225742593600</v>
       </c>
+      <c r="Q88">
+        <v>2551308960400</v>
+      </c>
+      <c r="R88">
+        <v>2777051554000</v>
+      </c>
+      <c r="S88">
+        <v>165444200</v>
+      </c>
+      <c r="T88">
+        <v>188045800</v>
+      </c>
+      <c r="U88">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V88">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W88">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X88">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y88">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z88">
+        <v>2093274</v>
+      </c>
+      <c r="AA88">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB88">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC88">
+        <v>15</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -4851,6 +8283,45 @@
       <c r="P89">
         <v>-279272836800</v>
       </c>
+      <c r="Q89">
+        <v>2572944771300</v>
+      </c>
+      <c r="R89">
+        <v>2852217608100</v>
+      </c>
+      <c r="S89">
+        <v>166804400</v>
+      </c>
+      <c r="T89">
+        <v>194203700</v>
+      </c>
+      <c r="U89">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V89">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W89">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X89">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y89">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z89">
+        <v>2093274</v>
+      </c>
+      <c r="AA89">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB89">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC89">
+        <v>17.5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -4901,6 +8372,45 @@
       <c r="P90">
         <v>-288511553600</v>
       </c>
+      <c r="Q90">
+        <v>2614645380900</v>
+      </c>
+      <c r="R90">
+        <v>2903156934500</v>
+      </c>
+      <c r="S90">
+        <v>169603700</v>
+      </c>
+      <c r="T90">
+        <v>198030700</v>
+      </c>
+      <c r="U90">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V90">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W90">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X90">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y90">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z90">
+        <v>2093274</v>
+      </c>
+      <c r="AA90">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB90">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC90">
+        <v>3</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -4951,6 +8461,45 @@
       <c r="P91">
         <v>-280482924800</v>
       </c>
+      <c r="Q91">
+        <v>2653112752000</v>
+      </c>
+      <c r="R91">
+        <v>2933595676800</v>
+      </c>
+      <c r="S91">
+        <v>172450100</v>
+      </c>
+      <c r="T91">
+        <v>200364400</v>
+      </c>
+      <c r="U91">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V91">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W91">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X91">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y91">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z91">
+        <v>2093274</v>
+      </c>
+      <c r="AA91">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB91">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC91">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -5001,6 +8550,45 @@
       <c r="P92">
         <v>-252348159200</v>
       </c>
+      <c r="Q92">
+        <v>2700487688200</v>
+      </c>
+      <c r="R92">
+        <v>2952835847400</v>
+      </c>
+      <c r="S92">
+        <v>175646300</v>
+      </c>
+      <c r="T92">
+        <v>201685700</v>
+      </c>
+      <c r="U92">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V92">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W92">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X92">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y92">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z92">
+        <v>2093274</v>
+      </c>
+      <c r="AA92">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB92">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC92">
+        <v>9.2</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -5051,6 +8639,45 @@
       <c r="P93">
         <v>-231253361400</v>
       </c>
+      <c r="Q93">
+        <v>2739460045400</v>
+      </c>
+      <c r="R93">
+        <v>2970713406800</v>
+      </c>
+      <c r="S93">
+        <v>178146100</v>
+      </c>
+      <c r="T93">
+        <v>202975000</v>
+      </c>
+      <c r="U93">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V93">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W93">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X93">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y93">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z93">
+        <v>2093274</v>
+      </c>
+      <c r="AA93">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB93">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC93">
+        <v>6.9</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -5101,6 +8728,45 @@
       <c r="P94">
         <v>-219955351500</v>
       </c>
+      <c r="Q94">
+        <v>2770946451200</v>
+      </c>
+      <c r="R94">
+        <v>2990901802700</v>
+      </c>
+      <c r="S94">
+        <v>180480700</v>
+      </c>
+      <c r="T94">
+        <v>204262500</v>
+      </c>
+      <c r="U94">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V94">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W94">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X94">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y94">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z94">
+        <v>2093274</v>
+      </c>
+      <c r="AA94">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB94">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC94">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -5151,6 +8817,45 @@
       <c r="P95">
         <v>-229610804800</v>
       </c>
+      <c r="Q95">
+        <v>2787521874900</v>
+      </c>
+      <c r="R95">
+        <v>3017132679700</v>
+      </c>
+      <c r="S95">
+        <v>181593300</v>
+      </c>
+      <c r="T95">
+        <v>205978500</v>
+      </c>
+      <c r="U95">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V95">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W95">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X95">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y95">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z95">
+        <v>2093274</v>
+      </c>
+      <c r="AA95">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB95">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC95">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -5201,6 +8906,45 @@
       <c r="P96">
         <v>-239268197800</v>
       </c>
+      <c r="Q96">
+        <v>2803500088000</v>
+      </c>
+      <c r="R96">
+        <v>3042768285800</v>
+      </c>
+      <c r="S96">
+        <v>182587000</v>
+      </c>
+      <c r="T96">
+        <v>207803800</v>
+      </c>
+      <c r="U96">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V96">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W96">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X96">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y96">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z96">
+        <v>2093274</v>
+      </c>
+      <c r="AA96">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB96">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC96">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -5251,6 +8995,45 @@
       <c r="P97">
         <v>-259111121300</v>
       </c>
+      <c r="Q97">
+        <v>2816654234600</v>
+      </c>
+      <c r="R97">
+        <v>3075765355900</v>
+      </c>
+      <c r="S97">
+        <v>183327600</v>
+      </c>
+      <c r="T97">
+        <v>209961100</v>
+      </c>
+      <c r="U97">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V97">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W97">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X97">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y97">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z97">
+        <v>2093274</v>
+      </c>
+      <c r="AA97">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB97">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC97">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -5301,6 +9084,45 @@
       <c r="P98">
         <v>-286470747900</v>
       </c>
+      <c r="Q98">
+        <v>2830130503900</v>
+      </c>
+      <c r="R98">
+        <v>3116601251800</v>
+      </c>
+      <c r="S98">
+        <v>184193500</v>
+      </c>
+      <c r="T98">
+        <v>212679300</v>
+      </c>
+      <c r="U98">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V98">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W98">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X98">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y98">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z98">
+        <v>2093274</v>
+      </c>
+      <c r="AA98">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB98">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC98">
+        <v>9</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -5351,6 +9173,45 @@
       <c r="P99">
         <v>-285408530500</v>
       </c>
+      <c r="Q99">
+        <v>2851305260700</v>
+      </c>
+      <c r="R99">
+        <v>3136713791200</v>
+      </c>
+      <c r="S99">
+        <v>185639700</v>
+      </c>
+      <c r="T99">
+        <v>214049000</v>
+      </c>
+      <c r="U99">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V99">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W99">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X99">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y99">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z99">
+        <v>2093274</v>
+      </c>
+      <c r="AA99">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB99">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC99">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -5401,6 +9262,45 @@
       <c r="P100">
         <v>-287566830800</v>
       </c>
+      <c r="Q100">
+        <v>2871983499300</v>
+      </c>
+      <c r="R100">
+        <v>3159550330100</v>
+      </c>
+      <c r="S100">
+        <v>187110000</v>
+      </c>
+      <c r="T100">
+        <v>215621000</v>
+      </c>
+      <c r="U100">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V100">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W100">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X100">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y100">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z100">
+        <v>2093274</v>
+      </c>
+      <c r="AA100">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB100">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC100">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -5451,6 +9351,45 @@
       <c r="P101">
         <v>-278588927400</v>
       </c>
+      <c r="Q101">
+        <v>2901201317200</v>
+      </c>
+      <c r="R101">
+        <v>3179790244600</v>
+      </c>
+      <c r="S101">
+        <v>189007500</v>
+      </c>
+      <c r="T101">
+        <v>217165300</v>
+      </c>
+      <c r="U101">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V101">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W101">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X101">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y101">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z101">
+        <v>2093274</v>
+      </c>
+      <c r="AA101">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB101">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC101">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -5501,6 +9440,45 @@
       <c r="P102">
         <v>-284626678300</v>
       </c>
+      <c r="Q102">
+        <v>2925933385300</v>
+      </c>
+      <c r="R102">
+        <v>3210560063600</v>
+      </c>
+      <c r="S102">
+        <v>190834900</v>
+      </c>
+      <c r="T102">
+        <v>219036700</v>
+      </c>
+      <c r="U102">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V102">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W102">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X102">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y102">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z102">
+        <v>2093274</v>
+      </c>
+      <c r="AA102">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB102">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC102">
+        <v>2</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -5551,6 +9529,45 @@
       <c r="P103">
         <v>-280765010600</v>
       </c>
+      <c r="Q103">
+        <v>2947058384400</v>
+      </c>
+      <c r="R103">
+        <v>3227823395000</v>
+      </c>
+      <c r="S103">
+        <v>192067900</v>
+      </c>
+      <c r="T103">
+        <v>220685100</v>
+      </c>
+      <c r="U103">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V103">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W103">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X103">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y103">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z103">
+        <v>2093274</v>
+      </c>
+      <c r="AA103">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB103">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC103">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -5601,6 +9618,45 @@
       <c r="P104">
         <v>-286511559600</v>
       </c>
+      <c r="Q104">
+        <v>2964902015200</v>
+      </c>
+      <c r="R104">
+        <v>3251413574800</v>
+      </c>
+      <c r="S104">
+        <v>193142500</v>
+      </c>
+      <c r="T104">
+        <v>222424800</v>
+      </c>
+      <c r="U104">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V104">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W104">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X104">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y104">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z104">
+        <v>2093274</v>
+      </c>
+      <c r="AA104">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB104">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC104">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -5651,6 +9707,45 @@
       <c r="P105">
         <v>-337493347400</v>
       </c>
+      <c r="Q105">
+        <v>2987153271400</v>
+      </c>
+      <c r="R105">
+        <v>3324646618800</v>
+      </c>
+      <c r="S105">
+        <v>194403400</v>
+      </c>
+      <c r="T105">
+        <v>226606600</v>
+      </c>
+      <c r="U105">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V105">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W105">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X105">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y105">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z105">
+        <v>2093274</v>
+      </c>
+      <c r="AA105">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB105">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC105">
+        <v>16.7</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -5701,6 +9796,45 @@
       <c r="P106">
         <v>-377857635100</v>
       </c>
+      <c r="Q106">
+        <v>3007316024300</v>
+      </c>
+      <c r="R106">
+        <v>3385173659400</v>
+      </c>
+      <c r="S106">
+        <v>195667300</v>
+      </c>
+      <c r="T106">
+        <v>230303000</v>
+      </c>
+      <c r="U106">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V106">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W106">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X106">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y106">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z106">
+        <v>2093274</v>
+      </c>
+      <c r="AA106">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB106">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC106">
+        <v>13.2</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -5751,6 +9885,45 @@
       <c r="P107">
         <v>-440104639700</v>
       </c>
+      <c r="Q107">
+        <v>3032831182700</v>
+      </c>
+      <c r="R107">
+        <v>3472935822400</v>
+      </c>
+      <c r="S107">
+        <v>197262100</v>
+      </c>
+      <c r="T107">
+        <v>236182900</v>
+      </c>
+      <c r="U107">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V107">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W107">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X107">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y107">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z107">
+        <v>2093274</v>
+      </c>
+      <c r="AA107">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB107">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC107">
+        <v>20.4</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -5801,6 +9974,45 @@
       <c r="P108">
         <v>-443196848700</v>
       </c>
+      <c r="Q108">
+        <v>3071366383100</v>
+      </c>
+      <c r="R108">
+        <v>3514563231800</v>
+      </c>
+      <c r="S108">
+        <v>199480800</v>
+      </c>
+      <c r="T108">
+        <v>239172700</v>
+      </c>
+      <c r="U108">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V108">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W108">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X108">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y108">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z108">
+        <v>2093274</v>
+      </c>
+      <c r="AA108">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB108">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC108">
+        <v>1</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -5851,6 +10063,45 @@
       <c r="P109">
         <v>-433359223300</v>
       </c>
+      <c r="Q109">
+        <v>3103400687900</v>
+      </c>
+      <c r="R109">
+        <v>3536759911200</v>
+      </c>
+      <c r="S109">
+        <v>201362900</v>
+      </c>
+      <c r="T109">
+        <v>240533600</v>
+      </c>
+      <c r="U109">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V109">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W109">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X109">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y109">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z109">
+        <v>2093274</v>
+      </c>
+      <c r="AA109">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB109">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC109">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -5901,6 +10152,45 @@
       <c r="P110">
         <v>-416778310200</v>
       </c>
+      <c r="Q110">
+        <v>3137113624900</v>
+      </c>
+      <c r="R110">
+        <v>3553891935100</v>
+      </c>
+      <c r="S110">
+        <v>203526300</v>
+      </c>
+      <c r="T110">
+        <v>241541300</v>
+      </c>
+      <c r="U110">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V110">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W110">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X110">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y110">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z110">
+        <v>2093274</v>
+      </c>
+      <c r="AA110">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB110">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC110">
+        <v>5.4</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -5951,6 +10241,45 @@
       <c r="P111">
         <v>-403832811200</v>
       </c>
+      <c r="Q111">
+        <v>3169780939400</v>
+      </c>
+      <c r="R111">
+        <v>3573613750600</v>
+      </c>
+      <c r="S111">
+        <v>205646900</v>
+      </c>
+      <c r="T111">
+        <v>242774300</v>
+      </c>
+      <c r="U111">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V111">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W111">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X111">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y111">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z111">
+        <v>2093274</v>
+      </c>
+      <c r="AA111">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB111">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC111">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -6001,6 +10330,45 @@
       <c r="P112">
         <v>-407474724700</v>
       </c>
+      <c r="Q112">
+        <v>3204046277400</v>
+      </c>
+      <c r="R112">
+        <v>3611521002100</v>
+      </c>
+      <c r="S112">
+        <v>207468200</v>
+      </c>
+      <c r="T112">
+        <v>245107200</v>
+      </c>
+      <c r="U112">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V112">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W112">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X112">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y112">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z112">
+        <v>2093274</v>
+      </c>
+      <c r="AA112">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB112">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC112">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -6051,6 +10419,45 @@
       <c r="P113">
         <v>-396495702800</v>
       </c>
+      <c r="Q113">
+        <v>3242559558200</v>
+      </c>
+      <c r="R113">
+        <v>3639055261000</v>
+      </c>
+      <c r="S113">
+        <v>209889500</v>
+      </c>
+      <c r="T113">
+        <v>246844100</v>
+      </c>
+      <c r="U113">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V113">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W113">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X113">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y113">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z113">
+        <v>2093274</v>
+      </c>
+      <c r="AA113">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB113">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC113">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -6101,6 +10508,45 @@
       <c r="P114">
         <v>-389042587600</v>
       </c>
+      <c r="Q114">
+        <v>3276043518000</v>
+      </c>
+      <c r="R114">
+        <v>3665086105600</v>
+      </c>
+      <c r="S114">
+        <v>212374700</v>
+      </c>
+      <c r="T114">
+        <v>248498200</v>
+      </c>
+      <c r="U114">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V114">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W114">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X114">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y114">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z114">
+        <v>2093274</v>
+      </c>
+      <c r="AA114">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB114">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC114">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -6151,6 +10597,45 @@
       <c r="P115">
         <v>-363957196900</v>
       </c>
+      <c r="Q115">
+        <v>3325651514500</v>
+      </c>
+      <c r="R115">
+        <v>3689608711400</v>
+      </c>
+      <c r="S115">
+        <v>216294500</v>
+      </c>
+      <c r="T115">
+        <v>250020800</v>
+      </c>
+      <c r="U115">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V115">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W115">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X115">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y115">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z115">
+        <v>2093274</v>
+      </c>
+      <c r="AA115">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB115">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC115">
+        <v>8.2</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -6201,6 +10686,45 @@
       <c r="P116">
         <v>-306210961000</v>
       </c>
+      <c r="Q116">
+        <v>3410698178900</v>
+      </c>
+      <c r="R116">
+        <v>3716909139900</v>
+      </c>
+      <c r="S116">
+        <v>221824400</v>
+      </c>
+      <c r="T116">
+        <v>251859800</v>
+      </c>
+      <c r="U116">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V116">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W116">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X116">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y116">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z116">
+        <v>2093274</v>
+      </c>
+      <c r="AA116">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB116">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC116">
+        <v>18.9</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117">
@@ -6251,6 +10775,45 @@
       <c r="P117">
         <v>-283327214200</v>
       </c>
+      <c r="Q117">
+        <v>3471916036600</v>
+      </c>
+      <c r="R117">
+        <v>3755243250800</v>
+      </c>
+      <c r="S117">
+        <v>225310400</v>
+      </c>
+      <c r="T117">
+        <v>254055900</v>
+      </c>
+      <c r="U117">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V117">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W117">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X117">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y117">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z117">
+        <v>2093274</v>
+      </c>
+      <c r="AA117">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB117">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC117">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118">
@@ -6301,6 +10864,45 @@
       <c r="P118">
         <v>-288489778200</v>
       </c>
+      <c r="Q118">
+        <v>3510412999100</v>
+      </c>
+      <c r="R118">
+        <v>3798902777300</v>
+      </c>
+      <c r="S118">
+        <v>227780900</v>
+      </c>
+      <c r="T118">
+        <v>256774900</v>
+      </c>
+      <c r="U118">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V118">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W118">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X118">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y118">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z118">
+        <v>2093274</v>
+      </c>
+      <c r="AA118">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB118">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC118">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119">
@@ -6351,6 +10953,45 @@
       <c r="P119">
         <v>-321237223000</v>
       </c>
+      <c r="Q119">
+        <v>3535790333500</v>
+      </c>
+      <c r="R119">
+        <v>3857027556500</v>
+      </c>
+      <c r="S119">
+        <v>229300500</v>
+      </c>
+      <c r="T119">
+        <v>260753800</v>
+      </c>
+      <c r="U119">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V119">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W119">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X119">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y119">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z119">
+        <v>2093274</v>
+      </c>
+      <c r="AA119">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB119">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC119">
+        <v>10.7</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120">
@@ -6401,6 +11042,45 @@
       <c r="P120">
         <v>-368797540500</v>
       </c>
+      <c r="Q120">
+        <v>3565670607000</v>
+      </c>
+      <c r="R120">
+        <v>3934468147500</v>
+      </c>
+      <c r="S120">
+        <v>231066100</v>
+      </c>
+      <c r="T120">
+        <v>266270000</v>
+      </c>
+      <c r="U120">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V120">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W120">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X120">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y120">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z120">
+        <v>2093274</v>
+      </c>
+      <c r="AA120">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB120">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC120">
+        <v>15.6</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121">
@@ -6451,6 +11131,45 @@
       <c r="P121">
         <v>-406795000700</v>
       </c>
+      <c r="Q121">
+        <v>3611231063000</v>
+      </c>
+      <c r="R121">
+        <v>4018026063700</v>
+      </c>
+      <c r="S121">
+        <v>234221000</v>
+      </c>
+      <c r="T121">
+        <v>272631500</v>
+      </c>
+      <c r="U121">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V121">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W121">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X121">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y121">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z121">
+        <v>2093274</v>
+      </c>
+      <c r="AA121">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB121">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC121">
+        <v>12.4</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122">
@@ -6501,6 +11220,45 @@
       <c r="P122">
         <v>-406782284700</v>
       </c>
+      <c r="Q122">
+        <v>3611243779000</v>
+      </c>
+      <c r="R122">
+        <v>4018026063700</v>
+      </c>
+      <c r="S122">
+        <v>234222900</v>
+      </c>
+      <c r="T122">
+        <v>272631500</v>
+      </c>
+      <c r="U122">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V122">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W122">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X122">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y122">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z122">
+        <v>2093274</v>
+      </c>
+      <c r="AA122">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB122">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC122">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123">
@@ -6551,6 +11309,45 @@
       <c r="P123">
         <v>-406847794700</v>
       </c>
+      <c r="Q123">
+        <v>3611308949000</v>
+      </c>
+      <c r="R123">
+        <v>4018156743700</v>
+      </c>
+      <c r="S123">
+        <v>234227800</v>
+      </c>
+      <c r="T123">
+        <v>272641400</v>
+      </c>
+      <c r="U123">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V123">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W123">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X123">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y123">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z123">
+        <v>2093274</v>
+      </c>
+      <c r="AA123">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB123">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC123">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124">
@@ -6601,6 +11398,45 @@
       <c r="P124">
         <v>-406913794700</v>
       </c>
+      <c r="Q124">
+        <v>3611308949000</v>
+      </c>
+      <c r="R124">
+        <v>4018222743700</v>
+      </c>
+      <c r="S124">
+        <v>234227800</v>
+      </c>
+      <c r="T124">
+        <v>272646400</v>
+      </c>
+      <c r="U124">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V124">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W124">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X124">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y124">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z124">
+        <v>2093274</v>
+      </c>
+      <c r="AA124">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB124">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC124">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125">
@@ -6651,6 +11487,45 @@
       <c r="P125">
         <v>-406919074700</v>
       </c>
+      <c r="Q125">
+        <v>3611308949000</v>
+      </c>
+      <c r="R125">
+        <v>4018228023700</v>
+      </c>
+      <c r="S125">
+        <v>234227800</v>
+      </c>
+      <c r="T125">
+        <v>272646800</v>
+      </c>
+      <c r="U125">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V125">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W125">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X125">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y125">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z125">
+        <v>2093274</v>
+      </c>
+      <c r="AA125">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB125">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC125">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126">
@@ -6701,6 +11576,45 @@
       <c r="P126">
         <v>-406879474700</v>
       </c>
+      <c r="Q126">
+        <v>3611348549000</v>
+      </c>
+      <c r="R126">
+        <v>4018228023700</v>
+      </c>
+      <c r="S126">
+        <v>234230800</v>
+      </c>
+      <c r="T126">
+        <v>272646800</v>
+      </c>
+      <c r="U126">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V126">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W126">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X126">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y126">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z126">
+        <v>2093274</v>
+      </c>
+      <c r="AA126">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB126">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC126">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127">
@@ -6751,6 +11665,45 @@
       <c r="P127">
         <v>-406876834700</v>
       </c>
+      <c r="Q127">
+        <v>3611351189000</v>
+      </c>
+      <c r="R127">
+        <v>4018228023700</v>
+      </c>
+      <c r="S127">
+        <v>234231000</v>
+      </c>
+      <c r="T127">
+        <v>272646800</v>
+      </c>
+      <c r="U127">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V127">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W127">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X127">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y127">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z127">
+        <v>2093274</v>
+      </c>
+      <c r="AA127">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB127">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC127">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128">
@@ -6801,6 +11754,45 @@
       <c r="P128">
         <v>-399798310600</v>
       </c>
+      <c r="Q128">
+        <v>3634614487600</v>
+      </c>
+      <c r="R128">
+        <v>4034412798200</v>
+      </c>
+      <c r="S128">
+        <v>235747100</v>
+      </c>
+      <c r="T128">
+        <v>274210600</v>
+      </c>
+      <c r="U128">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V128">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W128">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X128">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y128">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z128">
+        <v>2093274</v>
+      </c>
+      <c r="AA128">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB128">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC128">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129">
@@ -6851,6 +11843,45 @@
       <c r="P129">
         <v>-399851110600</v>
       </c>
+      <c r="Q129">
+        <v>3634651447600</v>
+      </c>
+      <c r="R129">
+        <v>4034502558200</v>
+      </c>
+      <c r="S129">
+        <v>235749900</v>
+      </c>
+      <c r="T129">
+        <v>274217400</v>
+      </c>
+      <c r="U129">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V129">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W129">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X129">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y129">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z129">
+        <v>2093274</v>
+      </c>
+      <c r="AA129">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB129">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC129">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130">
@@ -6901,6 +11932,45 @@
       <c r="P130">
         <v>-399853750600</v>
       </c>
+      <c r="Q130">
+        <v>3634651447600</v>
+      </c>
+      <c r="R130">
+        <v>4034505198200</v>
+      </c>
+      <c r="S130">
+        <v>235749900</v>
+      </c>
+      <c r="T130">
+        <v>274217600</v>
+      </c>
+      <c r="U130">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V130">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W130">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X130">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y130">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z130">
+        <v>2093274</v>
+      </c>
+      <c r="AA130">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB130">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC130">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131">
@@ -6951,6 +12021,45 @@
       <c r="P131">
         <v>-399866950600</v>
       </c>
+      <c r="Q131">
+        <v>3634651447600</v>
+      </c>
+      <c r="R131">
+        <v>4034518398200</v>
+      </c>
+      <c r="S131">
+        <v>235749900</v>
+      </c>
+      <c r="T131">
+        <v>274218600</v>
+      </c>
+      <c r="U131">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V131">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W131">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X131">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y131">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z131">
+        <v>2093274</v>
+      </c>
+      <c r="AA131">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB131">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC131">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132">
@@ -7001,10 +12110,49 @@
       <c r="P132">
         <v>-399870910600</v>
       </c>
+      <c r="Q132">
+        <v>3634651447600</v>
+      </c>
+      <c r="R132">
+        <v>4034522358200</v>
+      </c>
+      <c r="S132">
+        <v>235749900</v>
+      </c>
+      <c r="T132">
+        <v>274218900</v>
+      </c>
+      <c r="U132">
+        <v>27745430897.7</v>
+      </c>
+      <c r="V132">
+        <v>30797880596.9</v>
+      </c>
+      <c r="W132">
+        <v>61799145728.2</v>
+      </c>
+      <c r="X132">
+        <v>4145961.1</v>
+      </c>
+      <c r="Y132">
+        <v>1799617.6</v>
+      </c>
+      <c r="Z132">
+        <v>2093274</v>
+      </c>
+      <c r="AA132">
+        <v>-293656.5</v>
+      </c>
+      <c r="AB132">
+        <v>-3052449699.2</v>
+      </c>
+      <c r="AC132">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P132"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AC132"/>
   </ignoredErrors>
 </worksheet>
 </file>